--- a/Documentation/CosineSimilarity/Record.xlsx
+++ b/Documentation/CosineSimilarity/Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\embeders-semantic-analysis\Documentation\CosineSimilarity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B223706-6F3F-4F71-B8E4-4A592831373B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5F4FF2-6562-4321-96F0-F2C78DB267A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0B6CED53-8839-4228-88B3-1E625FBF7FC8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{0B6CED53-8839-4228-88B3-1E625FBF7FC8}"/>
   </bookViews>
   <sheets>
     <sheet name="words vs words" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,6 +540,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,14 +562,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,7 +660,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-CA"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3725,7 +3732,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-CA"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4485,7 +4492,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-CA"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5365,7 +5372,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-CA"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11384,15 +11391,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>156136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>115794</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142688</xdr:rowOff>
+      <xdr:colOff>183030</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30630</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11456,15 +11463,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>250265</xdr:colOff>
+      <xdr:colOff>459442</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>178548</xdr:rowOff>
+      <xdr:rowOff>171077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>220383</xdr:colOff>
+      <xdr:colOff>429560</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>53042</xdr:rowOff>
+      <xdr:rowOff>45571</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11847,8 +11854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AA2988-5AAB-4458-847B-F75AA408FACB}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U49" sqref="U49"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -11859,14 +11866,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
@@ -12046,14 +12053,14 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6">
       <c r="B20" t="s">
@@ -12213,19 +12220,19 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11">
       <c r="B38" t="s">
@@ -12624,8 +12631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B395E1AC-FE3E-4EA2-ADDC-088EB33C8183}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -12636,14 +12643,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
@@ -12875,26 +12882,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49FE91F-C29C-49F4-8576-5D811DA982A1}">
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="V88" sqref="V88"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47:P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="59.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.58203125" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.58203125" customWidth="1"/>
+    <col min="6" max="6" width="10.9140625" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
@@ -13314,14 +13322,14 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" t="s">
@@ -13661,24 +13669,24 @@
       </c>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:16">
       <c r="B48" t="s">
@@ -14539,24 +14547,24 @@
       </c>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
     </row>
     <row r="71" spans="1:16">
       <c r="B71" t="s">
@@ -15609,8 +15617,8 @@
   <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A47:P47"/>
     <mergeCell ref="A70:P70"/>
+    <mergeCell ref="A47:M47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Documentation/CosineSimilarity/Record.xlsx
+++ b/Documentation/CosineSimilarity/Record.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\embeders-semantic-analysis\Documentation\CosineSimilarity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5F4FF2-6562-4321-96F0-F2C78DB267A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE56A274-A7F0-46FD-9611-059D8B51F77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{0B6CED53-8839-4228-88B3-1E625FBF7FC8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{0B6CED53-8839-4228-88B3-1E625FBF7FC8}"/>
   </bookViews>
   <sheets>
-    <sheet name="words vs words" sheetId="1" r:id="rId1"/>
-    <sheet name="words vs pdfs" sheetId="2" r:id="rId2"/>
-    <sheet name="words vs datasheets" sheetId="3" r:id="rId3"/>
+    <sheet name="words vs words (3-small)" sheetId="1" r:id="rId1"/>
+    <sheet name="words vs pdfs (3-small)" sheetId="2" r:id="rId2"/>
+    <sheet name="words vs datasheets (3-small)" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
   <si>
     <t>political</t>
   </si>
@@ -79,142 +80,19 @@
     <t>The Chronicles of Narnia</t>
   </si>
   <si>
-    <t>J.R.R. Tolkien 4-Book Boxed Set: The Hobbit and The Lord of the Rings</t>
-  </si>
-  <si>
-    <t>Gone with the Wind</t>
-  </si>
-  <si>
-    <t>The Fault in Our Stars</t>
-  </si>
-  <si>
-    <t>The Hitchhiker's Guide to the Galaxy</t>
-  </si>
-  <si>
-    <t>The Giving Tree</t>
-  </si>
-  <si>
-    <t>Wuthering Heights</t>
-  </si>
-  <si>
-    <t>The Da Vinci Code</t>
-  </si>
-  <si>
-    <t>Memoirs of a Geisha</t>
-  </si>
-  <si>
-    <t>The Picture of Dorian Gray</t>
-  </si>
-  <si>
-    <t>Alice's Adventures in Wonderland &amp; Through the Looking-Glass</t>
-  </si>
-  <si>
-    <t>Jane Eyre</t>
-  </si>
-  <si>
-    <t>Les MisÃ©rables</t>
-  </si>
-  <si>
-    <t>Harry Potter and the Half-Blood Prince</t>
-  </si>
-  <si>
-    <t>Harry Potter and the Sorcerer's Stone</t>
-  </si>
-  <si>
-    <t>Harry Potter and the Prisoner of Azkaban</t>
-  </si>
-  <si>
-    <t>Harry Potter and the Goblet of Fire</t>
-  </si>
-  <si>
-    <t>A Short History of Nearly Everything</t>
-  </si>
-  <si>
-    <t>In a Sunburned Country</t>
-  </si>
-  <si>
-    <t>I'm a Stranger Here Myself: Notes on Returning to America After Twenty Years Away</t>
-  </si>
-  <si>
-    <t>The Lost Continent: Travels in Small-Town America</t>
-  </si>
-  <si>
-    <t>Neither Here nor There: Travels in Europe</t>
-  </si>
-  <si>
-    <t>Notes from a Small Island</t>
-  </si>
-  <si>
-    <t>The Mother Tongue: English and How It Got That Way</t>
-  </si>
-  <si>
-    <t>The Lord of the Rings</t>
-  </si>
-  <si>
-    <t>The Fellowship of the Ring</t>
-  </si>
-  <si>
-    <t>Hatchet</t>
-  </si>
-  <si>
-    <t>PESTLE vs Book2 Dataset</t>
-  </si>
-  <si>
-    <t>PESTLE vs Books Dataset</t>
-  </si>
-  <si>
-    <t>journey</t>
-  </si>
-  <si>
-    <t>conflict</t>
-  </si>
-  <si>
-    <t>pursuit</t>
-  </si>
-  <si>
-    <t>challenge</t>
-  </si>
-  <si>
-    <t>alliance</t>
-  </si>
-  <si>
     <t>betrayal</t>
-  </si>
-  <si>
-    <t>transformation</t>
-  </si>
-  <si>
-    <t>discovery</t>
   </si>
   <si>
     <t>survival</t>
   </si>
   <si>
-    <t>legacy</t>
-  </si>
-  <si>
-    <t>encounter</t>
-  </si>
-  <si>
     <t>redemption</t>
-  </si>
-  <si>
-    <t>The Shawshank Redemption</t>
-  </si>
-  <si>
-    <t>The Godfather</t>
   </si>
   <si>
     <t>The Dark Knight</t>
   </si>
   <si>
-    <t>The Godfather: Part II</t>
-  </si>
-  <si>
     <t>12 Angry Men</t>
-  </si>
-  <si>
-    <t>The Lord of the Rings: The Return of the King</t>
   </si>
   <si>
     <t>Pulp Fiction</t>
@@ -227,39 +105,6 @@
   </si>
   <si>
     <t>Fight Club</t>
-  </si>
-  <si>
-    <t>The Lord of the Rings: The Fellowship of the Ring</t>
-  </si>
-  <si>
-    <t>Forrest Gump</t>
-  </si>
-  <si>
-    <t>Il buono, il brutto, il cattivo</t>
-  </si>
-  <si>
-    <t>The Lord of the Rings: The Two Towers</t>
-  </si>
-  <si>
-    <t>The Matrix</t>
-  </si>
-  <si>
-    <t>Goodfellas</t>
-  </si>
-  <si>
-    <t>Star Wars: Episode V - The Empire Strikes Back</t>
-  </si>
-  <si>
-    <t>One Flew Over the Cuckoo's Nest</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Gisaengchung</t>
-  </si>
-  <si>
-    <t>words vs Movies</t>
   </si>
   <si>
     <t>love</t>
@@ -278,96 +123,6 @@
   </si>
   <si>
     <t>freedom</t>
-  </si>
-  <si>
-    <t>revolution</t>
-  </si>
-  <si>
-    <t>soul</t>
-  </si>
-  <si>
-    <t>passion</t>
-  </si>
-  <si>
-    <t>mystery</t>
-  </si>
-  <si>
-    <t>magic</t>
-  </si>
-  <si>
-    <t>nostalgia</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>Say It, Just Say It</t>
-  </si>
-  <si>
-    <t>Drinking from the Bottle (feat. Tinie Tempah)</t>
-  </si>
-  <si>
-    <t>Born To Die</t>
-  </si>
-  <si>
-    <t>Off To The Races</t>
-  </si>
-  <si>
-    <t>Half Mast</t>
-  </si>
-  <si>
-    <t>Impossible</t>
-  </si>
-  <si>
-    <t>We Own The Sky</t>
-  </si>
-  <si>
-    <t>Higher Ground - Remastered 2003</t>
-  </si>
-  <si>
-    <t>Happy Up Here</t>
-  </si>
-  <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>Sun - Gildas KitsunÐ¹ Club Night Short Remix</t>
-  </si>
-  <si>
-    <t>Midnight City</t>
-  </si>
-  <si>
-    <t>Heaven</t>
-  </si>
-  <si>
-    <t>Do I Wanna Know?</t>
-  </si>
-  <si>
-    <t>Time to Pretend</t>
-  </si>
-  <si>
-    <t>Weekend Wars</t>
-  </si>
-  <si>
-    <t>The Youth</t>
-  </si>
-  <si>
-    <t>Electric Feel</t>
-  </si>
-  <si>
-    <t>Kids</t>
-  </si>
-  <si>
-    <t>Take a Walk</t>
-  </si>
-  <si>
-    <t>Words vs Spotify</t>
   </si>
   <si>
     <t>Algorithmic Bias and Legal Precedent</t>
@@ -516,12 +271,63 @@
   <si>
     <t>PESTLE vs word list 2</t>
   </si>
+  <si>
+    <t>rebellion</t>
+  </si>
+  <si>
+    <t>sorcery</t>
+  </si>
+  <si>
+    <t>justice</t>
+  </si>
+  <si>
+    <t>romance</t>
+  </si>
+  <si>
+    <t>vampire</t>
+  </si>
+  <si>
+    <t>horror</t>
+  </si>
+  <si>
+    <t>comedy</t>
+  </si>
+  <si>
+    <t>dystopia</t>
+  </si>
+  <si>
+    <t>Killa Cam</t>
+  </si>
+  <si>
+    <t>Can I Live</t>
+  </si>
+  <si>
+    <t>Forgive Me Father</t>
+  </si>
+  <si>
+    <t>Down and Out</t>
+  </si>
+  <si>
+    <t>Fly In</t>
+  </si>
+  <si>
+    <t>Lollipop Remix</t>
+  </si>
+  <si>
+    <t>Words vs Books Dataset (using "description" field)</t>
+  </si>
+  <si>
+    <t>Words vs Movies Dataset (using "Overview" field)</t>
+  </si>
+  <si>
+    <t>Words vs Lyrics Dataset (using "lyrics" field)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,8 +335,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,8 +372,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2CEEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -558,19 +387,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,7 +575,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words'!$B$2</c:f>
+              <c:f>'words vs words (3-small)'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -697,7 +596,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words'!$A$3:$A$10</c:f>
+              <c:f>'words vs words (3-small)'!$A$3:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -729,7 +628,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words'!$B$3:$B$10</c:f>
+              <c:f>'words vs words (3-small)'!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -771,7 +670,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words'!$C$2</c:f>
+              <c:f>'words vs words (3-small)'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -792,7 +691,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words'!$A$3:$A$10</c:f>
+              <c:f>'words vs words (3-small)'!$A$3:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -824,7 +723,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words'!$C$3:$C$10</c:f>
+              <c:f>'words vs words (3-small)'!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -866,7 +765,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words'!$D$2</c:f>
+              <c:f>'words vs words (3-small)'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -887,7 +786,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words'!$A$3:$A$10</c:f>
+              <c:f>'words vs words (3-small)'!$A$3:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -919,7 +818,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words'!$D$3:$D$10</c:f>
+              <c:f>'words vs words (3-small)'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -961,7 +860,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words'!$E$2</c:f>
+              <c:f>'words vs words (3-small)'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -982,7 +881,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words'!$A$3:$A$10</c:f>
+              <c:f>'words vs words (3-small)'!$A$3:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1014,7 +913,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words'!$E$3:$E$10</c:f>
+              <c:f>'words vs words (3-small)'!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1056,7 +955,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words'!$F$2</c:f>
+              <c:f>'words vs words (3-small)'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1077,7 +976,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words'!$A$3:$A$10</c:f>
+              <c:f>'words vs words (3-small)'!$A$3:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1109,7 +1008,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words'!$F$3:$F$10</c:f>
+              <c:f>'words vs words (3-small)'!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1429,7 +1328,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words'!$B$20</c:f>
+              <c:f>'words vs words (3-small)'!$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1450,7 +1349,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words'!$A$21:$A$27</c:f>
+              <c:f>'words vs words (3-small)'!$A$21:$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1479,7 +1378,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words'!$B$21:$B$27</c:f>
+              <c:f>'words vs words (3-small)'!$B$21:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1518,7 +1417,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words'!$C$20</c:f>
+              <c:f>'words vs words (3-small)'!$C$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1539,7 +1438,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words'!$A$21:$A$27</c:f>
+              <c:f>'words vs words (3-small)'!$A$21:$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1568,7 +1467,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words'!$C$21:$C$27</c:f>
+              <c:f>'words vs words (3-small)'!$C$21:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1607,7 +1506,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words'!$D$20</c:f>
+              <c:f>'words vs words (3-small)'!$D$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1628,7 +1527,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words'!$A$21:$A$27</c:f>
+              <c:f>'words vs words (3-small)'!$A$21:$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1657,7 +1556,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words'!$D$21:$D$27</c:f>
+              <c:f>'words vs words (3-small)'!$D$21:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1696,7 +1595,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words'!$E$20</c:f>
+              <c:f>'words vs words (3-small)'!$E$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1717,7 +1616,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words'!$A$21:$A$27</c:f>
+              <c:f>'words vs words (3-small)'!$A$21:$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1746,7 +1645,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words'!$E$21:$E$27</c:f>
+              <c:f>'words vs words (3-small)'!$E$21:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1785,7 +1684,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words'!$F$20</c:f>
+              <c:f>'words vs words (3-small)'!$F$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1806,7 +1705,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words'!$A$21:$A$27</c:f>
+              <c:f>'words vs words (3-small)'!$A$21:$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1835,7 +1734,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words'!$F$21:$F$27</c:f>
+              <c:f>'words vs words (3-small)'!$F$21:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2152,7 +2051,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words'!$A$39</c:f>
+              <c:f>'words vs words (3-small)'!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2173,7 +2072,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words'!$B$38:$G$38</c:f>
+              <c:f>'words vs words (3-small)'!$B$38:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2199,7 +2098,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words'!$B$39:$G$39</c:f>
+              <c:f>'words vs words (3-small)'!$B$39:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2235,7 +2134,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words'!$A$40</c:f>
+              <c:f>'words vs words (3-small)'!$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2256,7 +2155,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words'!$B$38:$G$38</c:f>
+              <c:f>'words vs words (3-small)'!$B$38:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2282,7 +2181,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words'!$B$40:$G$40</c:f>
+              <c:f>'words vs words (3-small)'!$B$40:$G$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2318,7 +2217,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words'!$A$41</c:f>
+              <c:f>'words vs words (3-small)'!$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2339,7 +2238,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words'!$B$38:$G$38</c:f>
+              <c:f>'words vs words (3-small)'!$B$38:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2365,7 +2264,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words'!$B$41:$G$41</c:f>
+              <c:f>'words vs words (3-small)'!$B$41:$G$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2401,7 +2300,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words'!$A$42</c:f>
+              <c:f>'words vs words (3-small)'!$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2422,7 +2321,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words'!$B$38:$G$38</c:f>
+              <c:f>'words vs words (3-small)'!$B$38:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2448,7 +2347,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words'!$B$42:$G$42</c:f>
+              <c:f>'words vs words (3-small)'!$B$42:$G$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2484,7 +2383,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words'!$A$43</c:f>
+              <c:f>'words vs words (3-small)'!$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2505,7 +2404,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words'!$B$38:$G$38</c:f>
+              <c:f>'words vs words (3-small)'!$B$38:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2531,7 +2430,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words'!$B$43:$G$43</c:f>
+              <c:f>'words vs words (3-small)'!$B$43:$G$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2567,7 +2466,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words'!$A$44</c:f>
+              <c:f>'words vs words (3-small)'!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2588,7 +2487,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words'!$B$38:$G$38</c:f>
+              <c:f>'words vs words (3-small)'!$B$38:$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2614,7 +2513,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words'!$B$44:$G$44</c:f>
+              <c:f>'words vs words (3-small)'!$B$44:$G$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2928,7 +2827,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs pdfs'!$B$2</c:f>
+              <c:f>'words vs pdfs (3-small)'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2949,7 +2848,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs pdfs'!$A$3:$A$12</c:f>
+              <c:f>'words vs pdfs (3-small)'!$A$3:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2987,7 +2886,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs pdfs'!$B$3:$B$12</c:f>
+              <c:f>'words vs pdfs (3-small)'!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3035,7 +2934,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs pdfs'!$C$2</c:f>
+              <c:f>'words vs pdfs (3-small)'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3056,7 +2955,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs pdfs'!$A$3:$A$12</c:f>
+              <c:f>'words vs pdfs (3-small)'!$A$3:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3094,7 +2993,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs pdfs'!$C$3:$C$12</c:f>
+              <c:f>'words vs pdfs (3-small)'!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3142,7 +3041,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs pdfs'!$D$2</c:f>
+              <c:f>'words vs pdfs (3-small)'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3163,7 +3062,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs pdfs'!$A$3:$A$12</c:f>
+              <c:f>'words vs pdfs (3-small)'!$A$3:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3201,7 +3100,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs pdfs'!$D$3:$D$12</c:f>
+              <c:f>'words vs pdfs (3-small)'!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3249,7 +3148,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs pdfs'!$E$2</c:f>
+              <c:f>'words vs pdfs (3-small)'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3270,7 +3169,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs pdfs'!$A$3:$A$12</c:f>
+              <c:f>'words vs pdfs (3-small)'!$A$3:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3308,7 +3207,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs pdfs'!$E$3:$E$12</c:f>
+              <c:f>'words vs pdfs (3-small)'!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3356,7 +3255,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs pdfs'!$F$2</c:f>
+              <c:f>'words vs pdfs (3-small)'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3377,7 +3276,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs pdfs'!$A$3:$A$12</c:f>
+              <c:f>'words vs pdfs (3-small)'!$A$3:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3415,7 +3314,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs pdfs'!$F$3:$F$12</c:f>
+              <c:f>'words vs pdfs (3-small)'!$F$3:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3697,7 +3596,7 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>PESTLE vs Books Dataset</a:t>
+              <a:t>Words vs Books Dataset</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -3738,7 +3637,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39957703073038869"/>
+          <c:y val="0.15059650108599718"/>
+          <c:w val="0.57275054669085512"/>
+          <c:h val="0.67612701991705493"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -3748,18 +3657,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs datasheets'!$B$2</c:f>
+              <c:f>'words vs datasheets (3-small)'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>political</c:v>
+                  <c:v>rebellion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="7030A0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3769,7 +3678,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs datasheets'!$A$3:$A$10</c:f>
+              <c:f>'words vs datasheets (3-small)'!$A$3:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -3801,33 +3710,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs datasheets'!$B$3:$B$10</c:f>
+              <c:f>'words vs datasheets (3-small)'!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.13097039890915299</c:v>
+                  <c:v>0.141756272224349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6851320236754501E-2</c:v>
+                  <c:v>9.2869560597543505E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.82150080571093E-2</c:v>
+                  <c:v>9.0803050159410301E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0003142911424394E-2</c:v>
+                  <c:v>0.101121382830671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.114010528557365</c:v>
+                  <c:v>8.2150347881970495E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9199456182686101E-2</c:v>
+                  <c:v>6.0599442642118702E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13779768740101001</c:v>
+                  <c:v>0.18473575197641601</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.2034426179779796E-3</c:v>
+                  <c:v>1.5235639820545099E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3843,11 +3752,201 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs datasheets'!$C$2</c:f>
+              <c:f>'words vs datasheets (3-small)'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>economic</c:v>
+                  <c:v>sorcery</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'words vs datasheets (3-small)'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>The Hunger Games</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Harry Potter and the Order of the Phoenix</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>To Kill a Mockingbird</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pride and Prejudice</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Twilight</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>The Book Thief</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Animal Farm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>The Chronicles of Narnia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'words vs datasheets (3-small)'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.132003972629924</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25481334979784798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1916919307651506E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6597551939190402E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.131038268960006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16174551358213701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10600864529402999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22697414062606699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C0F0-4B48-98B9-E49EE352F8C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'words vs datasheets (3-small)'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>justice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'words vs datasheets (3-small)'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>The Hunger Games</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Harry Potter and the Order of the Phoenix</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>To Kill a Mockingbird</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pride and Prejudice</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Twilight</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>The Book Thief</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Animal Farm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>The Chronicles of Narnia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'words vs datasheets (3-small)'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.1979544944221</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11766335900458399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.159405315592625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.171920529473991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1079131357162399E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.110735818515453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13881116913597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0492543259866096E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C0F0-4B48-98B9-E49EE352F8C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'words vs datasheets (3-small)'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>romance</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3864,7 +3963,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs datasheets'!$A$3:$A$10</c:f>
+              <c:f>'words vs datasheets (3-small)'!$A$3:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -3896,223 +3995,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs datasheets'!$C$3:$C$10</c:f>
+              <c:f>'words vs datasheets (3-small)'!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.115206430016944</c:v>
+                  <c:v>9.9339738997996502E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1102480320015698E-2</c:v>
+                  <c:v>0.120019098135936</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.15901129366327E-2</c:v>
+                  <c:v>0.12837123490117999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.7645940972153405E-2</c:v>
+                  <c:v>0.20975615093046401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.98850118125995E-2</c:v>
+                  <c:v>0.22227195677168901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.76417308663412E-2</c:v>
+                  <c:v>0.12951544760904099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10230435466974699</c:v>
+                  <c:v>7.50884418975276E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3082859322729901E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C0F0-4B48-98B9-E49EE352F8C9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'words vs datasheets'!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sociological</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'words vs datasheets'!$A$3:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>The Hunger Games</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Harry Potter and the Order of the Phoenix</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>To Kill a Mockingbird</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Pride and Prejudice</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Twilight</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>The Book Thief</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Animal Farm</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>The Chronicles of Narnia</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'words vs datasheets'!$D$3:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>7.3673770880044898E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.9219745427664907E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.131007177422064</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.74887553036069E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.4990736963215902E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.115047473812132</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.167519871704437</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.3767549968154099E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C0F0-4B48-98B9-E49EE352F8C9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'words vs datasheets'!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>technological</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'words vs datasheets'!$A$3:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>The Hunger Games</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Harry Potter and the Order of the Phoenix</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>To Kill a Mockingbird</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Pride and Prejudice</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Twilight</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>The Book Thief</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Animal Farm</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>The Chronicles of Narnia</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'words vs datasheets'!$E$3:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4.5466447444338899E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.5210768656354402E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.94199883500423E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9879241002198001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.2628299589825699E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.08581800196341E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0625596163338197E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-7.2019435861448503E-3</c:v>
+                  <c:v>0.12591428162394899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4128,18 +4037,21 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs datasheets'!$F$2</c:f>
+              <c:f>'words vs datasheets (3-small)'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>legal and environmental</c:v>
+                  <c:v>vampire</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4149,7 +4061,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs datasheets'!$A$3:$A$10</c:f>
+              <c:f>'words vs datasheets (3-small)'!$A$3:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -4181,33 +4093,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs datasheets'!$F$3:$F$10</c:f>
+              <c:f>'words vs datasheets (3-small)'!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8.9747584822840801E-2</c:v>
+                  <c:v>0.163146967421814</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.56627911804437E-2</c:v>
+                  <c:v>0.21313981654754</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5975350717605399E-2</c:v>
+                  <c:v>9.0570257930593007E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7458169883014901E-2</c:v>
+                  <c:v>0.10247346014126001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1137900236905401E-2</c:v>
+                  <c:v>0.44371707419386303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5311084016080701E-2</c:v>
+                  <c:v>0.171577353706511</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.1624472390884398E-2</c:v>
+                  <c:v>0.11236436085764</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.38207774953409E-2</c:v>
+                  <c:v>0.117805849644163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4215,6 +4127,104 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-C0F0-4B48-98B9-E49EE352F8C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'words vs datasheets (3-small)'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>survival</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'words vs datasheets (3-small)'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>The Hunger Games</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Harry Potter and the Order of the Phoenix</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>To Kill a Mockingbird</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pride and Prejudice</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Twilight</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>The Book Thief</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Animal Farm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>The Chronicles of Narnia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'words vs datasheets (3-small)'!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.31980537692891198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11122854384969599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13624971798388999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11761129832268701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.118086474629285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.106225529390999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.135373933494252</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4200003759547304E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5AC8-418F-B158-3C7D2E2FF718}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4454,16 +4464,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>PESTLE vs Book2 Dataset</a:t>
+              <a:rPr lang="en-CA"/>
+              <a:t>Words and</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> </a:t>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> movies dataset</a:t>
             </a:r>
-            <a:endParaRPr lang="en-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4492,7 +4499,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CA"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4508,11 +4515,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs datasheets'!$B$25</c:f>
+              <c:f>'words vs datasheets (3-small)'!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>political</c:v>
+                  <c:v>romance</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4529,96 +4536,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs datasheets'!$A$30:$A$41</c:f>
+              <c:f>'words vs datasheets (3-small)'!$A$20:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Harry Potter and the Goblet of Fire</c:v>
+                  <c:v>The Dark Knight</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>A Short History of Nearly Everything</c:v>
+                  <c:v>12 Angry Men</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>In a Sunburned Country</c:v>
+                  <c:v>Pulp Fiction</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>I'm a Stranger Here Myself: Notes on Returning to America After Twenty Years Away</c:v>
+                  <c:v>Schindler's List</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>The Lost Continent: Travels in Small-Town America</c:v>
+                  <c:v>Inception</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Neither Here nor There: Travels in Europe</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Notes from a Small Island</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>The Mother Tongue: English and How It Got That Way</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>J.R.R. Tolkien 4-Book Boxed Set: The Hobbit and The Lord of the Rings</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>The Lord of the Rings</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>The Fellowship of the Ring</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Hatchet</c:v>
+                  <c:v>Fight Club</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs datasheets'!$B$30:$B$41</c:f>
+              <c:f>'words vs datasheets (3-small)'!$B$20:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.4617828146924895E-2</c:v>
+                  <c:v>7.7117000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6381765018255295E-2</c:v>
+                  <c:v>4.5236999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4909150098705699E-2</c:v>
+                  <c:v>0.22106999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7800689986161002E-2</c:v>
+                  <c:v>5.6405999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.68425328925762E-2</c:v>
+                  <c:v>0.112608</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1971625522077597E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.2484695988756401E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.86374505959763E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.6206348929522497E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.8357402297575998E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.1940075370849402E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.9867601529104899E-2</c:v>
+                  <c:v>0.207819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2BFB-4B6F-B572-CA52FEE5624F}"/>
+              <c16:uniqueId val="{00000000-0D5F-4547-83C4-8022DCB7D104}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4627,11 +4598,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs datasheets'!$C$25</c:f>
+              <c:f>'words vs datasheets (3-small)'!$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>economic</c:v>
+                  <c:v>horror</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4648,96 +4619,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs datasheets'!$A$30:$A$41</c:f>
+              <c:f>'words vs datasheets (3-small)'!$A$20:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Harry Potter and the Goblet of Fire</c:v>
+                  <c:v>The Dark Knight</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>A Short History of Nearly Everything</c:v>
+                  <c:v>12 Angry Men</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>In a Sunburned Country</c:v>
+                  <c:v>Pulp Fiction</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>I'm a Stranger Here Myself: Notes on Returning to America After Twenty Years Away</c:v>
+                  <c:v>Schindler's List</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>The Lost Continent: Travels in Small-Town America</c:v>
+                  <c:v>Inception</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Neither Here nor There: Travels in Europe</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Notes from a Small Island</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>The Mother Tongue: English and How It Got That Way</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>J.R.R. Tolkien 4-Book Boxed Set: The Hobbit and The Lord of the Rings</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>The Lord of the Rings</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>The Fellowship of the Ring</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Hatchet</c:v>
+                  <c:v>Fight Club</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs datasheets'!$C$30:$C$41</c:f>
+              <c:f>'words vs datasheets (3-small)'!$C$20:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.2136803357830201E-2</c:v>
+                  <c:v>0.22343199999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.112410471008534</c:v>
+                  <c:v>0.15784999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4717466691132097E-2</c:v>
+                  <c:v>0.20192599999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7947183838492698E-2</c:v>
+                  <c:v>0.13117599999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2578161636490904E-2</c:v>
+                  <c:v>0.13083800000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.103195505226318</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.5349874819775499E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.3710711070416501E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.9723332253930701E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.7651324874068998E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.5657808784335497E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.2226893282659701E-2</c:v>
+                  <c:v>0.17802200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2BFB-4B6F-B572-CA52FEE5624F}"/>
+              <c16:uniqueId val="{00000001-0D5F-4547-83C4-8022DCB7D104}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4746,11 +4681,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs datasheets'!$D$25</c:f>
+              <c:f>'words vs datasheets (3-small)'!$D$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sociological</c:v>
+                  <c:v>comedy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4767,96 +4702,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs datasheets'!$A$30:$A$41</c:f>
+              <c:f>'words vs datasheets (3-small)'!$A$20:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Harry Potter and the Goblet of Fire</c:v>
+                  <c:v>The Dark Knight</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>A Short History of Nearly Everything</c:v>
+                  <c:v>12 Angry Men</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>In a Sunburned Country</c:v>
+                  <c:v>Pulp Fiction</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>I'm a Stranger Here Myself: Notes on Returning to America After Twenty Years Away</c:v>
+                  <c:v>Schindler's List</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>The Lost Continent: Travels in Small-Town America</c:v>
+                  <c:v>Inception</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Neither Here nor There: Travels in Europe</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Notes from a Small Island</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>The Mother Tongue: English and How It Got That Way</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>J.R.R. Tolkien 4-Book Boxed Set: The Hobbit and The Lord of the Rings</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>The Lord of the Rings</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>The Fellowship of the Ring</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Hatchet</c:v>
+                  <c:v>Fight Club</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs datasheets'!$D$30:$D$41</c:f>
+              <c:f>'words vs datasheets (3-small)'!$D$20:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.4433033686922698E-2</c:v>
+                  <c:v>0.188277</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17447316698569901</c:v>
+                  <c:v>0.11566800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3587305104726303E-2</c:v>
+                  <c:v>0.23690700000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10700607099006899</c:v>
+                  <c:v>7.6006000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.131601684999436</c:v>
+                  <c:v>0.102129</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.124475948995469</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.4728489434448898E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.112517310537269</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.9024562197409999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.3807364601048895E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.3327104529407494E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7825041076211499E-2</c:v>
+                  <c:v>0.24782999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2BFB-4B6F-B572-CA52FEE5624F}"/>
+              <c16:uniqueId val="{00000002-0D5F-4547-83C4-8022DCB7D104}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4865,11 +4764,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs datasheets'!$E$25</c:f>
+              <c:f>'words vs datasheets (3-small)'!$E$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>technological</c:v>
+                  <c:v>redemption</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4886,96 +4785,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs datasheets'!$A$30:$A$41</c:f>
+              <c:f>'words vs datasheets (3-small)'!$A$20:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Harry Potter and the Goblet of Fire</c:v>
+                  <c:v>The Dark Knight</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>A Short History of Nearly Everything</c:v>
+                  <c:v>12 Angry Men</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>In a Sunburned Country</c:v>
+                  <c:v>Pulp Fiction</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>I'm a Stranger Here Myself: Notes on Returning to America After Twenty Years Away</c:v>
+                  <c:v>Schindler's List</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>The Lost Continent: Travels in Small-Town America</c:v>
+                  <c:v>Inception</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Neither Here nor There: Travels in Europe</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Notes from a Small Island</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>The Mother Tongue: English and How It Got That Way</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>J.R.R. Tolkien 4-Book Boxed Set: The Hobbit and The Lord of the Rings</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>The Lord of the Rings</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>The Fellowship of the Ring</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Hatchet</c:v>
+                  <c:v>Fight Club</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs datasheets'!$E$30:$E$41</c:f>
+              <c:f>'words vs datasheets (3-small)'!$E$20:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.2910115843672093E-2</c:v>
+                  <c:v>0.14900033800000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8465008925740302E-2</c:v>
+                  <c:v>0.19423063700000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7613954169211601E-2</c:v>
+                  <c:v>0.246638623</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1885116444255601E-2</c:v>
+                  <c:v>0.15311217099999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1435421142945498E-2</c:v>
+                  <c:v>0.20365703600000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9462490065097497E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6338995331693602E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.4212482758210702E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9934532540418302E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7362009335261799E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.8381558402396001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.8296259854869702E-2</c:v>
+                  <c:v>0.158197214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2BFB-4B6F-B572-CA52FEE5624F}"/>
+              <c16:uniqueId val="{00000003-0D5F-4547-83C4-8022DCB7D104}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4984,11 +4847,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs datasheets'!$F$25</c:f>
+              <c:f>'words vs datasheets (3-small)'!$F$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>legal and environmental</c:v>
+                  <c:v>dystopia</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5005,96 +4868,143 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs datasheets'!$A$30:$A$41</c:f>
+              <c:f>'words vs datasheets (3-small)'!$A$20:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Harry Potter and the Goblet of Fire</c:v>
+                  <c:v>The Dark Knight</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>A Short History of Nearly Everything</c:v>
+                  <c:v>12 Angry Men</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>In a Sunburned Country</c:v>
+                  <c:v>Pulp Fiction</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>I'm a Stranger Here Myself: Notes on Returning to America After Twenty Years Away</c:v>
+                  <c:v>Schindler's List</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>The Lost Continent: Travels in Small-Town America</c:v>
+                  <c:v>Inception</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Neither Here nor There: Travels in Europe</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Notes from a Small Island</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>The Mother Tongue: English and How It Got That Way</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>J.R.R. Tolkien 4-Book Boxed Set: The Hobbit and The Lord of the Rings</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>The Lord of the Rings</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>The Fellowship of the Ring</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Hatchet</c:v>
+                  <c:v>Fight Club</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs datasheets'!$F$30:$F$41</c:f>
+              <c:f>'words vs datasheets (3-small)'!$F$20:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9.0600253382216403E-2</c:v>
+                  <c:v>0.19089999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.36970628727728E-2</c:v>
+                  <c:v>0.113762</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9038163549281896E-2</c:v>
+                  <c:v>0.20163300000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4422503039015798E-2</c:v>
+                  <c:v>0.16680200000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.87494967725057E-2</c:v>
+                  <c:v>0.215558</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.56716070410802E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.2644924739876102E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.1383603066858903E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.9061290966463099E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.5192719676540306E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.4904519096592103E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.8386635878714102E-2</c:v>
+                  <c:v>0.18751499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2BFB-4B6F-B572-CA52FEE5624F}"/>
+              <c16:uniqueId val="{00000004-0D5F-4547-83C4-8022DCB7D104}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'words vs datasheets (3-small)'!$G$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>betrayal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'words vs datasheets (3-small)'!$A$20:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>The Dark Knight</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12 Angry Men</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pulp Fiction</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Schindler's List</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Inception</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fight Club</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'words vs datasheets (3-small)'!$G$20:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.153002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23331099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22473799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.141874</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28821400000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16028700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0D5F-4547-83C4-8022DCB7D104}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5107,11 +5017,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1469156735"/>
-        <c:axId val="1469157695"/>
+        <c:axId val="189375120"/>
+        <c:axId val="189389520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1469156735"/>
+        <c:axId val="189375120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5154,7 +5064,7 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1469157695"/>
+        <c:crossAx val="189389520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5162,7 +5072,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1469157695"/>
+        <c:axId val="189389520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5213,7 +5123,7 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1469156735"/>
+        <c:crossAx val="189375120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5334,16 +5244,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>words vs Movies</a:t>
+              <a:rPr lang="en-CA"/>
+              <a:t>Words vs Lyrics Dataset</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5372,7 +5275,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CA"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5388,11 +5291,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs datasheets'!$B$48</c:f>
+              <c:f>'words vs datasheets (3-small)'!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>journey</c:v>
+                  <c:v>love</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5409,72 +5312,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs datasheets'!$A$49:$A$56</c:f>
+              <c:f>'words vs datasheets (3-small)'!$A$38:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>The Shawshank Redemption</c:v>
+                  <c:v>Killa Cam</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>The Godfather</c:v>
+                  <c:v>Can I Live</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>The Dark Knight</c:v>
+                  <c:v>Forgive Me Father</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>The Godfather: Part II</c:v>
+                  <c:v>Down and Out</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12 Angry Men</c:v>
+                  <c:v>Fly In</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>The Lord of the Rings: The Return of the King</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pulp Fiction</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Schindler's List</c:v>
+                  <c:v>Lollipop Remix</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs datasheets'!$B$49:$B$56</c:f>
+              <c:f>'words vs datasheets (3-small)'!$B$38:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.16174656319594499</c:v>
+                  <c:v>8.19784372826355E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12616847988520799</c:v>
+                  <c:v>0.117328676489949</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11408706071826499</c:v>
+                  <c:v>7.3982943970032605E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3864131664292704E-2</c:v>
+                  <c:v>8.4762973995164304E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.150545194061971</c:v>
+                  <c:v>7.5051965838065504E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.137414493566165</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.16645157167875599</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0153003258926603E-2</c:v>
+                  <c:v>0.207970151001547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-047F-49FB-A975-C50229FBB9EC}"/>
+              <c16:uniqueId val="{00000000-938F-476A-8D72-99E97E587B2F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5483,11 +5374,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs datasheets'!$C$48</c:f>
+              <c:f>'words vs datasheets (3-small)'!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>conflict</c:v>
+                  <c:v>heartbreak</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5504,72 +5395,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs datasheets'!$A$49:$A$56</c:f>
+              <c:f>'words vs datasheets (3-small)'!$A$38:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>The Shawshank Redemption</c:v>
+                  <c:v>Killa Cam</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>The Godfather</c:v>
+                  <c:v>Can I Live</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>The Dark Knight</c:v>
+                  <c:v>Forgive Me Father</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>The Godfather: Part II</c:v>
+                  <c:v>Down and Out</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12 Angry Men</c:v>
+                  <c:v>Fly In</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>The Lord of the Rings: The Return of the King</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pulp Fiction</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Schindler's List</c:v>
+                  <c:v>Lollipop Remix</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs datasheets'!$C$49:$C$56</c:f>
+              <c:f>'words vs datasheets (3-small)'!$C$38:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.118051546886526</c:v>
+                  <c:v>0.103138597262027</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.196834664731425</c:v>
+                  <c:v>0.144609105639154</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18975255996003801</c:v>
+                  <c:v>0.117166408145119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4091670864209702E-2</c:v>
+                  <c:v>0.12367669933669501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18935662892131</c:v>
+                  <c:v>0.16491804389387699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12093712470689701</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.195225494678815</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.12799871906705301</c:v>
+                  <c:v>0.160021417182895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-047F-49FB-A975-C50229FBB9EC}"/>
+              <c16:uniqueId val="{00000001-938F-476A-8D72-99E97E587B2F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5578,11 +5457,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs datasheets'!$D$48</c:f>
+              <c:f>'words vs datasheets (3-small)'!$D$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pursuit</c:v>
+                  <c:v>dreams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5599,72 +5478,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs datasheets'!$A$49:$A$56</c:f>
+              <c:f>'words vs datasheets (3-small)'!$A$38:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>The Shawshank Redemption</c:v>
+                  <c:v>Killa Cam</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>The Godfather</c:v>
+                  <c:v>Can I Live</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>The Dark Knight</c:v>
+                  <c:v>Forgive Me Father</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>The Godfather: Part II</c:v>
+                  <c:v>Down and Out</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12 Angry Men</c:v>
+                  <c:v>Fly In</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>The Lord of the Rings: The Return of the King</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pulp Fiction</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Schindler's List</c:v>
+                  <c:v>Lollipop Remix</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs datasheets'!$D$49:$D$56</c:f>
+              <c:f>'words vs datasheets (3-small)'!$D$38:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.117701148324811</c:v>
+                  <c:v>9.3282047015588496E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.124952810868105</c:v>
+                  <c:v>0.16004248774626101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13335724841310301</c:v>
+                  <c:v>0.117017722924599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5305457365414298E-2</c:v>
+                  <c:v>8.2703192360894004E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25154247333821</c:v>
+                  <c:v>0.12680921588606101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.163561285834529</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.9770250673506394E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11107651030394999</c:v>
+                  <c:v>0.111066083647356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-047F-49FB-A975-C50229FBB9EC}"/>
+              <c16:uniqueId val="{00000002-938F-476A-8D72-99E97E587B2F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5673,11 +5540,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs datasheets'!$E$48</c:f>
+              <c:f>'words vs datasheets (3-small)'!$E$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>challenge</c:v>
+                  <c:v>dance</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5694,72 +5561,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs datasheets'!$A$49:$A$56</c:f>
+              <c:f>'words vs datasheets (3-small)'!$A$38:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>The Shawshank Redemption</c:v>
+                  <c:v>Killa Cam</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>The Godfather</c:v>
+                  <c:v>Can I Live</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>The Dark Knight</c:v>
+                  <c:v>Forgive Me Father</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>The Godfather: Part II</c:v>
+                  <c:v>Down and Out</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12 Angry Men</c:v>
+                  <c:v>Fly In</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>The Lord of the Rings: The Return of the King</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pulp Fiction</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Schindler's List</c:v>
+                  <c:v>Lollipop Remix</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs datasheets'!$E$49:$E$56</c:f>
+              <c:f>'words vs datasheets (3-small)'!$E$38:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.12015499414922701</c:v>
+                  <c:v>0.158478576837077</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.158471461729981</c:v>
+                  <c:v>0.15727264031424701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28944317654763801</c:v>
+                  <c:v>0.17037835868102999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8138107578652296E-2</c:v>
+                  <c:v>0.151094504154869</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21206504707467</c:v>
+                  <c:v>0.117152564548267</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.3165895288751993E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.137482956209588</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.12734519809345099</c:v>
+                  <c:v>0.172832223579964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-047F-49FB-A975-C50229FBB9EC}"/>
+              <c16:uniqueId val="{00000003-938F-476A-8D72-99E97E587B2F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5768,11 +5623,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs datasheets'!$F$48</c:f>
+              <c:f>'words vs datasheets (3-small)'!$F$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>alliance</c:v>
+                  <c:v>night</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5789,72 +5644,143 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs datasheets'!$A$49:$A$56</c:f>
+              <c:f>'words vs datasheets (3-small)'!$A$38:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>The Shawshank Redemption</c:v>
+                  <c:v>Killa Cam</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>The Godfather</c:v>
+                  <c:v>Can I Live</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>The Dark Knight</c:v>
+                  <c:v>Forgive Me Father</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>The Godfather: Part II</c:v>
+                  <c:v>Down and Out</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12 Angry Men</c:v>
+                  <c:v>Fly In</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>The Lord of the Rings: The Return of the King</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pulp Fiction</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Schindler's List</c:v>
+                  <c:v>Lollipop Remix</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs datasheets'!$F$49:$F$56</c:f>
+              <c:f>'words vs datasheets (3-small)'!$F$38:$F$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.16588574000819001</c:v>
+                  <c:v>0.178394855391204</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.163854648720276</c:v>
+                  <c:v>0.18738463215426501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12925563964658199</c:v>
+                  <c:v>0.170828704588144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7935909982323199E-2</c:v>
+                  <c:v>0.14986796784696099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.113865319696743</c:v>
+                  <c:v>0.16083874896946199</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20346101270356201</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.16172539399775501</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13454820094352599</c:v>
+                  <c:v>0.12501456123900501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-047F-49FB-A975-C50229FBB9EC}"/>
+              <c16:uniqueId val="{00000004-938F-476A-8D72-99E97E587B2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'words vs datasheets (3-small)'!$G$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>freedom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'words vs datasheets (3-small)'!$A$38:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Killa Cam</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Can I Live</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Forgive Me Father</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Down and Out</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fly In</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lollipop Remix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'words vs datasheets (3-small)'!$G$38:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.5020645410035803E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8322745130080602E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9236928334740196E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3040922471141999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5204057883458403E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0872474592199501E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-938F-476A-8D72-99E97E587B2F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5867,11 +5793,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1469592527"/>
-        <c:axId val="1469590607"/>
+        <c:axId val="189493680"/>
+        <c:axId val="189494160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1469592527"/>
+        <c:axId val="189493680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5914,7 +5840,7 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1469590607"/>
+        <c:crossAx val="189494160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5922,7 +5848,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1469590607"/>
+        <c:axId val="189494160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5973,819 +5899,7 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1469592527"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>Words vs Spotify</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'words vs datasheets'!$B$71</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>love</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'words vs datasheets'!$A$72:$A$78</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Say It, Just Say It</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Drinking from the Bottle (feat. Tinie Tempah)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Born To Die</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Off To The Races</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Half Mast</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Impossible</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>We Own The Sky</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'words vs datasheets'!$B$72:$B$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.24307738405704099</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.100934011145277</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.22580566022769499</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.17503211046929101</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14104989762175801</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.224401248619232</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19712704662720501</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C44C-42DD-A464-D7A937248972}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'words vs datasheets'!$C$71</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>heartbreak</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'words vs datasheets'!$A$72:$A$78</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Say It, Just Say It</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Drinking from the Bottle (feat. Tinie Tempah)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Born To Die</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Off To The Races</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Half Mast</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Impossible</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>We Own The Sky</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'words vs datasheets'!$C$72:$C$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.20457060533514401</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14915603036408301</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.28837554727022202</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.168112387292325</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.197376017991616</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.21225542256074101</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.17637671614790401</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C44C-42DD-A464-D7A937248972}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'words vs datasheets'!$D$71</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>dreams</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'words vs datasheets'!$A$72:$A$78</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Say It, Just Say It</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Drinking from the Bottle (feat. Tinie Tempah)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Born To Die</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Off To The Races</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Half Mast</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Impossible</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>We Own The Sky</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'words vs datasheets'!$D$72:$D$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.20247429695510799</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.149709691376677</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.230410410983865</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.23267471097561401</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.17514960399294099</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.24192684255131999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.240498868228193</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C44C-42DD-A464-D7A937248972}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'words vs datasheets'!$E$71</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>dance</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'words vs datasheets'!$A$72:$A$78</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Say It, Just Say It</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Drinking from the Bottle (feat. Tinie Tempah)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Born To Die</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Off To The Races</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Half Mast</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Impossible</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>We Own The Sky</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'words vs datasheets'!$E$72:$E$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.226881840352848</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19048524546999901</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.23990995416927099</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.32148304167400799</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.18937096691316899</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.19145543299760201</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.18531997506551301</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C44C-42DD-A464-D7A937248972}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'words vs datasheets'!$F$71</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>night</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'words vs datasheets'!$A$72:$A$78</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Say It, Just Say It</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Drinking from the Bottle (feat. Tinie Tempah)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Born To Die</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Off To The Races</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Half Mast</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Impossible</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>We Own The Sky</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'words vs datasheets'!$F$72:$F$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.19240796829429799</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.208986876044856</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25851954726805298</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.29823583158488498</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.236180290897507</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.25194662819424302</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.22658159163326899</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C44C-42DD-A464-D7A937248972}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'words vs datasheets'!$G$71</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>freedom</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'words vs datasheets'!$A$72:$A$78</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Say It, Just Say It</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Drinking from the Bottle (feat. Tinie Tempah)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Born To Die</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Off To The Races</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Half Mast</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Impossible</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>We Own The Sky</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'words vs datasheets'!$G$72:$G$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.14330919927784599</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.4071823371685806E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.171079816097679</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.165070718452867</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.21090702846925599</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17225401359148401</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.21924508280229699</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-C44C-42DD-A464-D7A937248972}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="1469556527"/>
-        <c:axId val="1469534927"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1469556527"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1469534927"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1469534927"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1469556527"/>
+        <c:crossAx val="189493680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7152,46 +6266,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -10223,511 +9297,6 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11390,16 +9959,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>156136</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>272677</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>5523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>183030</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>30630</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>29883</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11426,23 +9995,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>175558</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>29134</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>21664</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>644071</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>18142</xdr:rowOff>
+      <xdr:colOff>14942</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FDEA2B-D904-9459-C3EA-623B8BAFBFD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F7F962C-B770-78AD-C3F0-8104582619FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11462,23 +10031,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>459442</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>171077</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>265206</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>186017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>429560</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>45571</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>578970</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>45570</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB5EE5BA-54D9-032C-D0D3-9BA6B5897377}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271ADEDC-04CA-1861-A385-3171DFF4913D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11491,42 +10060,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>26147</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>156134</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>653676</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>30628</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB81E5E3-F01F-842C-E5FF-301DF5FDDE5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11854,26 +10387,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AA2988-5AAB-4458-847B-F75AA408FACB}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K48" sqref="A37:K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.58203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
@@ -11894,7 +10428,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0.35357917603761901</v>
@@ -11914,7 +10448,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0.56120943234938203</v>
@@ -11934,7 +10468,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0.34720107847301002</v>
@@ -11954,7 +10488,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0.27124844476157201</v>
@@ -11974,7 +10508,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0.22714961371607501</v>
@@ -11994,7 +10528,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0.35658725609020703</v>
@@ -12014,7 +10548,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0.32879258611676099</v>
@@ -12034,7 +10568,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0.29647760554548502</v>
@@ -12053,14 +10587,14 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6">
       <c r="B20" t="s">
@@ -12081,7 +10615,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <v>0.34458288087322603</v>
@@ -12101,7 +10635,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="B22">
         <v>0.34108967655508199</v>
@@ -12121,7 +10655,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="B23">
         <v>0.40717315147696598</v>
@@ -12141,7 +10675,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="B24">
         <v>0.271499973959276</v>
@@ -12161,7 +10695,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="B25">
         <v>0.388115298515467</v>
@@ -12181,7 +10715,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>0.31994381612212502</v>
@@ -12201,7 +10735,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="B27">
         <v>0.35029725626645403</v>
@@ -12220,55 +10754,55 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="A37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11">
       <c r="B38" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="F38" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="G38" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="H38" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="I38" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="J38" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="K38" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="B39">
         <v>0.48632557504159901</v>
@@ -12303,7 +10837,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="B40">
         <v>0.438552544660398</v>
@@ -12338,7 +10872,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="B41">
         <v>0.35504728935131802</v>
@@ -12373,7 +10907,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="B42">
         <v>0.36334533383774198</v>
@@ -12408,7 +10942,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="B43">
         <v>0.335374243906497</v>
@@ -12443,7 +10977,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="B44">
         <v>0.30508797507700902</v>
@@ -12478,7 +11012,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="B45">
         <v>0.21841999174225599</v>
@@ -12513,7 +11047,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="B46">
         <v>0.31649023543798899</v>
@@ -12548,7 +11082,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="B47">
         <v>0.39734651482857503</v>
@@ -12583,7 +11117,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="B48">
         <v>0.38782704063191897</v>
@@ -12623,6 +11157,7 @@
     <mergeCell ref="A19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -12632,25 +11167,25 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="63.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
@@ -12671,7 +11206,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>0.195220163883527</v>
@@ -12691,7 +11226,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>0.260452319773741</v>
@@ -12711,7 +11246,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>0.219850706995771</v>
@@ -12731,7 +11266,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>0.34576890967023199</v>
@@ -12751,7 +11286,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>0.16986810483255901</v>
@@ -12771,7 +11306,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>0.38273015743255001</v>
@@ -12791,7 +11326,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>0.21148140721143299</v>
@@ -12811,7 +11346,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>0.29433991806582399</v>
@@ -12831,7 +11366,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>0.21886589839037099</v>
@@ -12851,7 +11386,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>0.18417302298867699</v>
@@ -12880,2747 +11415,602 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49FE91F-C29C-49F4-8576-5D811DA982A1}">
-  <dimension ref="A1:P91"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47:P47"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="47.58203125" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.9140625" customWidth="1"/>
+    <col min="6" max="6" width="13.4140625" customWidth="1"/>
     <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.13097039890915299</v>
+        <v>0.141756272224349</v>
       </c>
       <c r="C3">
-        <v>0.115206430016944</v>
+        <v>0.132003972629924</v>
       </c>
       <c r="D3">
-        <v>7.3673770880044898E-2</v>
+        <v>0.1979544944221</v>
       </c>
       <c r="E3">
-        <v>4.5466447444338899E-2</v>
+        <v>9.9339738997996502E-2</v>
       </c>
       <c r="F3">
-        <v>8.9747584822840801E-2</v>
+        <v>0.163146967421814</v>
+      </c>
+      <c r="G3">
+        <v>0.31980537692891198</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8.6851320236754501E-2</v>
+        <v>9.2869560597543505E-2</v>
       </c>
       <c r="C4">
-        <v>4.1102480320015698E-2</v>
+        <v>0.25481334979784798</v>
       </c>
       <c r="D4">
-        <v>8.9219745427664907E-2</v>
+        <v>0.11766335900458399</v>
       </c>
       <c r="E4">
-        <v>5.5210768656354402E-2</v>
+        <v>0.120019098135936</v>
       </c>
       <c r="F4">
-        <v>6.56627911804437E-2</v>
+        <v>0.21313981654754</v>
+      </c>
+      <c r="G4">
+        <v>0.11122854384969599</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>4.82150080571093E-2</v>
+        <v>9.0803050159410301E-2</v>
       </c>
       <c r="C5">
-        <v>-1.15901129366327E-2</v>
+        <v>8.1916919307651506E-2</v>
       </c>
       <c r="D5">
-        <v>0.131007177422064</v>
+        <v>0.159405315592625</v>
       </c>
       <c r="E5">
-        <v>1.94199883500423E-2</v>
+        <v>0.12837123490117999</v>
       </c>
       <c r="F5">
-        <v>5.5975350717605399E-2</v>
+        <v>9.0570257930593007E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.13624971798388999</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>8.0003142911424394E-2</v>
+        <v>0.101121382830671</v>
       </c>
       <c r="C6">
-        <v>8.7645940972153405E-2</v>
+        <v>5.6597551939190402E-2</v>
       </c>
       <c r="D6">
-        <v>9.74887553036069E-2</v>
+        <v>0.171920529473991</v>
       </c>
       <c r="E6">
-        <v>1.9879241002198001E-2</v>
+        <v>0.20975615093046401</v>
       </c>
       <c r="F6">
-        <v>5.7458169883014901E-2</v>
+        <v>0.10247346014126001</v>
+      </c>
+      <c r="G6">
+        <v>0.11761129832268701</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.114010528557365</v>
+        <v>8.2150347881970495E-2</v>
       </c>
       <c r="C7">
-        <v>3.98850118125995E-2</v>
+        <v>0.131038268960006</v>
       </c>
       <c r="D7">
-        <v>9.4990736963215902E-2</v>
+        <v>6.1079131357162399E-2</v>
       </c>
       <c r="E7">
-        <v>9.2628299589825699E-2</v>
+        <v>0.22227195677168901</v>
       </c>
       <c r="F7">
-        <v>3.1137900236905401E-2</v>
+        <v>0.44371707419386303</v>
+      </c>
+      <c r="G7">
+        <v>0.118086474629285</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>2.9199456182686101E-2</v>
+        <v>6.0599442642118702E-2</v>
       </c>
       <c r="C8">
-        <v>2.76417308663412E-2</v>
+        <v>0.16174551358213701</v>
       </c>
       <c r="D8">
-        <v>0.115047473812132</v>
+        <v>0.110735818515453</v>
       </c>
       <c r="E8">
-        <v>2.08581800196341E-2</v>
+        <v>0.12951544760904099</v>
       </c>
       <c r="F8">
-        <v>4.5311084016080701E-2</v>
+        <v>0.171577353706511</v>
+      </c>
+      <c r="G8">
+        <v>0.106225529390999</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.13779768740101001</v>
+        <v>0.18473575197641601</v>
       </c>
       <c r="C9">
-        <v>0.10230435466974699</v>
+        <v>0.10600864529402999</v>
       </c>
       <c r="D9">
-        <v>0.167519871704437</v>
+        <v>0.13881116913597</v>
       </c>
       <c r="E9">
-        <v>4.0625596163338197E-2</v>
+        <v>7.50884418975276E-2</v>
       </c>
       <c r="F9">
-        <v>8.1624472390884398E-2</v>
+        <v>0.11236436085764</v>
+      </c>
+      <c r="G9">
+        <v>0.135373933494252</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>8.2034426179779796E-3</v>
+        <v>1.5235639820545099E-2</v>
       </c>
       <c r="C10">
-        <v>5.3082859322729901E-2</v>
+        <v>0.22697414062606699</v>
       </c>
       <c r="D10">
-        <v>3.3767549968154099E-2</v>
+        <v>9.0492543259866096E-2</v>
       </c>
       <c r="E10">
-        <v>-7.2019435861448503E-3</v>
+        <v>0.12591428162394899</v>
       </c>
       <c r="F10">
-        <v>5.38207774953409E-2</v>
+        <v>0.117805849644163</v>
+      </c>
+      <c r="G10">
+        <v>9.4200003759547304E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+    <row r="17" spans="1:7" ht="14.5" thickBot="1"/>
+    <row r="18" spans="1:7" ht="14.5" thickBot="1">
+      <c r="A18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.5" thickBot="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>5.6206348929522497E-2</v>
-      </c>
-      <c r="C11">
-        <v>2.9723332253930701E-2</v>
-      </c>
-      <c r="D11">
-        <v>4.9024562197409999E-2</v>
-      </c>
-      <c r="E11">
-        <v>1.9934532540418302E-2</v>
-      </c>
-      <c r="F11">
-        <v>5.9061290966463099E-2</v>
-      </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>7.1161330895023606E-2</v>
-      </c>
-      <c r="C12">
-        <v>0.107877051269071</v>
-      </c>
-      <c r="D12">
-        <v>0.137565720524264</v>
-      </c>
-      <c r="E12">
-        <v>1.4458473989601799E-2</v>
-      </c>
-      <c r="F12">
-        <v>6.9654394653706306E-2</v>
+    <row r="20" spans="1:7" ht="14.5" thickBot="1">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6">
+        <v>7.7117000000000005E-2</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.22343199999999999</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.188277</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.14900033800000001</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.19089999999999999</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.153002</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>5.57314337146202E-2</v>
-      </c>
-      <c r="C13">
-        <v>2.8825767788383999E-2</v>
-      </c>
-      <c r="D13">
-        <v>0.120013561528972</v>
-      </c>
-      <c r="E13">
-        <v>8.8590650233638699E-2</v>
-      </c>
-      <c r="F13">
-        <v>7.3272143274587198E-2</v>
+    <row r="21" spans="1:7" ht="14.5" thickBot="1">
+      <c r="A21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6">
+        <v>4.5236999999999999E-2</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.15784999999999999</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.11566800000000001</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.19423063700000001</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.113762</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.23331099999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>8.3436977324291395E-2</v>
-      </c>
-      <c r="C14">
-        <v>5.3356581034819398E-2</v>
-      </c>
-      <c r="D14">
-        <v>0.10730905081025199</v>
-      </c>
-      <c r="E14">
-        <v>9.6822085176145697E-2</v>
-      </c>
-      <c r="F14">
-        <v>6.4727495905410604E-2</v>
+    <row r="22" spans="1:7" ht="14.5" thickBot="1">
+      <c r="A22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.22106999999999999</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.20192599999999999</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.23690700000000001</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.246638623</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.20163300000000001</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.22473799999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>-4.2964732073159798E-4</v>
-      </c>
-      <c r="C15">
-        <v>4.2547594312456E-2</v>
-      </c>
-      <c r="D15">
-        <v>1.50769839009366E-2</v>
-      </c>
-      <c r="E15">
-        <v>-2.26469850473099E-2</v>
-      </c>
-      <c r="F15">
-        <v>1.5507095493719401E-2</v>
+    <row r="23" spans="1:7" ht="14.5" thickBot="1">
+      <c r="A23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6">
+        <v>5.6405999999999998E-2</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.13117599999999999</v>
+      </c>
+      <c r="D23" s="6">
+        <v>7.6006000000000004E-2</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.15311217099999999</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.16680200000000001</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.141874</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>2.16638796939039E-2</v>
-      </c>
-      <c r="C16">
-        <v>8.8758014273391098E-2</v>
-      </c>
-      <c r="D16">
-        <v>0.114816647438285</v>
-      </c>
-      <c r="E16">
-        <v>7.5547323948760098E-2</v>
-      </c>
-      <c r="F16">
-        <v>7.6014970812119595E-2</v>
+    <row r="24" spans="1:7" ht="14.5" thickBot="1">
+      <c r="A24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.112608</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.13083800000000001</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.102129</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.20365703600000001</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.215558</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.28821400000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>0.11181576535795899</v>
-      </c>
-      <c r="C17">
-        <v>5.9673471833205503E-2</v>
-      </c>
-      <c r="D17">
-        <v>0.154696252667955</v>
-      </c>
-      <c r="E17">
-        <v>9.1350595826914197E-2</v>
-      </c>
-      <c r="F17">
-        <v>5.5281156865134698E-2</v>
+    <row r="25" spans="1:7" ht="14.5" thickBot="1">
+      <c r="A25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0.207819</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.17802200000000001</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.24782999999999999</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.158197214</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.18751499999999999</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.16028700000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>6.8331733421946303E-2</v>
-      </c>
-      <c r="C18">
-        <v>8.6896774504234997E-2</v>
-      </c>
-      <c r="D18">
-        <v>0.129628792876267</v>
-      </c>
-      <c r="E18">
-        <v>4.0450538037144698E-2</v>
-      </c>
-      <c r="F18">
-        <v>5.7748530410632701E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>0.14347134477898599</v>
-      </c>
-      <c r="C19">
-        <v>0.122032437798214</v>
-      </c>
-      <c r="D19">
-        <v>0.20650754915616201</v>
-      </c>
-      <c r="E19">
-        <v>3.4352398370419202E-2</v>
-      </c>
-      <c r="F19">
-        <v>0.100480766538163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>4.3985340738333399E-2</v>
-      </c>
-      <c r="C20">
-        <v>3.7981088171695897E-2</v>
-      </c>
-      <c r="D20">
-        <v>0.10743122286993199</v>
-      </c>
-      <c r="E20">
-        <v>-3.7582161300434899E-3</v>
-      </c>
-      <c r="F20">
-        <v>-3.1428195078240001E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>3.1891610186086897E-2</v>
-      </c>
-      <c r="C21">
-        <v>5.4573465890994002E-2</v>
-      </c>
-      <c r="D21">
-        <v>0.143631173506863</v>
-      </c>
-      <c r="E21">
-        <v>6.1762341103186999E-2</v>
-      </c>
-      <c r="F21">
-        <v>8.7879206058418299E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>7.3616980377852304E-2</v>
-      </c>
-      <c r="C22">
-        <v>3.1652974557897902E-2</v>
-      </c>
-      <c r="D22">
-        <v>0.15124295923365999</v>
-      </c>
-      <c r="E22">
-        <v>-1.6579952025826399E-2</v>
-      </c>
-      <c r="F22">
-        <v>3.6920375553222598E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>4.6260268148139903E-2</v>
-      </c>
-      <c r="C26">
-        <v>2.3401644176611801E-2</v>
-      </c>
-      <c r="D26">
-        <v>5.0560010192683101E-2</v>
-      </c>
-      <c r="E26">
-        <v>6.6896058837418899E-3</v>
-      </c>
-      <c r="F26">
-        <v>4.7849818944764803E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27">
-        <v>8.9350460171364998E-2</v>
-      </c>
-      <c r="C27">
-        <v>4.4823130988718402E-2</v>
-      </c>
-      <c r="D27">
-        <v>0.11480822968524999</v>
-      </c>
-      <c r="E27">
-        <v>3.4771207984921698E-2</v>
-      </c>
-      <c r="F27">
-        <v>4.5477950768585101E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>2.78044689964967E-2</v>
-      </c>
-      <c r="C28">
-        <v>1.4194432509383801E-2</v>
-      </c>
-      <c r="D28">
-        <v>5.9530105553062103E-2</v>
-      </c>
-      <c r="E28">
-        <v>-1.2503231922156501E-2</v>
-      </c>
-      <c r="F28">
-        <v>-1.1303365278861501E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>6.8098927329742501E-2</v>
-      </c>
-      <c r="C29">
-        <v>2.2207846645145499E-2</v>
-      </c>
-      <c r="D29">
-        <v>0.10150278826866101</v>
-      </c>
-      <c r="E29">
-        <v>8.49842235461549E-3</v>
-      </c>
-      <c r="F29">
-        <v>7.7519971820915301E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>8.4617828146924895E-2</v>
-      </c>
-      <c r="C30">
-        <v>3.2136803357830201E-2</v>
-      </c>
-      <c r="D30">
-        <v>5.4433033686922698E-2</v>
-      </c>
-      <c r="E30">
-        <v>6.2910115843672093E-2</v>
-      </c>
-      <c r="F30">
-        <v>9.0600253382216403E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>6.6381765018255295E-2</v>
-      </c>
-      <c r="C31">
-        <v>0.112410471008534</v>
-      </c>
-      <c r="D31">
-        <v>0.17447316698569901</v>
-      </c>
-      <c r="E31">
-        <v>8.8465008925740302E-2</v>
-      </c>
-      <c r="F31">
-        <v>4.36970628727728E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>1.4909150098705699E-2</v>
-      </c>
-      <c r="C32">
-        <v>6.4717466691132097E-2</v>
-      </c>
-      <c r="D32">
-        <v>7.3587305104726303E-2</v>
-      </c>
-      <c r="E32">
-        <v>1.7613954169211601E-2</v>
-      </c>
-      <c r="F32">
-        <v>9.9038163549281896E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>5.7800689986161002E-2</v>
-      </c>
-      <c r="C33">
-        <v>5.7947183838492698E-2</v>
-      </c>
-      <c r="D33">
-        <v>0.10700607099006899</v>
-      </c>
-      <c r="E33">
-        <v>6.1885116444255601E-2</v>
-      </c>
-      <c r="F33">
-        <v>3.4422503039015798E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>4.68425328925762E-2</v>
-      </c>
-      <c r="C34">
-        <v>7.2578161636490904E-2</v>
-      </c>
-      <c r="D34">
-        <v>0.131601684999436</v>
-      </c>
-      <c r="E34">
-        <v>5.1435421142945498E-2</v>
-      </c>
-      <c r="F34">
-        <v>3.87494967725057E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>5.1971625522077597E-2</v>
-      </c>
-      <c r="C35">
-        <v>0.103195505226318</v>
-      </c>
-      <c r="D35">
-        <v>0.124475948995469</v>
-      </c>
-      <c r="E35">
-        <v>5.9462490065097497E-2</v>
-      </c>
-      <c r="F35">
-        <v>5.56716070410802E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>5.2484695988756401E-2</v>
-      </c>
-      <c r="C36">
-        <v>2.5349874819775499E-2</v>
-      </c>
-      <c r="D36">
-        <v>8.4728489434448898E-2</v>
-      </c>
-      <c r="E36">
-        <v>1.6338995331693602E-2</v>
-      </c>
-      <c r="F36">
-        <v>2.2644924739876102E-2</v>
-      </c>
+    <row r="35" spans="1:16" ht="14.5" thickBot="1"/>
+    <row r="36" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
+      <c r="A36" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>3.86374505959763E-2</v>
-      </c>
-      <c r="C37">
-        <v>2.3710711070416501E-2</v>
-      </c>
-      <c r="D37">
-        <v>0.112517310537269</v>
-      </c>
-      <c r="E37">
-        <v>5.4212482758210702E-2</v>
-      </c>
-      <c r="F37">
-        <v>3.1383603066858903E-2</v>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="B38">
-        <v>5.6206348929522497E-2</v>
+        <v>8.19784372826355E-2</v>
       </c>
       <c r="C38">
-        <v>2.9723332253930701E-2</v>
+        <v>0.103138597262027</v>
       </c>
       <c r="D38">
-        <v>4.9024562197409999E-2</v>
+        <v>9.3282047015588496E-2</v>
       </c>
       <c r="E38">
-        <v>1.9934532540418302E-2</v>
+        <v>0.158478576837077</v>
       </c>
       <c r="F38">
-        <v>5.9061290966463099E-2</v>
+        <v>0.178394855391204</v>
+      </c>
+      <c r="G38">
+        <v>8.5020645410035803E-2</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B39">
-        <v>7.8357402297575998E-2</v>
+        <v>0.117328676489949</v>
       </c>
       <c r="C39">
-        <v>3.7651324874068998E-2</v>
+        <v>0.144609105639154</v>
       </c>
       <c r="D39">
-        <v>9.3807364601048895E-2</v>
+        <v>0.16004248774626101</v>
       </c>
       <c r="E39">
-        <v>1.7362009335261799E-2</v>
+        <v>0.15727264031424701</v>
       </c>
       <c r="F39">
-        <v>6.5192719676540306E-2</v>
+        <v>0.18738463215426501</v>
+      </c>
+      <c r="G39">
+        <v>9.8322745130080602E-2</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B40">
-        <v>5.1940075370849402E-2</v>
+        <v>7.3982943970032605E-2</v>
       </c>
       <c r="C40">
-        <v>6.5657808784335497E-2</v>
+        <v>0.117166408145119</v>
       </c>
       <c r="D40">
-        <v>7.3327104529407494E-2</v>
+        <v>0.117017722924599</v>
       </c>
       <c r="E40">
-        <v>1.8381558402396001E-2</v>
+        <v>0.17037835868102999</v>
       </c>
       <c r="F40">
-        <v>6.4904519096592103E-2</v>
+        <v>0.170828704588144</v>
+      </c>
+      <c r="G40">
+        <v>9.9236928334740196E-2</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B41">
-        <v>2.9867601529104899E-2</v>
+        <v>8.4762973995164304E-2</v>
       </c>
       <c r="C41">
-        <v>3.2226893282659701E-2</v>
+        <v>0.12367669933669501</v>
       </c>
       <c r="D41">
-        <v>1.7825041076211499E-2</v>
+        <v>8.2703192360894004E-2</v>
       </c>
       <c r="E41">
-        <v>3.8296259854869702E-2</v>
+        <v>0.151094504154869</v>
       </c>
       <c r="F41">
-        <v>9.8386635878714102E-2</v>
+        <v>0.14986796784696099</v>
+      </c>
+      <c r="G41">
+        <v>9.3040922471141999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42">
+        <v>7.5051965838065504E-2</v>
+      </c>
+      <c r="C42">
+        <v>0.16491804389387699</v>
+      </c>
+      <c r="D42">
+        <v>0.12680921588606101</v>
+      </c>
+      <c r="E42">
+        <v>0.117152564548267</v>
+      </c>
+      <c r="F42">
+        <v>0.16083874896946199</v>
+      </c>
+      <c r="G42">
+        <v>8.5204057883458403E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43">
+        <v>0.207970151001547</v>
+      </c>
+      <c r="C43">
+        <v>0.160021417182895</v>
+      </c>
+      <c r="D43">
+        <v>0.111066083647356</v>
+      </c>
+      <c r="E43">
+        <v>0.172832223579964</v>
+      </c>
+      <c r="F43">
+        <v>0.12501456123900501</v>
+      </c>
+      <c r="G43">
+        <v>6.0872474592199501E-2</v>
       </c>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="1:16">
-      <c r="B48" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" t="s">
-        <v>48</v>
-      </c>
-      <c r="J48" t="s">
-        <v>49</v>
-      </c>
-      <c r="K48" t="s">
-        <v>50</v>
-      </c>
-      <c r="L48" t="s">
-        <v>51</v>
-      </c>
-      <c r="M48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49">
-        <v>0.16174656319594499</v>
-      </c>
-      <c r="C49">
-        <v>0.118051546886526</v>
-      </c>
-      <c r="D49">
-        <v>0.117701148324811</v>
-      </c>
-      <c r="E49">
-        <v>0.12015499414922701</v>
-      </c>
-      <c r="F49">
-        <v>0.16588574000819001</v>
-      </c>
-      <c r="G49">
-        <v>0.23154106980289599</v>
-      </c>
-      <c r="H49">
-        <v>0.14093987383277301</v>
-      </c>
-      <c r="I49">
-        <v>0.15742058082838001</v>
-      </c>
-      <c r="J49">
-        <v>0.179964913820987</v>
-      </c>
-      <c r="K49">
-        <v>0.17252239891658999</v>
-      </c>
-      <c r="L49">
-        <v>0.147605721688115</v>
-      </c>
-      <c r="M49">
-        <v>0.35261461077228201</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50">
-        <v>0.12616847988520799</v>
-      </c>
-      <c r="C50">
-        <v>0.196834664731425</v>
-      </c>
-      <c r="D50">
-        <v>0.124952810868105</v>
-      </c>
-      <c r="E50">
-        <v>0.158471461729981</v>
-      </c>
-      <c r="F50">
-        <v>0.163854648720276</v>
-      </c>
-      <c r="G50">
-        <v>0.23985738908031501</v>
-      </c>
-      <c r="H50">
-        <v>0.18257623562441599</v>
-      </c>
-      <c r="I50">
-        <v>0.10352215781412299</v>
-      </c>
-      <c r="J50">
-        <v>0.115353394768649</v>
-      </c>
-      <c r="K50">
-        <v>0.27336105104078001</v>
-      </c>
-      <c r="L50">
-        <v>7.0653838216560905E-2</v>
-      </c>
-      <c r="M50">
-        <v>0.18597917728013599</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51">
-        <v>0.11408706071826499</v>
-      </c>
-      <c r="C51">
-        <v>0.18975255996003801</v>
-      </c>
-      <c r="D51">
-        <v>0.13335724841310301</v>
-      </c>
-      <c r="E51">
-        <v>0.28944317654763801</v>
-      </c>
-      <c r="F51">
-        <v>0.12925563964658199</v>
-      </c>
-      <c r="G51">
-        <v>0.15300168876158801</v>
-      </c>
-      <c r="H51">
-        <v>0.18179169106722601</v>
-      </c>
-      <c r="I51">
-        <v>9.7701377263238798E-2</v>
-      </c>
-      <c r="J51">
-        <v>0.15999206607234301</v>
-      </c>
-      <c r="K51">
-        <v>7.4020846352181993E-2</v>
-      </c>
-      <c r="L51">
-        <v>0.175870948544293</v>
-      </c>
-      <c r="M51">
-        <v>0.14900033791974401</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52">
-        <v>7.3864131664292704E-2</v>
-      </c>
-      <c r="C52">
-        <v>7.4091670864209702E-2</v>
-      </c>
-      <c r="D52">
-        <v>5.5305457365414298E-2</v>
-      </c>
-      <c r="E52">
-        <v>6.8138107578652296E-2</v>
-      </c>
-      <c r="F52">
-        <v>3.7935909982323199E-2</v>
-      </c>
-      <c r="G52">
-        <v>0.119359072678297</v>
-      </c>
-      <c r="H52">
-        <v>5.7190137320139202E-2</v>
-      </c>
-      <c r="I52">
-        <v>8.9208823244334504E-2</v>
-      </c>
-      <c r="J52">
-        <v>6.9144074674297895E-2</v>
-      </c>
-      <c r="K52">
-        <v>0.19543013147395399</v>
-      </c>
-      <c r="L52">
-        <v>3.1894648327320398E-2</v>
-      </c>
-      <c r="M52">
-        <v>9.2832225969790794E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53">
-        <v>0.150545194061971</v>
-      </c>
-      <c r="C53">
-        <v>0.18935662892131</v>
-      </c>
-      <c r="D53">
-        <v>0.25154247333821</v>
-      </c>
-      <c r="E53">
-        <v>0.21206504707467</v>
-      </c>
-      <c r="F53">
-        <v>0.113865319696743</v>
-      </c>
-      <c r="G53">
-        <v>0.23331101240215801</v>
-      </c>
-      <c r="H53">
-        <v>6.6380968170836399E-2</v>
-      </c>
-      <c r="I53">
-        <v>9.5643588188426804E-2</v>
-      </c>
-      <c r="J53">
-        <v>0.21049317092268199</v>
-      </c>
-      <c r="K53">
-        <v>0.15923565250218899</v>
-      </c>
-      <c r="L53">
-        <v>0.13177990695142899</v>
-      </c>
-      <c r="M53">
-        <v>0.19423063747879199</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54">
-        <v>0.137414493566165</v>
-      </c>
-      <c r="C54">
-        <v>0.12093712470689701</v>
-      </c>
-      <c r="D54">
-        <v>0.163561285834529</v>
-      </c>
-      <c r="E54">
-        <v>9.3165895288751993E-2</v>
-      </c>
-      <c r="F54">
-        <v>0.20346101270356201</v>
-      </c>
-      <c r="G54">
-        <v>0.132504777001929</v>
-      </c>
-      <c r="H54">
-        <v>8.6645453294395894E-2</v>
-      </c>
-      <c r="I54">
-        <v>9.9008445498609501E-2</v>
-      </c>
-      <c r="J54">
-        <v>7.2939724787017005E-2</v>
-      </c>
-      <c r="K54">
-        <v>0.11081112383179199</v>
-      </c>
-      <c r="L54">
-        <v>0.12675682733832799</v>
-      </c>
-      <c r="M54">
-        <v>0.15494469761326399</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55">
-        <v>0.16645157167875599</v>
-      </c>
-      <c r="C55">
-        <v>0.195225494678815</v>
-      </c>
-      <c r="D55">
-        <v>9.9770250673506394E-2</v>
-      </c>
-      <c r="E55">
-        <v>0.137482956209588</v>
-      </c>
-      <c r="F55">
-        <v>0.16172539399775501</v>
-      </c>
-      <c r="G55">
-        <v>0.22473794453767301</v>
-      </c>
-      <c r="H55">
-        <v>0.147231866648312</v>
-      </c>
-      <c r="I55">
-        <v>6.3088729547545297E-2</v>
-      </c>
-      <c r="J55">
-        <v>0.155468737403719</v>
-      </c>
-      <c r="K55">
-        <v>0.17504358962028199</v>
-      </c>
-      <c r="L55">
-        <v>0.16008684438291099</v>
-      </c>
-      <c r="M55">
-        <v>0.24663862270662701</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56">
-        <v>8.0153003258926603E-2</v>
-      </c>
-      <c r="C56">
-        <v>0.12799871906705301</v>
-      </c>
-      <c r="D56">
-        <v>0.11107651030394999</v>
-      </c>
-      <c r="E56">
-        <v>0.12734519809345099</v>
-      </c>
-      <c r="F56">
-        <v>0.13454820094352599</v>
-      </c>
-      <c r="G56">
-        <v>0.14187352968311401</v>
-      </c>
-      <c r="H56">
-        <v>9.9151611803258696E-2</v>
-      </c>
-      <c r="I56">
-        <v>0.14461993266815801</v>
-      </c>
-      <c r="J56">
-        <v>0.15997589383181901</v>
-      </c>
-      <c r="K56">
-        <v>8.8006713243097903E-2</v>
-      </c>
-      <c r="L56">
-        <v>0.125572927690009</v>
-      </c>
-      <c r="M56">
-        <v>0.15311217113685499</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57">
-        <v>0.147188877549111</v>
-      </c>
-      <c r="C57">
-        <v>0.11936875314840401</v>
-      </c>
-      <c r="D57">
-        <v>0.193886454884377</v>
-      </c>
-      <c r="E57">
-        <v>0.24533629478725399</v>
-      </c>
-      <c r="F57">
-        <v>0.16634676237493201</v>
-      </c>
-      <c r="G57">
-        <v>0.288214386034994</v>
-      </c>
-      <c r="H57">
-        <v>0.21736577702711901</v>
-      </c>
-      <c r="I57">
-        <v>0.21350958490580399</v>
-      </c>
-      <c r="J57">
-        <v>0.113168618948121</v>
-      </c>
-      <c r="K57">
-        <v>0.138037886255654</v>
-      </c>
-      <c r="L57">
-        <v>0.163674602992505</v>
-      </c>
-      <c r="M57">
-        <v>0.203657035889305</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58">
-        <v>0.15971523301496501</v>
-      </c>
-      <c r="C58">
-        <v>0.16614830455702101</v>
-      </c>
-      <c r="D58">
-        <v>0.136439002343369</v>
-      </c>
-      <c r="E58">
-        <v>0.17072630772682401</v>
-      </c>
-      <c r="F58">
-        <v>0.21811437949149901</v>
-      </c>
-      <c r="G58">
-        <v>0.16028692337099501</v>
-      </c>
-      <c r="H58">
-        <v>0.13657466258312301</v>
-      </c>
-      <c r="I58">
-        <v>0.16888885864470701</v>
-      </c>
-      <c r="J58">
-        <v>0.141898584276303</v>
-      </c>
-      <c r="K58">
-        <v>8.7019546992692695E-2</v>
-      </c>
-      <c r="L58">
-        <v>0.203658131200218</v>
-      </c>
-      <c r="M58">
-        <v>0.158197214106989</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59">
-        <v>0.30031510379836301</v>
-      </c>
-      <c r="C59">
-        <v>7.6967712863733898E-2</v>
-      </c>
-      <c r="D59">
-        <v>0.19365602416111699</v>
-      </c>
-      <c r="E59">
-        <v>0.123522079170321</v>
-      </c>
-      <c r="F59">
-        <v>0.23209397303677201</v>
-      </c>
-      <c r="G59">
-        <v>0.15232001111840701</v>
-      </c>
-      <c r="H59">
-        <v>0.13215141420572901</v>
-      </c>
-      <c r="I59">
-        <v>0.117581812076682</v>
-      </c>
-      <c r="J59">
-        <v>8.5246515215273502E-2</v>
-      </c>
-      <c r="K59">
-        <v>0.11527673669760399</v>
-      </c>
-      <c r="L59">
-        <v>0.145204114482236</v>
-      </c>
-      <c r="M59">
-        <v>0.15680848868922601</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60">
-        <v>0.16161634537047201</v>
-      </c>
-      <c r="C60">
-        <v>0.10699748095686</v>
-      </c>
-      <c r="D60">
-        <v>0.113947039134444</v>
-      </c>
-      <c r="E60">
-        <v>0.14118075470574701</v>
-      </c>
-      <c r="F60">
-        <v>8.0452905821690901E-2</v>
-      </c>
-      <c r="G60">
-        <v>0.12910487656056199</v>
-      </c>
-      <c r="H60">
-        <v>0.104785599430405</v>
-      </c>
-      <c r="I60">
-        <v>0.110194037963077</v>
-      </c>
-      <c r="J60">
-        <v>0.127609704331063</v>
-      </c>
-      <c r="K60">
-        <v>0.181299522910114</v>
-      </c>
-      <c r="L60">
-        <v>0.13053715134284699</v>
-      </c>
-      <c r="M60">
-        <v>0.13812650939966301</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61">
-        <v>0.148737730355262</v>
-      </c>
-      <c r="C61">
-        <v>0.17599718800786601</v>
-      </c>
-      <c r="D61">
-        <v>0.30062638789058499</v>
-      </c>
-      <c r="E61">
-        <v>0.196051882652651</v>
-      </c>
-      <c r="F61">
-        <v>0.28649394157403801</v>
-      </c>
-      <c r="G61">
-        <v>0.27989598609091398</v>
-      </c>
-      <c r="H61">
-        <v>5.8492069979173097E-2</v>
-      </c>
-      <c r="I61">
-        <v>0.17729176751591599</v>
-      </c>
-      <c r="J61">
-        <v>0.15281849601255301</v>
-      </c>
-      <c r="K61">
-        <v>0.18143276082286899</v>
-      </c>
-      <c r="L61">
-        <v>0.19712146993591501</v>
-      </c>
-      <c r="M61">
-        <v>0.21824392026034001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62">
-        <v>0.137815398142413</v>
-      </c>
-      <c r="C62">
-        <v>0.15269126976089101</v>
-      </c>
-      <c r="D62">
-        <v>0.186121202679005</v>
-      </c>
-      <c r="E62">
-        <v>0.11560267133179</v>
-      </c>
-      <c r="F62">
-        <v>0.25088054171604401</v>
-      </c>
-      <c r="G62">
-        <v>0.188375348251625</v>
-      </c>
-      <c r="H62">
-        <v>0.111979854530011</v>
-      </c>
-      <c r="I62">
-        <v>0.10128897255010599</v>
-      </c>
-      <c r="J62">
-        <v>0.14039362911207101</v>
-      </c>
-      <c r="K62">
-        <v>0.102251844711547</v>
-      </c>
-      <c r="L62">
-        <v>0.144070208914334</v>
-      </c>
-      <c r="M62">
-        <v>0.185337183011857</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63">
-        <v>0.188278200863082</v>
-      </c>
-      <c r="C63">
-        <v>0.18345665060236699</v>
-      </c>
-      <c r="D63">
-        <v>0.190985061648661</v>
-      </c>
-      <c r="E63">
-        <v>0.21660153328996501</v>
-      </c>
-      <c r="F63">
-        <v>0.16783836595824</v>
-      </c>
-      <c r="G63">
-        <v>0.329994801242319</v>
-      </c>
-      <c r="H63">
-        <v>0.21302357805160399</v>
-      </c>
-      <c r="I63">
-        <v>0.19859627387571399</v>
-      </c>
-      <c r="J63">
-        <v>0.112104121381083</v>
-      </c>
-      <c r="K63">
-        <v>0.176114814623204</v>
-      </c>
-      <c r="L63">
-        <v>0.227394330769398</v>
-      </c>
-      <c r="M63">
-        <v>0.241337205852973</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64">
-        <v>0.13850241182812101</v>
-      </c>
-      <c r="C64">
-        <v>0.155533591620373</v>
-      </c>
-      <c r="D64">
-        <v>0.10275142481255201</v>
-      </c>
-      <c r="E64">
-        <v>0.13357536098787001</v>
-      </c>
-      <c r="F64">
-        <v>0.13730344612849499</v>
-      </c>
-      <c r="G64">
-        <v>0.20977372311268899</v>
-      </c>
-      <c r="H64">
-        <v>0.10833811036465001</v>
-      </c>
-      <c r="I64">
-        <v>0.107614112559392</v>
-      </c>
-      <c r="J64">
-        <v>8.3907476718984894E-2</v>
-      </c>
-      <c r="K64">
-        <v>0.167304378587984</v>
-      </c>
-      <c r="L64">
-        <v>0.125361774533994</v>
-      </c>
-      <c r="M64">
-        <v>9.7185611333506797E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
-      <c r="A65" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65">
-        <v>0.158017608573888</v>
-      </c>
-      <c r="C65">
-        <v>9.2888244957094801E-2</v>
-      </c>
-      <c r="D65">
-        <v>0.16648189077759701</v>
-      </c>
-      <c r="E65">
-        <v>0.12041682624936501</v>
-      </c>
-      <c r="F65">
-        <v>0.11590213637446301</v>
-      </c>
-      <c r="G65">
-        <v>0.17892674416923701</v>
-      </c>
-      <c r="H65">
-        <v>7.3813535422470503E-2</v>
-      </c>
-      <c r="I65">
-        <v>8.31124434779551E-2</v>
-      </c>
-      <c r="J65">
-        <v>8.0012503622808304E-2</v>
-      </c>
-      <c r="K65">
-        <v>0.128720168017119</v>
-      </c>
-      <c r="L65">
-        <v>0.13383945382881901</v>
-      </c>
-      <c r="M65">
-        <v>0.17674275709319201</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
-      <c r="A66" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66">
-        <v>6.9230733975409298E-2</v>
-      </c>
-      <c r="C66">
-        <v>0.15007087531173599</v>
-      </c>
-      <c r="D66">
-        <v>8.6652893191443703E-2</v>
-      </c>
-      <c r="E66">
-        <v>0.15645096097165301</v>
-      </c>
-      <c r="F66">
-        <v>0.154122460644805</v>
-      </c>
-      <c r="G66">
-        <v>0.21288917115574299</v>
-      </c>
-      <c r="H66">
-        <v>0.13751808467853899</v>
-      </c>
-      <c r="I66">
-        <v>0.104760002652334</v>
-      </c>
-      <c r="J66">
-        <v>0.14518184117271801</v>
-      </c>
-      <c r="K66">
-        <v>8.4149774738561597E-2</v>
-      </c>
-      <c r="L66">
-        <v>0.133694511221956</v>
-      </c>
-      <c r="M66">
-        <v>0.20212221098520899</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
-      <c r="A67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67">
-        <v>0.122581327638684</v>
-      </c>
-      <c r="C67">
-        <v>5.3117430727956799E-2</v>
-      </c>
-      <c r="D67">
-        <v>4.5892489794723497E-2</v>
-      </c>
-      <c r="E67">
-        <v>7.2009498932278301E-2</v>
-      </c>
-      <c r="F67">
-        <v>0.110580774761112</v>
-      </c>
-      <c r="G67">
-        <v>0.12911023412363201</v>
-      </c>
-      <c r="H67">
-        <v>0.123153093703797</v>
-      </c>
-      <c r="I67">
-        <v>0.15608857597037701</v>
-      </c>
-      <c r="J67">
-        <v>5.1313677651784802E-2</v>
-      </c>
-      <c r="K67">
-        <v>0.169610188625583</v>
-      </c>
-      <c r="L67">
-        <v>0.116301792353247</v>
-      </c>
-      <c r="M67">
-        <v>0.139351359985081</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
-      <c r="A68" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68">
-        <v>5.5184536961636603E-2</v>
-      </c>
-      <c r="C68">
-        <v>0.23702865852770799</v>
-      </c>
-      <c r="D68">
-        <v>0.104999396948371</v>
-      </c>
-      <c r="E68">
-        <v>0.151799343363753</v>
-      </c>
-      <c r="F68">
-        <v>0.15634841467589</v>
-      </c>
-      <c r="G68">
-        <v>0.21865567546113501</v>
-      </c>
-      <c r="H68">
-        <v>7.7542718246340805E-2</v>
-      </c>
-      <c r="I68">
-        <v>8.0619269710404604E-2</v>
-      </c>
-      <c r="J68">
-        <v>0.137954309881552</v>
-      </c>
-      <c r="K68">
-        <v>0.190520340305048</v>
-      </c>
-      <c r="L68">
-        <v>7.2035147903604393E-2</v>
-      </c>
-      <c r="M68">
-        <v>0.17991652700680599</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
-      <c r="A70" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-    </row>
-    <row r="71" spans="1:16">
-      <c r="B71" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71" t="s">
-        <v>75</v>
-      </c>
-      <c r="D71" t="s">
-        <v>76</v>
-      </c>
-      <c r="E71" t="s">
-        <v>77</v>
-      </c>
-      <c r="F71" t="s">
-        <v>78</v>
-      </c>
-      <c r="G71" t="s">
-        <v>79</v>
-      </c>
-      <c r="H71" t="s">
-        <v>80</v>
-      </c>
-      <c r="I71" t="s">
-        <v>81</v>
-      </c>
-      <c r="J71" t="s">
-        <v>82</v>
-      </c>
-      <c r="K71" t="s">
-        <v>83</v>
-      </c>
-      <c r="L71" t="s">
-        <v>84</v>
-      </c>
-      <c r="M71" t="s">
-        <v>85</v>
-      </c>
-      <c r="N71" t="s">
-        <v>86</v>
-      </c>
-      <c r="O71" t="s">
-        <v>87</v>
-      </c>
-      <c r="P71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
-      <c r="A72" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72">
-        <v>0.24307738405704099</v>
-      </c>
-      <c r="C72">
-        <v>0.20457060533514401</v>
-      </c>
-      <c r="D72">
-        <v>0.20247429695510799</v>
-      </c>
-      <c r="E72">
-        <v>0.226881840352848</v>
-      </c>
-      <c r="F72">
-        <v>0.19240796829429799</v>
-      </c>
-      <c r="G72">
-        <v>0.14330919927784599</v>
-      </c>
-      <c r="H72">
-        <v>0.15586871533677801</v>
-      </c>
-      <c r="I72">
-        <v>0.200214177740934</v>
-      </c>
-      <c r="J72">
-        <v>0.201229543801452</v>
-      </c>
-      <c r="K72">
-        <v>0.13410826675623999</v>
-      </c>
-      <c r="L72">
-        <v>0.20915158898226999</v>
-      </c>
-      <c r="M72">
-        <v>0.118394655589421</v>
-      </c>
-      <c r="N72">
-        <v>0.20942947258837799</v>
-      </c>
-      <c r="O72">
-        <v>0.14084628981956199</v>
-      </c>
-      <c r="P72">
-        <v>0.215067934022937</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
-      <c r="A73" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73">
-        <v>0.100934011145277</v>
-      </c>
-      <c r="C73">
-        <v>0.14915603036408301</v>
-      </c>
-      <c r="D73">
-        <v>0.149709691376677</v>
-      </c>
-      <c r="E73">
-        <v>0.19048524546999901</v>
-      </c>
-      <c r="F73">
-        <v>0.208986876044856</v>
-      </c>
-      <c r="G73">
-        <v>9.4071823371685806E-2</v>
-      </c>
-      <c r="H73">
-        <v>6.8851443396601195E-2</v>
-      </c>
-      <c r="I73">
-        <v>0.117039606378288</v>
-      </c>
-      <c r="J73">
-        <v>0.14201542918957899</v>
-      </c>
-      <c r="K73">
-        <v>5.53236028820129E-2</v>
-      </c>
-      <c r="L73">
-        <v>0.141200152738437</v>
-      </c>
-      <c r="M73">
-        <v>9.1766633272360204E-2</v>
-      </c>
-      <c r="N73">
-        <v>0.112289827988163</v>
-      </c>
-      <c r="O73">
-        <v>9.7502220569915699E-2</v>
-      </c>
-      <c r="P73">
-        <v>8.8369930047536599E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
-      <c r="A74" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74">
-        <v>0.22580566022769499</v>
-      </c>
-      <c r="C74">
-        <v>0.28837554727022202</v>
-      </c>
-      <c r="D74">
-        <v>0.230410410983865</v>
-      </c>
-      <c r="E74">
-        <v>0.23990995416927099</v>
-      </c>
-      <c r="F74">
-        <v>0.25851954726805298</v>
-      </c>
-      <c r="G74">
-        <v>0.171079816097679</v>
-      </c>
-      <c r="H74">
-        <v>0.15683603097964999</v>
-      </c>
-      <c r="I74">
-        <v>0.20501497280769099</v>
-      </c>
-      <c r="J74">
-        <v>0.20238456697681101</v>
-      </c>
-      <c r="K74">
-        <v>0.168474029880604</v>
-      </c>
-      <c r="L74">
-        <v>0.15772617430233399</v>
-      </c>
-      <c r="M74">
-        <v>9.5755914388569896E-2</v>
-      </c>
-      <c r="N74">
-        <v>0.19125676322618701</v>
-      </c>
-      <c r="O74">
-        <v>0.1711932176855</v>
-      </c>
-      <c r="P74">
-        <v>0.14316776917096699</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
-      <c r="A75" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75">
-        <v>0.17503211046929101</v>
-      </c>
-      <c r="C75">
-        <v>0.168112387292325</v>
-      </c>
-      <c r="D75">
-        <v>0.23267471097561401</v>
-      </c>
-      <c r="E75">
-        <v>0.32148304167400799</v>
-      </c>
-      <c r="F75">
-        <v>0.29823583158488498</v>
-      </c>
-      <c r="G75">
-        <v>0.165070718452867</v>
-      </c>
-      <c r="H75">
-        <v>0.183154363396454</v>
-      </c>
-      <c r="I75">
-        <v>0.121770931287806</v>
-      </c>
-      <c r="J75">
-        <v>0.20274135741305099</v>
-      </c>
-      <c r="K75">
-        <v>0.14604443767651101</v>
-      </c>
-      <c r="L75">
-        <v>0.217582751163448</v>
-      </c>
-      <c r="M75">
-        <v>0.122729105494621</v>
-      </c>
-      <c r="N75">
-        <v>0.22390179976333599</v>
-      </c>
-      <c r="O75">
-        <v>0.125364499651965</v>
-      </c>
-      <c r="P75">
-        <v>0.12249026148008001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
-      <c r="A76" t="s">
-        <v>93</v>
-      </c>
-      <c r="B76">
-        <v>0.14104989762175801</v>
-      </c>
-      <c r="C76">
-        <v>0.197376017991616</v>
-      </c>
-      <c r="D76">
-        <v>0.17514960399294099</v>
-      </c>
-      <c r="E76">
-        <v>0.18937096691316899</v>
-      </c>
-      <c r="F76">
-        <v>0.236180290897507</v>
-      </c>
-      <c r="G76">
-        <v>0.21090702846925599</v>
-      </c>
-      <c r="H76">
-        <v>0.203037396901048</v>
-      </c>
-      <c r="I76">
-        <v>7.1925736325020306E-2</v>
-      </c>
-      <c r="J76">
-        <v>0.16017894280835901</v>
-      </c>
-      <c r="K76">
-        <v>0.19537546173260001</v>
-      </c>
-      <c r="L76">
-        <v>0.21722622456004101</v>
-      </c>
-      <c r="M76">
-        <v>0.128893119180577</v>
-      </c>
-      <c r="N76">
-        <v>0.19327853783221899</v>
-      </c>
-      <c r="O76">
-        <v>0.15953886185461799</v>
-      </c>
-      <c r="P76">
-        <v>0.19919258738975401</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
-      <c r="A77" t="s">
-        <v>94</v>
-      </c>
-      <c r="B77">
-        <v>0.224401248619232</v>
-      </c>
-      <c r="C77">
-        <v>0.21225542256074101</v>
-      </c>
-      <c r="D77">
-        <v>0.24192684255131999</v>
-      </c>
-      <c r="E77">
-        <v>0.19145543299760201</v>
-      </c>
-      <c r="F77">
-        <v>0.25194662819424302</v>
-      </c>
-      <c r="G77">
-        <v>0.17225401359148401</v>
-      </c>
-      <c r="H77">
-        <v>0.25447386518826498</v>
-      </c>
-      <c r="I77">
-        <v>0.14618795807089799</v>
-      </c>
-      <c r="J77">
-        <v>0.179268702013585</v>
-      </c>
-      <c r="K77">
-        <v>0.28349654179084999</v>
-      </c>
-      <c r="L77">
-        <v>0.36155470382111798</v>
-      </c>
-      <c r="M77">
-        <v>0.14464511854138101</v>
-      </c>
-      <c r="N77">
-        <v>0.36556948196559502</v>
-      </c>
-      <c r="O77">
-        <v>0.18561328866327001</v>
-      </c>
-      <c r="P77">
-        <v>0.24378680475737499</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
-      <c r="A78" t="s">
-        <v>95</v>
-      </c>
-      <c r="B78">
-        <v>0.19712704662720501</v>
-      </c>
-      <c r="C78">
-        <v>0.17637671614790401</v>
-      </c>
-      <c r="D78">
-        <v>0.240498868228193</v>
-      </c>
-      <c r="E78">
-        <v>0.18531997506551301</v>
-      </c>
-      <c r="F78">
-        <v>0.22658159163326899</v>
-      </c>
-      <c r="G78">
-        <v>0.21924508280229699</v>
-      </c>
-      <c r="H78">
-        <v>0.16804649208994099</v>
-      </c>
-      <c r="I78">
-        <v>0.23504144841202501</v>
-      </c>
-      <c r="J78">
-        <v>0.14337504301531601</v>
-      </c>
-      <c r="K78">
-        <v>0.13012237903113</v>
-      </c>
-      <c r="L78">
-        <v>0.21450744351381101</v>
-      </c>
-      <c r="M78">
-        <v>0.12492993606956</v>
-      </c>
-      <c r="N78">
-        <v>0.170146630313043</v>
-      </c>
-      <c r="O78">
-        <v>0.12597726419428601</v>
-      </c>
-      <c r="P78">
-        <v>0.237998135232694</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
-      <c r="A79" t="s">
-        <v>96</v>
-      </c>
-      <c r="B79">
-        <v>0.109264892322486</v>
-      </c>
-      <c r="C79">
-        <v>0.17836057910835901</v>
-      </c>
-      <c r="D79">
-        <v>0.14582363914168101</v>
-      </c>
-      <c r="E79">
-        <v>0.16716967198133201</v>
-      </c>
-      <c r="F79">
-        <v>0.19185902164837501</v>
-      </c>
-      <c r="G79">
-        <v>0.121188301992909</v>
-      </c>
-      <c r="H79">
-        <v>0.159491383436204</v>
-      </c>
-      <c r="I79">
-        <v>0.15691516853224299</v>
-      </c>
-      <c r="J79">
-        <v>7.9531572184100299E-2</v>
-      </c>
-      <c r="K79">
-        <v>0.10807603149039299</v>
-      </c>
-      <c r="L79">
-        <v>0.128672335041076</v>
-      </c>
-      <c r="M79">
-        <v>0.18315271891490101</v>
-      </c>
-      <c r="N79">
-        <v>0.121222932971467</v>
-      </c>
-      <c r="O79">
-        <v>6.8976681948881693E-2</v>
-      </c>
-      <c r="P79">
-        <v>0.13504627037366401</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
-      <c r="A80" t="s">
-        <v>97</v>
-      </c>
-      <c r="B80">
-        <v>0.213752053469624</v>
-      </c>
-      <c r="C80">
-        <v>0.22836834926779401</v>
-      </c>
-      <c r="D80">
-        <v>0.22343088923812399</v>
-      </c>
-      <c r="E80">
-        <v>0.23129217087015799</v>
-      </c>
-      <c r="F80">
-        <v>0.25148743692730102</v>
-      </c>
-      <c r="G80">
-        <v>0.147267779987097</v>
-      </c>
-      <c r="H80">
-        <v>0.14313785547028199</v>
-      </c>
-      <c r="I80">
-        <v>0.13871729704837699</v>
-      </c>
-      <c r="J80">
-        <v>0.11399944810427701</v>
-      </c>
-      <c r="K80">
-        <v>0.18828131732925699</v>
-      </c>
-      <c r="L80">
-        <v>0.19163231610806999</v>
-      </c>
-      <c r="M80">
-        <v>0.17950805634056</v>
-      </c>
-      <c r="N80">
-        <v>0.28776042008057801</v>
-      </c>
-      <c r="O80">
-        <v>8.23537531726833E-2</v>
-      </c>
-      <c r="P80">
-        <v>0.13774212148305301</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
-      <c r="A81" t="s">
-        <v>98</v>
-      </c>
-      <c r="B81">
-        <v>0.20575538485801501</v>
-      </c>
-      <c r="C81">
-        <v>0.20549911173806201</v>
-      </c>
-      <c r="D81">
-        <v>0.33308138441420698</v>
-      </c>
-      <c r="E81">
-        <v>0.243261349544347</v>
-      </c>
-      <c r="F81">
-        <v>0.34709036202536597</v>
-      </c>
-      <c r="G81">
-        <v>0.21492479243066301</v>
-      </c>
-      <c r="H81">
-        <v>0.20594984850523901</v>
-      </c>
-      <c r="I81">
-        <v>0.268073665977624</v>
-      </c>
-      <c r="J81">
-        <v>0.26674948931235898</v>
-      </c>
-      <c r="K81">
-        <v>0.36583025086272902</v>
-      </c>
-      <c r="L81">
-        <v>0.34448111161613099</v>
-      </c>
-      <c r="M81">
-        <v>0.223721141248999</v>
-      </c>
-      <c r="N81">
-        <v>0.26798313976678001</v>
-      </c>
-      <c r="O81">
-        <v>0.336448563849854</v>
-      </c>
-      <c r="P81">
-        <v>0.27791569249019299</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16">
-      <c r="A82" t="s">
-        <v>99</v>
-      </c>
-      <c r="B82">
-        <v>0.147243399895645</v>
-      </c>
-      <c r="C82">
-        <v>0.17156918469798699</v>
-      </c>
-      <c r="D82">
-        <v>0.20615558649945201</v>
-      </c>
-      <c r="E82">
-        <v>0.21588339632953699</v>
-      </c>
-      <c r="F82">
-        <v>0.314717843867523</v>
-      </c>
-      <c r="G82">
-        <v>7.6526977261574605E-2</v>
-      </c>
-      <c r="H82">
-        <v>9.3870174520587005E-2</v>
-      </c>
-      <c r="I82">
-        <v>0.20159568156541899</v>
-      </c>
-      <c r="J82">
-        <v>0.136022326380039</v>
-      </c>
-      <c r="K82">
-        <v>0.112319402864169</v>
-      </c>
-      <c r="L82">
-        <v>0.15950338023764299</v>
-      </c>
-      <c r="M82">
-        <v>0.12967912632797399</v>
-      </c>
-      <c r="N82">
-        <v>0.112091449336753</v>
-      </c>
-      <c r="O82">
-        <v>6.50579920548916E-2</v>
-      </c>
-      <c r="P82">
-        <v>9.0158767563768699E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16">
-      <c r="A83" t="s">
-        <v>100</v>
-      </c>
-      <c r="B83">
-        <v>0.120591864021527</v>
-      </c>
-      <c r="C83">
-        <v>0.19814526752494599</v>
-      </c>
-      <c r="D83">
-        <v>0.220655557927006</v>
-      </c>
-      <c r="E83">
-        <v>0.13386449392010399</v>
-      </c>
-      <c r="F83">
-        <v>0.39496935816034801</v>
-      </c>
-      <c r="G83">
-        <v>0.113184524464283</v>
-      </c>
-      <c r="H83">
-        <v>0.15350749840098399</v>
-      </c>
-      <c r="I83">
-        <v>0.189438697261609</v>
-      </c>
-      <c r="J83">
-        <v>7.12184431815341E-2</v>
-      </c>
-      <c r="K83">
-        <v>0.20190141133150999</v>
-      </c>
-      <c r="L83">
-        <v>0.19481548044174901</v>
-      </c>
-      <c r="M83">
-        <v>0.14725096020505901</v>
-      </c>
-      <c r="N83">
-        <v>0.12530020023468899</v>
-      </c>
-      <c r="O83">
-        <v>9.1183534897567295E-2</v>
-      </c>
-      <c r="P83">
-        <v>0.119117311872946</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
-      <c r="A84" t="s">
-        <v>101</v>
-      </c>
-      <c r="B84">
-        <v>0.32386234409182002</v>
-      </c>
-      <c r="C84">
-        <v>0.247174216110393</v>
-      </c>
-      <c r="D84">
-        <v>0.33669187997236399</v>
-      </c>
-      <c r="E84">
-        <v>0.208500020481592</v>
-      </c>
-      <c r="F84">
-        <v>0.29620910691813301</v>
-      </c>
-      <c r="G84">
-        <v>0.31149575731379398</v>
-      </c>
-      <c r="H84">
-        <v>0.16396809068607099</v>
-      </c>
-      <c r="I84">
-        <v>0.38546581356831899</v>
-      </c>
-      <c r="J84">
-        <v>0.26406945081073802</v>
-      </c>
-      <c r="K84">
-        <v>0.24305094954731299</v>
-      </c>
-      <c r="L84">
-        <v>0.247626883664159</v>
-      </c>
-      <c r="M84">
-        <v>0.16044199931681599</v>
-      </c>
-      <c r="N84">
-        <v>0.33935697505701301</v>
-      </c>
-      <c r="O84">
-        <v>0.23760554672697401</v>
-      </c>
-      <c r="P84">
-        <v>0.212529387506083</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
-      <c r="A85" t="s">
-        <v>102</v>
-      </c>
-      <c r="B85">
-        <v>0.14282568109489699</v>
-      </c>
-      <c r="C85">
-        <v>0.12844513283109099</v>
-      </c>
-      <c r="D85">
-        <v>0.139294469750013</v>
-      </c>
-      <c r="E85">
-        <v>0.16530132899613101</v>
-      </c>
-      <c r="F85">
-        <v>0.16369826648487401</v>
-      </c>
-      <c r="G85">
-        <v>0.118922286096101</v>
-      </c>
-      <c r="H85">
-        <v>6.5380387575426593E-2</v>
-      </c>
-      <c r="I85">
-        <v>0.159975801166963</v>
-      </c>
-      <c r="J85">
-        <v>0.14866251137006001</v>
-      </c>
-      <c r="K85">
-        <v>0.21018216892448</v>
-      </c>
-      <c r="L85">
-        <v>0.1120731844066</v>
-      </c>
-      <c r="M85">
-        <v>0.13451358446266501</v>
-      </c>
-      <c r="N85">
-        <v>0.13759214843318501</v>
-      </c>
-      <c r="O85">
-        <v>0.17692609853424701</v>
-      </c>
-      <c r="P85">
-        <v>0.13211858095872001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16">
-      <c r="A86" t="s">
-        <v>103</v>
-      </c>
-      <c r="B86">
-        <v>0.20292880095436899</v>
-      </c>
-      <c r="C86">
-        <v>0.188703383742131</v>
-      </c>
-      <c r="D86">
-        <v>0.28011821694138</v>
-      </c>
-      <c r="E86">
-        <v>0.26230955444871801</v>
-      </c>
-      <c r="F86">
-        <v>0.30304895406815002</v>
-      </c>
-      <c r="G86">
-        <v>0.15378133039542199</v>
-      </c>
-      <c r="H86">
-        <v>0.17260936753560699</v>
-      </c>
-      <c r="I86">
-        <v>0.14056431016788301</v>
-      </c>
-      <c r="J86">
-        <v>0.169518852368124</v>
-      </c>
-      <c r="K86">
-        <v>0.18227656295404601</v>
-      </c>
-      <c r="L86">
-        <v>0.28908987894969401</v>
-      </c>
-      <c r="M86">
-        <v>0.216450299649355</v>
-      </c>
-      <c r="N86">
-        <v>0.24463392270190501</v>
-      </c>
-      <c r="O86">
-        <v>0.16024706290670501</v>
-      </c>
-      <c r="P86">
-        <v>0.18060794144378201</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16">
-      <c r="A87" t="s">
-        <v>104</v>
-      </c>
-      <c r="B87">
-        <v>0.15142049699434501</v>
-      </c>
-      <c r="C87">
-        <v>0.19677688355602699</v>
-      </c>
-      <c r="D87">
-        <v>0.26327677834992902</v>
-      </c>
-      <c r="E87">
-        <v>0.16416962623471101</v>
-      </c>
-      <c r="F87">
-        <v>0.31890775913694502</v>
-      </c>
-      <c r="G87">
-        <v>0.12718038676146201</v>
-      </c>
-      <c r="H87">
-        <v>0.241169873158738</v>
-      </c>
-      <c r="I87">
-        <v>7.6556625445968196E-2</v>
-      </c>
-      <c r="J87">
-        <v>0.170877577078141</v>
-      </c>
-      <c r="K87">
-        <v>0.16482446765126699</v>
-      </c>
-      <c r="L87">
-        <v>0.20886433704468699</v>
-      </c>
-      <c r="M87">
-        <v>0.20400211720685099</v>
-      </c>
-      <c r="N87">
-        <v>0.10153926872754</v>
-      </c>
-      <c r="O87">
-        <v>0.122602989203191</v>
-      </c>
-      <c r="P87">
-        <v>0.21010546070326699</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16">
-      <c r="A88" t="s">
-        <v>105</v>
-      </c>
-      <c r="B88">
-        <v>0.233467592285762</v>
-      </c>
-      <c r="C88">
-        <v>0.18680363228372501</v>
-      </c>
-      <c r="D88">
-        <v>0.25470257700016702</v>
-      </c>
-      <c r="E88">
-        <v>0.247050279897298</v>
-      </c>
-      <c r="F88">
-        <v>0.23528093258451499</v>
-      </c>
-      <c r="G88">
-        <v>0.22883087760054899</v>
-      </c>
-      <c r="H88">
-        <v>0.23240681635089599</v>
-      </c>
-      <c r="I88">
-        <v>0.23910835483661899</v>
-      </c>
-      <c r="J88">
-        <v>0.218504410484337</v>
-      </c>
-      <c r="K88">
-        <v>0.223600676073962</v>
-      </c>
-      <c r="L88">
-        <v>0.172008709161074</v>
-      </c>
-      <c r="M88">
-        <v>0.22521781994916301</v>
-      </c>
-      <c r="N88">
-        <v>0.24292894998699099</v>
-      </c>
-      <c r="O88">
-        <v>0.160858255865201</v>
-      </c>
-      <c r="P88">
-        <v>0.225701028300692</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16">
-      <c r="A89" t="s">
-        <v>106</v>
-      </c>
-      <c r="B89">
-        <v>0.152930879319125</v>
-      </c>
-      <c r="C89">
-        <v>0.18700556918490299</v>
-      </c>
-      <c r="D89">
-        <v>0.165954675555852</v>
-      </c>
-      <c r="E89">
-        <v>0.2196116821461</v>
-      </c>
-      <c r="F89">
-        <v>0.17142797461790499</v>
-      </c>
-      <c r="G89">
-        <v>0.15938816476692899</v>
-      </c>
-      <c r="H89">
-        <v>0.21169759428051599</v>
-      </c>
-      <c r="I89">
-        <v>0.20693681482217</v>
-      </c>
-      <c r="J89">
-        <v>0.203640982432716</v>
-      </c>
-      <c r="K89">
-        <v>0.173526122586072</v>
-      </c>
-      <c r="L89">
-        <v>0.25162939293423398</v>
-      </c>
-      <c r="M89">
-        <v>0.19900270547703</v>
-      </c>
-      <c r="N89">
-        <v>0.12897108058938</v>
-      </c>
-      <c r="O89">
-        <v>0.226840956652026</v>
-      </c>
-      <c r="P89">
-        <v>0.34679360822171801</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16">
-      <c r="A90" t="s">
-        <v>107</v>
-      </c>
-      <c r="B90">
-        <v>0.39437945142538999</v>
-      </c>
-      <c r="C90">
-        <v>0.21688755995459</v>
-      </c>
-      <c r="D90">
-        <v>0.29132907395980501</v>
-      </c>
-      <c r="E90">
-        <v>0.30597143621953299</v>
-      </c>
-      <c r="F90">
-        <v>0.36526639192480398</v>
-      </c>
-      <c r="G90">
-        <v>0.167460717011709</v>
-      </c>
-      <c r="H90">
-        <v>0.24113564310652399</v>
-      </c>
-      <c r="I90">
-        <v>0.208534340298417</v>
-      </c>
-      <c r="J90">
-        <v>0.178493351172131</v>
-      </c>
-      <c r="K90">
-        <v>0.248782273398926</v>
-      </c>
-      <c r="L90">
-        <v>0.31162595798069698</v>
-      </c>
-      <c r="M90">
-        <v>0.30523493164219101</v>
-      </c>
-      <c r="N90">
-        <v>0.305801147992808</v>
-      </c>
-      <c r="O90">
-        <v>0.19193704621746799</v>
-      </c>
-      <c r="P90">
-        <v>0.22957087869062801</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
-      <c r="A91" t="s">
-        <v>108</v>
-      </c>
-      <c r="B91">
-        <v>0.221309889589937</v>
-      </c>
-      <c r="C91">
-        <v>0.20292859028150301</v>
-      </c>
-      <c r="D91">
-        <v>0.21786443618222701</v>
-      </c>
-      <c r="E91">
-        <v>0.26651175073718403</v>
-      </c>
-      <c r="F91">
-        <v>0.25146622745608699</v>
-      </c>
-      <c r="G91">
-        <v>0.16934850294958401</v>
-      </c>
-      <c r="H91">
-        <v>0.153084303291179</v>
-      </c>
-      <c r="I91">
-        <v>0.14161140595038699</v>
-      </c>
-      <c r="J91">
-        <v>0.14692495312645601</v>
-      </c>
-      <c r="K91">
-        <v>0.14205287213186299</v>
-      </c>
-      <c r="L91">
-        <v>0.195169058525723</v>
-      </c>
-      <c r="M91">
-        <v>0.18797635928262599</v>
-      </c>
-      <c r="N91">
-        <v>0.22192188767026999</v>
-      </c>
-      <c r="O91">
-        <v>0.14280286922431801</v>
-      </c>
-      <c r="P91">
-        <v>0.15032025836287999</v>
-      </c>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A70:P70"/>
-    <mergeCell ref="A47:M47"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A36:G36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7807ADC6-4E54-4CA3-8A92-E6A4521869DA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentation/CosineSimilarity/Record.xlsx
+++ b/Documentation/CosineSimilarity/Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\embeders-semantic-analysis\Documentation\CosineSimilarity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002FD9D4-1FFF-42C4-A296-C8BA071EDD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6DFE3C-8E30-43F2-8E97-958C5BA8D016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="689" xr2:uid="{0B6CED53-8839-4228-88B3-1E625FBF7FC8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="689" firstSheet="3" activeTab="5" xr2:uid="{0B6CED53-8839-4228-88B3-1E625FBF7FC8}"/>
   </bookViews>
   <sheets>
     <sheet name="words vs words (3-small)" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="95">
   <si>
     <t>political</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>technological</t>
-  </si>
-  <si>
-    <t>legal and environmental</t>
   </si>
   <si>
     <t>The Hunger Games</t>
@@ -324,6 +321,12 @@
   <si>
     <t>Words vs Lyrics Dataset (using "lyrics" field)</t>
   </si>
+  <si>
+    <t>legal</t>
+  </si>
+  <si>
+    <t>environmental</t>
+  </si>
 </sst>
 </file>
 
@@ -457,6 +460,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -472,7 +476,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,7 +530,7 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>PESTLE vs word list 1</a:t>
+              <a:t>PESTLE vs word list 1 (small-3)</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -599,9 +602,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$3:$A$10</c:f>
+              <c:f>'words vs words (3-small)'!$A$3:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>trends</c:v>
                 </c:pt>
@@ -622,19 +625,16 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>cultural values</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>tech infrastructure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$B$3:$B$10</c:f>
+              <c:f>'words vs words (3-small)'!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.35357917603761901</c:v>
                 </c:pt>
@@ -655,9 +655,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.32879258611676099</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.29647760554548502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -694,9 +691,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$3:$A$10</c:f>
+              <c:f>'words vs words (3-small)'!$A$3:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>trends</c:v>
                 </c:pt>
@@ -717,19 +714,16 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>cultural values</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>tech infrastructure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$C$3:$C$10</c:f>
+              <c:f>'words vs words (3-small)'!$C$3:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.31135806241671199</c:v>
                 </c:pt>
@@ -750,9 +744,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.265623384254565</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.30594573240900802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -789,9 +780,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$3:$A$10</c:f>
+              <c:f>'words vs words (3-small)'!$A$3:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>trends</c:v>
                 </c:pt>
@@ -812,19 +803,16 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>cultural values</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>tech infrastructure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$D$3:$D$10</c:f>
+              <c:f>'words vs words (3-small)'!$D$3:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.324688233518096</c:v>
                 </c:pt>
@@ -845,9 +833,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.30731413177980199</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.201229174121237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -884,9 +869,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$3:$A$10</c:f>
+              <c:f>'words vs words (3-small)'!$A$3:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>trends</c:v>
                 </c:pt>
@@ -907,19 +892,16 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>cultural values</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>tech infrastructure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$E$3:$E$10</c:f>
+              <c:f>'words vs words (3-small)'!$E$3:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.38502513926780702</c:v>
                 </c:pt>
@@ -940,9 +922,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.20886437523997101</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.53841817176550799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,7 +941,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>legal and environmental</c:v>
+                  <c:v>legal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -979,9 +958,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$3:$A$10</c:f>
+              <c:f>'words vs words (3-small)'!$A$3:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>trends</c:v>
                 </c:pt>
@@ -1002,42 +981,36 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>cultural values</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>tech infrastructure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$F$3:$F$10</c:f>
+              <c:f>'words vs words (3-small)'!$F$3:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.216230209214088</c:v>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.21774503125623901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37207851550586502</c:v>
+                  <c:v>0.533554787564963</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21062423655711501</c:v>
+                  <c:v>0.24931420147644701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.234894931628611</c:v>
+                  <c:v>0.224187535114899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26536636466733199</c:v>
+                  <c:v>0.1235979706001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38223436077380601</c:v>
+                  <c:v>0.34047408104798299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.253204395889019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.31686690452302801</c:v>
+                  <c:v>0.21574597067858001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1045,6 +1018,95 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1DF1-4298-8054-9553E584E0BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'words vs words (3-small)'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>environmental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'words vs words (3-small)'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>trends</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>policy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>spending</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>trade tariffs</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>renewable energy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>intellectual property</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>cultural values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'words vs words (3-small)'!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.300567374330591</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.347330687403196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.306326269415646</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.175654208294037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33956568911682</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.255053837230312</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30092749659807799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CEB-4738-89EB-2AEF63D7E032}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1306,7 +1368,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>PESTLE vs word list 2</a:t>
+              <a:t>PESTLE vs word list 2 (ada-002)</a:t>
             </a:r>
             <a:endParaRPr lang="en-CA"/>
           </a:p>
@@ -1351,7 +1413,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-CA"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1367,7 +1429,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words (ada-002)'!$B$30</c:f>
+              <c:f>'words vs words (ada-002)'!$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1388,9 +1450,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (ada-002)'!$A$31:$A$37</c:f>
+              <c:f>'words vs words (ada-002)'!$A$30:$A$35</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>framework</c:v>
                 </c:pt>
@@ -1408,19 +1470,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>regulation</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>resource</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (ada-002)'!$B$31:$B$37</c:f>
+              <c:f>'words vs words (ada-002)'!$B$30:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.81614472297669904</c:v>
                 </c:pt>
@@ -1438,9 +1497,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.81869816512024995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.80470999400413701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1456,7 +1512,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words (ada-002)'!$C$30</c:f>
+              <c:f>'words vs words (ada-002)'!$C$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1477,9 +1533,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (ada-002)'!$A$31:$A$37</c:f>
+              <c:f>'words vs words (ada-002)'!$A$30:$A$35</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>framework</c:v>
                 </c:pt>
@@ -1497,19 +1553,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>regulation</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>resource</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (ada-002)'!$C$31:$C$37</c:f>
+              <c:f>'words vs words (ada-002)'!$C$30:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.82394025991460396</c:v>
                 </c:pt>
@@ -1527,9 +1580,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.82907045195984097</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.836137300012328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1545,7 +1595,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words (ada-002)'!$D$30</c:f>
+              <c:f>'words vs words (ada-002)'!$D$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1566,9 +1616,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (ada-002)'!$A$31:$A$37</c:f>
+              <c:f>'words vs words (ada-002)'!$A$30:$A$35</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>framework</c:v>
                 </c:pt>
@@ -1586,19 +1636,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>regulation</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>resource</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (ada-002)'!$D$31:$D$37</c:f>
+              <c:f>'words vs words (ada-002)'!$D$30:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.78238697122134504</c:v>
                 </c:pt>
@@ -1616,9 +1663,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.80124776168881795</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.77337922222176003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1634,7 +1678,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words (ada-002)'!$E$30</c:f>
+              <c:f>'words vs words (ada-002)'!$E$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1655,9 +1699,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (ada-002)'!$A$31:$A$37</c:f>
+              <c:f>'words vs words (ada-002)'!$A$30:$A$35</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>framework</c:v>
                 </c:pt>
@@ -1675,19 +1719,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>regulation</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>resource</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (ada-002)'!$E$31:$E$37</c:f>
+              <c:f>'words vs words (ada-002)'!$E$30:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.78113449944712199</c:v>
                 </c:pt>
@@ -1705,9 +1746,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.79165842626495997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.79244861613616702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1723,11 +1761,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words (ada-002)'!$F$30</c:f>
+              <c:f>'words vs words (ada-002)'!$F$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>legal and environmental</c:v>
+                  <c:v>legal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1744,9 +1782,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (ada-002)'!$A$31:$A$37</c:f>
+              <c:f>'words vs words (ada-002)'!$A$30:$A$35</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>framework</c:v>
                 </c:pt>
@@ -1764,39 +1802,33 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>regulation</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>resource</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (ada-002)'!$F$31:$F$37</c:f>
+              <c:f>'words vs words (ada-002)'!$F$30:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.76500689257605203</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.80167154583588496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75646025628907598</c:v>
+                  <c:v>0.79696335448045297</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76900269138154898</c:v>
+                  <c:v>0.80957974869237503</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.775177443366591</c:v>
+                  <c:v>0.81934428580038499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79583701814617702</c:v>
+                  <c:v>0.81157615962535601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.79282032234885402</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.79664321150441297</c:v>
+                  <c:v>0.81222995723337299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1804,6 +1836,89 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-D0A0-49B3-9604-29E04BF016DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'words vs words (ada-002)'!$G$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>environmental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'words vs words (ada-002)'!$A$30:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>framework</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shift</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pressure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>access</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>impact</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>regulation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'words vs words (ada-002)'!$G$30:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.78616710770737597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77038620027323701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79358733750184696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78564774922612501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81837948751365597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80285795521052095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B777-4945-8D84-D0DBF7969743}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2044,13 +2159,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>PESTLE vs</a:t>
+              <a:t>PESTLE vs PDFs (ada-002)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> PDFs</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2116,9 +2226,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs pdfs (ada-002)'!$A$2:$A$11</c:f>
+              <c:f>'words vs pdfs (ada-002)'!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Algorithmic Bias and Legal Precedent</c:v>
                 </c:pt>
@@ -2133,67 +2243,37 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>The Economic Ramifications of Green Energy Transition</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>The Evolving Landscape of Political Dynamics</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>The Evolving Landscape of Technological Disruption</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>The Political Economy of Global Pandemics</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>The triad of sustainability _ Economic, Legal, and Environmental Intersections</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>The Whispering Algorithm - A Chronicle of Digital Erosion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs pdfs (ada-002)'!$B$2:$B$11</c:f>
+              <c:f>'words vs pdfs (ada-002)'!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.75709135100000002</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.75709135082135204</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77933928100000005</c:v>
+                  <c:v>0.77933928085662496</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74887080800000005</c:v>
+                  <c:v>0.74887080761547298</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82506778599999997</c:v>
+                  <c:v>0.82506778584725704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.74986775500000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.84447304899999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.76490680300000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.78077989000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.78216667299999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.77471580200000001</c:v>
+                  <c:v>0.74986775525701199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-43E7-451E-A15E-45FFA1159B3F}"/>
+              <c16:uniqueId val="{00000000-5062-43E3-B8D3-BB5AC1CD4ECA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2223,9 +2303,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs pdfs (ada-002)'!$A$2:$A$11</c:f>
+              <c:f>'words vs pdfs (ada-002)'!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Algorithmic Bias and Legal Precedent</c:v>
                 </c:pt>
@@ -2240,67 +2320,37 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>The Economic Ramifications of Green Energy Transition</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>The Evolving Landscape of Political Dynamics</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>The Evolving Landscape of Technological Disruption</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>The Political Economy of Global Pandemics</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>The triad of sustainability _ Economic, Legal, and Environmental Intersections</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>The Whispering Algorithm - A Chronicle of Digital Erosion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs pdfs (ada-002)'!$C$2:$C$11</c:f>
+              <c:f>'words vs pdfs (ada-002)'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.76202167399999998</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.76202167364025497</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.824879747</c:v>
+                  <c:v>0.82487974688169297</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76606669000000005</c:v>
+                  <c:v>0.76606668952109602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79679195300000005</c:v>
+                  <c:v>0.79679195275949699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80415968199999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.80168602</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.78929056099999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.79256126199999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.83317795100000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.78037135300000005</c:v>
+                  <c:v>0.80415968188614695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-43E7-451E-A15E-45FFA1159B3F}"/>
+              <c16:uniqueId val="{00000001-5062-43E3-B8D3-BB5AC1CD4ECA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2330,9 +2380,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs pdfs (ada-002)'!$A$2:$A$11</c:f>
+              <c:f>'words vs pdfs (ada-002)'!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Algorithmic Bias and Legal Precedent</c:v>
                 </c:pt>
@@ -2347,67 +2397,37 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>The Economic Ramifications of Green Energy Transition</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>The Evolving Landscape of Political Dynamics</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>The Evolving Landscape of Technological Disruption</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>The Political Economy of Global Pandemics</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>The triad of sustainability _ Economic, Legal, and Environmental Intersections</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>The Whispering Algorithm - A Chronicle of Digital Erosion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs pdfs (ada-002)'!$D$2:$D$11</c:f>
+              <c:f>'words vs pdfs (ada-002)'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.77439969200000003</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.77439969158397504</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78526357000000002</c:v>
+                  <c:v>0.785263569542613</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77825817900000005</c:v>
+                  <c:v>0.77825817890420201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80092515900000005</c:v>
+                  <c:v>0.80092515937883202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.753478757</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.79865865000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.79601288299999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.760318881</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.79519129300000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.78832045900000003</c:v>
+                  <c:v>0.753478756805113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-43E7-451E-A15E-45FFA1159B3F}"/>
+              <c16:uniqueId val="{00000002-5062-43E3-B8D3-BB5AC1CD4ECA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2437,9 +2457,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs pdfs (ada-002)'!$A$2:$A$11</c:f>
+              <c:f>'words vs pdfs (ada-002)'!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Algorithmic Bias and Legal Precedent</c:v>
                 </c:pt>
@@ -2454,67 +2474,37 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>The Economic Ramifications of Green Energy Transition</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>The Evolving Landscape of Political Dynamics</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>The Evolving Landscape of Technological Disruption</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>The Political Economy of Global Pandemics</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>The triad of sustainability _ Economic, Legal, and Environmental Intersections</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>The Whispering Algorithm - A Chronicle of Digital Erosion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs pdfs (ada-002)'!$E$2:$E$11</c:f>
+              <c:f>'words vs pdfs (ada-002)'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.77809515900000004</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.77809515876944402</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77308239599999995</c:v>
+                  <c:v>0.77308239582075999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.763094257</c:v>
+                  <c:v>0.76309425665963104</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82573065499999998</c:v>
+                  <c:v>0.82573065495818398</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76411085099999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.77113477799999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.84672604900000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.72701813299999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.77523363899999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.79093616700000002</c:v>
+                  <c:v>0.76411085098758902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-43E7-451E-A15E-45FFA1159B3F}"/>
+              <c16:uniqueId val="{00000003-5062-43E3-B8D3-BB5AC1CD4ECA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2527,7 +2517,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>legal and environmental</c:v>
+                  <c:v>legal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2544,9 +2534,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs pdfs (ada-002)'!$A$2:$A$11</c:f>
+              <c:f>'words vs pdfs (ada-002)'!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Algorithmic Bias and Legal Precedent</c:v>
                 </c:pt>
@@ -2561,67 +2551,114 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>The Economic Ramifications of Green Energy Transition</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>The Evolving Landscape of Political Dynamics</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>The Evolving Landscape of Technological Disruption</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>The Political Economy of Global Pandemics</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>The triad of sustainability _ Economic, Legal, and Environmental Intersections</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>The Whispering Algorithm - A Chronicle of Digital Erosion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs pdfs (ada-002)'!$F$2:$F$11</c:f>
+              <c:f>'words vs pdfs (ada-002)'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.79952548300000004</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.77274098033428396</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84213095100000002</c:v>
+                  <c:v>0.75036502204389799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.732672447</c:v>
+                  <c:v>0.71583372616004504</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79118565799999996</c:v>
+                  <c:v>0.76267410992048901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78779729499999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.78145783400000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.75979058099999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.74371380899999995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.86192044400000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.74604624399999997</c:v>
+                  <c:v>0.71974690907432304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-43E7-451E-A15E-45FFA1159B3F}"/>
+              <c16:uniqueId val="{00000004-5062-43E3-B8D3-BB5AC1CD4ECA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'words vs pdfs (ada-002)'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>environmental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'words vs pdfs (ada-002)'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Algorithmic Bias and Legal Precedent</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Environmental Regulations and Economic Competitiveness</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Social Stratification in the Age of Digital Information</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The Converging Realms of Politics and Technology</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>The Economic Ramifications of Green Energy Transition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'words vs pdfs (ada-002)'!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.755900092216646</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83851884346150396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73975608023770401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78346916351301998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79099389261858599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5062-43E3-B8D3-BB5AC1CD4ECA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2634,11 +2671,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="2089557728"/>
-        <c:axId val="2089566848"/>
+        <c:axId val="1723371552"/>
+        <c:axId val="1723353792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2089557728"/>
+        <c:axId val="1723371552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2681,7 +2718,7 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2089566848"/>
+        <c:crossAx val="1723353792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2689,9 +2726,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2089566848"/>
+        <c:axId val="1723353792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.84000000000000008"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2740,7 +2778,7 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2089557728"/>
+        <c:crossAx val="1723371552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3673,7 +3711,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-CA"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5267,7 +5305,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>PESTLE vs word list 2</a:t>
+              <a:t>PESTLE vs word list 2 (small-3)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5334,9 +5372,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$21:$A$27</c:f>
+              <c:f>'words vs words (3-small)'!$A$21:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>framework</c:v>
                 </c:pt>
@@ -5354,39 +5392,33 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>regulation</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>resource</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$B$21:$B$27</c:f>
+              <c:f>'words vs words (3-small)'!$B$21:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.34458288087322603</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.34468539924810199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34108967655508199</c:v>
+                  <c:v>0.34105290878137801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40717315147696598</c:v>
+                  <c:v>0.40723198971739299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.271499973959276</c:v>
+                  <c:v>0.27148462680298402</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.388115298515467</c:v>
+                  <c:v>0.38817657693851498</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31994381612212502</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.35029725626645403</c:v>
+                  <c:v>0.32001130466665201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5423,9 +5455,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$21:$A$27</c:f>
+              <c:f>'words vs words (3-small)'!$A$21:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>framework</c:v>
                 </c:pt>
@@ -5443,39 +5475,33 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>regulation</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>resource</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$C$21:$C$27</c:f>
+              <c:f>'words vs words (3-small)'!$C$21:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.33805585993835202</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.33816511431690599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.267600108975451</c:v>
+                  <c:v>0.26741089309209598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.346363028780727</c:v>
+                  <c:v>0.34638403856303301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32388287732797999</c:v>
+                  <c:v>0.32391023074272901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.378918471750191</c:v>
+                  <c:v>0.37899641998323202</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29153885453815598</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.42111548758949502</c:v>
+                  <c:v>0.29153690768142798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5512,9 +5538,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$21:$A$27</c:f>
+              <c:f>'words vs words (3-small)'!$A$21:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>framework</c:v>
                 </c:pt>
@@ -5532,39 +5558,33 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>regulation</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>resource</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$D$21:$D$27</c:f>
+              <c:f>'words vs words (3-small)'!$D$21:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.228625579567757</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.22872785405784901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25539080891425298</c:v>
+                  <c:v>0.25527028797747398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25296467211705298</c:v>
+                  <c:v>0.25292503628881602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20220895633220201</c:v>
+                  <c:v>0.20224431508610799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.274714567050095</c:v>
+                  <c:v>0.27473369741699399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.234694491559817</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.22696416100501199</c:v>
+                  <c:v>0.23470285265818699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5601,9 +5621,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$21:$A$27</c:f>
+              <c:f>'words vs words (3-small)'!$A$21:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>framework</c:v>
                 </c:pt>
@@ -5621,39 +5641,33 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>regulation</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>resource</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$E$21:$E$27</c:f>
+              <c:f>'words vs words (3-small)'!$E$21:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.28736399657823197</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.28743734591749598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29026564051237302</c:v>
+                  <c:v>0.29023641488413998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31963142668407402</c:v>
+                  <c:v>0.31962759287943598</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24737225675293001</c:v>
+                  <c:v>0.247391618462761</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.290931169706102</c:v>
+                  <c:v>0.29090411747751299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23014056258020801</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.26499146447467897</c:v>
+                  <c:v>0.23015936577718099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5673,7 +5687,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>legal and environmental</c:v>
+                  <c:v>legal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5690,9 +5704,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$21:$A$27</c:f>
+              <c:f>'words vs words (3-small)'!$A$21:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>framework</c:v>
                 </c:pt>
@@ -5710,39 +5724,33 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>regulation</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>resource</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$F$21:$F$27</c:f>
+              <c:f>'words vs words (3-small)'!$F$21:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.26457763802078998</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.357351756516888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.142032112126254</c:v>
+                  <c:v>0.222913413988239</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23838100184379199</c:v>
+                  <c:v>0.28224617470305802</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25361681854115697</c:v>
+                  <c:v>0.367773103678041</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23360340294343299</c:v>
+                  <c:v>0.20842223220093301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30375687887658698</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.25892896008233302</c:v>
+                  <c:v>0.37102480442409902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5750,6 +5758,89 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-68CC-498F-8FD2-F210E53FF20F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'words vs words (3-small)'!$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>environmental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'words vs words (3-small)'!$A$21:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>framework</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shift</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pressure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>access</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>impact</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>regulation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'words vs words (3-small)'!$G$21:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.361879444053197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23181266624250399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34098216542160398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27988656761356701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35719110508929403</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.314021178038078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7EEE-4CF2-8C65-0C36A2C7C154}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6766,7 +6857,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>PESTLE vs PDFs</a:t>
+              <a:t>PESTLE vs PDFs (3-small)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6833,9 +6924,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs pdfs (3-small)'!$A$3:$A$12</c:f>
+              <c:f>'words vs pdfs (3-small)'!$A$3:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Algorithmic Bias and Legal Precedent</c:v>
                 </c:pt>
@@ -6850,60 +6941,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>The Economic Ramifications of Green Energy Transition</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>The Evolving Landscape of Political Dynamics</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>The Evolving Landscape of Technological Disruption</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>The Political Economy of Global Pandemics</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>The triad of sustainability _ Economic, Legal, and Environmental Intersections</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>The Whispering Algorithm - A Chronicle of Digital Erosion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs pdfs (3-small)'!$B$3:$B$12</c:f>
+              <c:f>'words vs pdfs (3-small)'!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.195220163883527</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.19532350013434699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.260452319773741</c:v>
+                  <c:v>0.26061072862368101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.219850706995771</c:v>
+                  <c:v>0.21991795450795401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34576890967023199</c:v>
+                  <c:v>0.34584576200154499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16986810483255901</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.38273015743255001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.21148140721143299</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.29433991806582399</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.21886589839037099</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.18417302298867699</c:v>
+                  <c:v>0.17002033691958099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6940,9 +7001,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs pdfs (3-small)'!$A$3:$A$12</c:f>
+              <c:f>'words vs pdfs (3-small)'!$A$3:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Algorithmic Bias and Legal Precedent</c:v>
                 </c:pt>
@@ -6957,60 +7018,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>The Economic Ramifications of Green Energy Transition</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>The Evolving Landscape of Political Dynamics</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>The Evolving Landscape of Technological Disruption</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>The Political Economy of Global Pandemics</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>The triad of sustainability _ Economic, Legal, and Environmental Intersections</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>The Whispering Algorithm - A Chronicle of Digital Erosion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs pdfs (3-small)'!$C$3:$C$12</c:f>
+              <c:f>'words vs pdfs (3-small)'!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.18304307274424</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.18308496208480701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36255871005409501</c:v>
+                  <c:v>0.36260578924605402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18218269135274501</c:v>
+                  <c:v>0.182211125173764</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21432177729509799</c:v>
+                  <c:v>0.21418572176513201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32469172714040601</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.21596714667749201</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19461648866992801</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.32066480859424201</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.36089102901814801</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.16311889599170001</c:v>
+                  <c:v>0.32470575918746902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7047,9 +7078,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs pdfs (3-small)'!$A$3:$A$12</c:f>
+              <c:f>'words vs pdfs (3-small)'!$A$3:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Algorithmic Bias and Legal Precedent</c:v>
                 </c:pt>
@@ -7064,60 +7095,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>The Economic Ramifications of Green Energy Transition</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>The Evolving Landscape of Political Dynamics</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>The Evolving Landscape of Technological Disruption</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>The Political Economy of Global Pandemics</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>The triad of sustainability _ Economic, Legal, and Environmental Intersections</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>The Whispering Algorithm - A Chronicle of Digital Erosion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs pdfs (3-small)'!$D$3:$D$12</c:f>
+              <c:f>'words vs pdfs (3-small)'!$D$3:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.176872433690106</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.17697591519700701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21287877176230499</c:v>
+                  <c:v>0.21294245585341301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26391352074795099</c:v>
+                  <c:v>0.26394105320864503</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.248834240927848</c:v>
+                  <c:v>0.24872170027724899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.120218250445965</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.26079957222436501</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.26347394564147297</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.20343874427288799</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.22676959546702299</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.18126827486014399</c:v>
+                  <c:v>0.120308626547432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7154,9 +7155,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs pdfs (3-small)'!$A$3:$A$12</c:f>
+              <c:f>'words vs pdfs (3-small)'!$A$3:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Algorithmic Bias and Legal Precedent</c:v>
                 </c:pt>
@@ -7171,60 +7172,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>The Economic Ramifications of Green Energy Transition</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>The Evolving Landscape of Political Dynamics</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>The Evolving Landscape of Technological Disruption</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>The Political Economy of Global Pandemics</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>The triad of sustainability _ Economic, Legal, and Environmental Intersections</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>The Whispering Algorithm - A Chronicle of Digital Erosion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs pdfs (3-small)'!$E$3:$E$12</c:f>
+              <c:f>'words vs pdfs (3-small)'!$E$3:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.23739846365204301</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.23746132840106801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.201074876051832</c:v>
+                  <c:v>0.20105841326148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25054191230347</c:v>
+                  <c:v>0.25058748988173501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40600734280891698</c:v>
+                  <c:v>0.40591626657972002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.188388586677809</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.20518153182259499</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.44744827226989098</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.137873218345792</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.18386668770408601</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.22311484203800799</c:v>
+                  <c:v>0.188381618241203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7244,7 +7215,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>legal and environmental</c:v>
+                  <c:v>legal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7261,9 +7232,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs pdfs (3-small)'!$A$3:$A$12</c:f>
+              <c:f>'words vs pdfs (3-small)'!$A$3:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Algorithmic Bias and Legal Precedent</c:v>
                 </c:pt>
@@ -7278,60 +7249,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>The Economic Ramifications of Green Energy Transition</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>The Evolving Landscape of Political Dynamics</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>The Evolving Landscape of Technological Disruption</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>The Political Economy of Global Pandemics</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>The triad of sustainability _ Economic, Legal, and Environmental Intersections</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>The Whispering Algorithm - A Chronicle of Digital Erosion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs pdfs (3-small)'!$F$3:$F$12</c:f>
+              <c:f>'words vs pdfs (3-small)'!$F$3:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.36487990856656799</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.32741605974812199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53177066508869197</c:v>
+                  <c:v>0.25308598656056602</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22883200663657399</c:v>
+                  <c:v>0.15515862574368</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31906731579334402</c:v>
+                  <c:v>0.26570826446360102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36856482437646898</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.28008797253928702</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.24916823727548201</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.26515398033902698</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.57776943905362999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.115989229305744</c:v>
+                  <c:v>0.120233602873387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7339,6 +7280,83 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-C0BB-481F-A241-BE6DCED083A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'words vs pdfs (3-small)'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>environmental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'words vs pdfs (3-small)'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Algorithmic Bias and Legal Precedent</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Environmental Regulations and Economic Competitiveness</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Social Stratification in the Age of Digital Information</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The Converging Realms of Politics and Technology</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>The Economic Ramifications of Green Energy Transition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'words vs pdfs (3-small)'!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.16406104788103301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43118463408506202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16765669707009401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.221126673512547</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.269736634445506</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C7AA-4A53-B00B-AA6BE9A97006}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10041,7 +10059,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-CA"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10791,7 +10809,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> list 1</a:t>
+              <a:t> list 1 (ada-002)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10858,65 +10876,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (ada-002)'!$A$20:$A$27</c:f>
+              <c:f>'words vs words (ada-002)'!$A$20:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>trends</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>policy</c:v>
+                  <c:v>spending</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>spending</c:v>
+                  <c:v>trade tariffs</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>trade tariffs</c:v>
+                  <c:v>renewable energy</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>renewable energy</c:v>
+                  <c:v>intellectual property</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>intellectual property</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>cultural values</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>tech infrastructure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (ada-002)'!$B$20:$B$27</c:f>
+              <c:f>'words vs words (ada-002)'!$B$20:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.79725645212085305</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90988295793351304</c:v>
+                  <c:v>0.80574608567980899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80574608567980899</c:v>
+                  <c:v>0.80679219793801105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80679219793801105</c:v>
+                  <c:v>0.78192678856048703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78192678856048703</c:v>
+                  <c:v>0.79849199365861201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.79849199365861201</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.77180457583749296</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.78166536196522196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10953,65 +10959,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (ada-002)'!$A$20:$A$27</c:f>
+              <c:f>'words vs words (ada-002)'!$A$20:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>trends</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>policy</c:v>
+                  <c:v>spending</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>spending</c:v>
+                  <c:v>trade tariffs</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>trade tariffs</c:v>
+                  <c:v>renewable energy</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>renewable energy</c:v>
+                  <c:v>intellectual property</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>intellectual property</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>cultural values</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>tech infrastructure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (ada-002)'!$C$20:$C$27</c:f>
+              <c:f>'words vs words (ada-002)'!$C$20:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.80712554123968505</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86481568725892899</c:v>
+                  <c:v>0.83261079334192201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83261079334192201</c:v>
+                  <c:v>0.82736050534720396</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82736050534720396</c:v>
+                  <c:v>0.81246154701348094</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81246154701348094</c:v>
+                  <c:v>0.80561319121513897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80561319121513897</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.784436894018255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.78496441451548205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11048,65 +11042,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (ada-002)'!$A$20:$A$27</c:f>
+              <c:f>'words vs words (ada-002)'!$A$20:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>trends</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>policy</c:v>
+                  <c:v>spending</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>spending</c:v>
+                  <c:v>trade tariffs</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>trade tariffs</c:v>
+                  <c:v>renewable energy</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>renewable energy</c:v>
+                  <c:v>intellectual property</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>intellectual property</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>cultural values</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>tech infrastructure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (ada-002)'!$D$20:$D$27</c:f>
+              <c:f>'words vs words (ada-002)'!$D$20:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.80269292799218595</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79512946207730995</c:v>
+                  <c:v>0.77650584839271197</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77650584839271197</c:v>
+                  <c:v>0.76150034168244096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76150034168244096</c:v>
+                  <c:v>0.76004442768070801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76004442768070801</c:v>
+                  <c:v>0.78214542174883295</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78214542174883295</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.82442826823453197</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.764903148428147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11143,65 +11125,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (ada-002)'!$A$20:$A$27</c:f>
+              <c:f>'words vs words (ada-002)'!$A$20:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>trends</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>policy</c:v>
+                  <c:v>spending</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>spending</c:v>
+                  <c:v>trade tariffs</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>trade tariffs</c:v>
+                  <c:v>renewable energy</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>renewable energy</c:v>
+                  <c:v>intellectual property</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>intellectual property</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>cultural values</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>tech infrastructure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (ada-002)'!$E$20:$E$27</c:f>
+              <c:f>'words vs words (ada-002)'!$E$20:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.79936551457640503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78091466798140696</c:v>
+                  <c:v>0.77836739787240605</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77836739787240605</c:v>
+                  <c:v>0.77144943634889296</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77144943634889296</c:v>
+                  <c:v>0.80162790250112104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80162790250112104</c:v>
+                  <c:v>0.80832745340906598</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80832745340906598</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.78494624629924603</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.842959888825627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11221,7 +11191,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>legal and environmental</c:v>
+                  <c:v>legal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11238,65 +11208,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (ada-002)'!$A$20:$A$27</c:f>
+              <c:f>'words vs words (ada-002)'!$A$20:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>trends</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>policy</c:v>
+                  <c:v>spending</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>spending</c:v>
+                  <c:v>trade tariffs</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>trade tariffs</c:v>
+                  <c:v>renewable energy</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>renewable energy</c:v>
+                  <c:v>intellectual property</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>intellectual property</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>cultural values</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>tech infrastructure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (ada-002)'!$F$20:$F$27</c:f>
+              <c:f>'words vs words (ada-002)'!$F$20:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.76552880893853104</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.76966870898278195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79094140835767501</c:v>
+                  <c:v>0.76015011710495295</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74956404758308803</c:v>
+                  <c:v>0.77994457734582501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77604492281341297</c:v>
+                  <c:v>0.76627623442627701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80031699745672402</c:v>
+                  <c:v>0.80843750532963299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80820323922523296</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.76678109314323695</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.77659950815909695</c:v>
+                  <c:v>0.74437303087763196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11304,6 +11262,89 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-29BA-49CC-99F7-FB9C6747B02C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'words vs words (ada-002)'!$G$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>environmental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'words vs words (ada-002)'!$A$20:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>trends</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>spending</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>trade tariffs</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>renewable energy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>intellectual property</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>cultural values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'words vs words (ada-002)'!$G$20:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.79036268795095399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78721339077074504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78060955293474199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81911122420501903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78457274454703796</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78553339918352205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B185-4B31-BBF5-4EEB183F05F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -19143,16 +19184,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>265793</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>529030</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>625929</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>227958</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:rowOff>107587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19179,16 +19220,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>204640</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>497587</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>178390</xdr:rowOff>
+      <xdr:rowOff>15588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>424004</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>150681</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95770</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19216,15 +19257,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>172357</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>175078</xdr:rowOff>
+      <xdr:colOff>124732</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>159203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>172356</xdr:rowOff>
+      <xdr:colOff>61232</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>156481</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19256,16 +19297,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63752</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>21109</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>39441</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>640987</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>87087</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>356689</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>122283</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19447,15 +19488,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>433294</xdr:colOff>
+      <xdr:colOff>439644</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>14941</xdr:rowOff>
+      <xdr:rowOff>21291</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>14941</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>119529</xdr:rowOff>
+      <xdr:colOff>21291</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19483,15 +19524,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>141194</xdr:rowOff>
+      <xdr:colOff>412674</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>41313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>70970</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>15689</xdr:rowOff>
+      <xdr:colOff>314286</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>98911</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19523,23 +19564,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>516890</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>21590</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>477594</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5153</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>128045</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F51D716-F785-2FDE-1DF6-C44817FE87C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69285404-6C05-B2A7-7BA7-2940CA38E178}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19992,8 +20033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AA2988-5AAB-4458-847B-F75AA408FACB}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -20004,17 +20045,17 @@
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+    <row r="1" spans="1:7">
+      <c r="A1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -20028,12 +20069,15 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>93</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0.35357917603761901</v>
@@ -20048,12 +20092,15 @@
         <v>0.38502513926780702</v>
       </c>
       <c r="F3">
-        <v>0.216230209214088</v>
+        <v>0.21774503125623901</v>
+      </c>
+      <c r="G3">
+        <v>0.300567374330591</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0.56120943234938203</v>
@@ -20068,12 +20115,15 @@
         <v>0.28529207685146601</v>
       </c>
       <c r="F4">
-        <v>0.37207851550586502</v>
+        <v>0.533554787564963</v>
+      </c>
+      <c r="G4">
+        <v>0.347330687403196</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0.34720107847301002</v>
@@ -20088,12 +20138,15 @@
         <v>0.21542177382073199</v>
       </c>
       <c r="F5">
-        <v>0.21062423655711501</v>
+        <v>0.24931420147644701</v>
+      </c>
+      <c r="G5">
+        <v>0.306326269415646</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0.27124844476157201</v>
@@ -20108,12 +20161,15 @@
         <v>0.237368171461112</v>
       </c>
       <c r="F6">
-        <v>0.234894931628611</v>
+        <v>0.224187535114899</v>
+      </c>
+      <c r="G6">
+        <v>0.175654208294037</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0.22714961371607501</v>
@@ -20128,12 +20184,15 @@
         <v>0.28417435670490199</v>
       </c>
       <c r="F7">
-        <v>0.26536636466733199</v>
+        <v>0.1235979706001</v>
+      </c>
+      <c r="G7">
+        <v>0.33956568911682</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0.35658725609020703</v>
@@ -20148,12 +20207,15 @@
         <v>0.35120772020741498</v>
       </c>
       <c r="F8">
-        <v>0.38223436077380601</v>
+        <v>0.34047408104798299</v>
+      </c>
+      <c r="G8">
+        <v>0.255053837230312</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0.32879258611676099</v>
@@ -20168,40 +20230,23 @@
         <v>0.20886437523997101</v>
       </c>
       <c r="F9">
-        <v>0.253204395889019</v>
+        <v>0.21574597067858001</v>
+      </c>
+      <c r="G9">
+        <v>0.30092749659807799</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10">
-        <v>0.29647760554548502</v>
-      </c>
-      <c r="C10">
-        <v>0.30594573240900802</v>
-      </c>
-      <c r="D10">
-        <v>0.201229174121237</v>
-      </c>
-      <c r="E10">
-        <v>0.53841817176550799</v>
-      </c>
-      <c r="F10">
-        <v>0.31686690452302801</v>
-      </c>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -20215,199 +20260,223 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>4</v>
+        <v>93</v>
+      </c>
+      <c r="G20" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>0.34468539924810199</v>
+      </c>
+      <c r="C21">
+        <v>0.33816511431690599</v>
+      </c>
+      <c r="D21">
+        <v>0.22872785405784901</v>
+      </c>
+      <c r="E21">
+        <v>0.28743734591749598</v>
+      </c>
+      <c r="F21">
+        <v>0.357351756516888</v>
+      </c>
+      <c r="G21">
+        <v>0.361879444053197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
         <v>48</v>
       </c>
-      <c r="B21">
-        <v>0.34458288087322603</v>
-      </c>
-      <c r="C21">
-        <v>0.33805585993835202</v>
-      </c>
-      <c r="D21">
-        <v>0.228625579567757</v>
-      </c>
-      <c r="E21">
-        <v>0.28736399657823197</v>
-      </c>
-      <c r="F21">
-        <v>0.26457763802078998</v>
+      <c r="B22">
+        <v>0.34105290878137801</v>
+      </c>
+      <c r="C22">
+        <v>0.26741089309209598</v>
+      </c>
+      <c r="D22">
+        <v>0.25527028797747398</v>
+      </c>
+      <c r="E22">
+        <v>0.29023641488413998</v>
+      </c>
+      <c r="F22">
+        <v>0.222913413988239</v>
+      </c>
+      <c r="G22">
+        <v>0.23181266624250399</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
         <v>49</v>
       </c>
-      <c r="B22">
-        <v>0.34108967655508199</v>
-      </c>
-      <c r="C22">
-        <v>0.267600108975451</v>
-      </c>
-      <c r="D22">
-        <v>0.25539080891425298</v>
-      </c>
-      <c r="E22">
-        <v>0.29026564051237302</v>
-      </c>
-      <c r="F22">
-        <v>0.142032112126254</v>
+      <c r="B23">
+        <v>0.40723198971739299</v>
+      </c>
+      <c r="C23">
+        <v>0.34638403856303301</v>
+      </c>
+      <c r="D23">
+        <v>0.25292503628881602</v>
+      </c>
+      <c r="E23">
+        <v>0.31962759287943598</v>
+      </c>
+      <c r="F23">
+        <v>0.28224617470305802</v>
+      </c>
+      <c r="G23">
+        <v>0.34098216542160398</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
         <v>50</v>
       </c>
-      <c r="B23">
-        <v>0.40717315147696598</v>
-      </c>
-      <c r="C23">
-        <v>0.346363028780727</v>
-      </c>
-      <c r="D23">
-        <v>0.25296467211705298</v>
-      </c>
-      <c r="E23">
-        <v>0.31963142668407402</v>
-      </c>
-      <c r="F23">
-        <v>0.23838100184379199</v>
+      <c r="B24">
+        <v>0.27148462680298402</v>
+      </c>
+      <c r="C24">
+        <v>0.32391023074272901</v>
+      </c>
+      <c r="D24">
+        <v>0.20224431508610799</v>
+      </c>
+      <c r="E24">
+        <v>0.247391618462761</v>
+      </c>
+      <c r="F24">
+        <v>0.367773103678041</v>
+      </c>
+      <c r="G24">
+        <v>0.27988656761356701</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>51</v>
       </c>
-      <c r="B24">
-        <v>0.271499973959276</v>
-      </c>
-      <c r="C24">
-        <v>0.32388287732797999</v>
-      </c>
-      <c r="D24">
-        <v>0.20220895633220201</v>
-      </c>
-      <c r="E24">
-        <v>0.24737225675293001</v>
-      </c>
-      <c r="F24">
-        <v>0.25361681854115697</v>
+      <c r="B25">
+        <v>0.38817657693851498</v>
+      </c>
+      <c r="C25">
+        <v>0.37899641998323202</v>
+      </c>
+      <c r="D25">
+        <v>0.27473369741699399</v>
+      </c>
+      <c r="E25">
+        <v>0.29090411747751299</v>
+      </c>
+      <c r="F25">
+        <v>0.20842223220093301</v>
+      </c>
+      <c r="G25">
+        <v>0.35719110508929403</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>0.32001130466665201</v>
+      </c>
+      <c r="C26">
+        <v>0.29153690768142798</v>
+      </c>
+      <c r="D26">
+        <v>0.23470285265818699</v>
+      </c>
+      <c r="E26">
+        <v>0.23015936577718099</v>
+      </c>
+      <c r="F26">
+        <v>0.37102480442409902</v>
+      </c>
+      <c r="G26">
+        <v>0.314021178038078</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
         <v>52</v>
       </c>
-      <c r="B25">
-        <v>0.388115298515467</v>
-      </c>
-      <c r="C25">
-        <v>0.378918471750191</v>
-      </c>
-      <c r="D25">
-        <v>0.274714567050095</v>
-      </c>
-      <c r="E25">
-        <v>0.290931169706102</v>
-      </c>
-      <c r="F25">
-        <v>0.23360340294343299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26">
-        <v>0.31994381612212502</v>
-      </c>
-      <c r="C26">
-        <v>0.29153885453815598</v>
-      </c>
-      <c r="D26">
-        <v>0.234694491559817</v>
-      </c>
-      <c r="E26">
-        <v>0.23014056258020801</v>
-      </c>
-      <c r="F26">
-        <v>0.30375687887658698</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
       <c r="B27">
-        <v>0.35029725626645403</v>
+        <v>0.35038281471919702</v>
       </c>
       <c r="C27">
-        <v>0.42111548758949502</v>
+        <v>0.42126269092983598</v>
       </c>
       <c r="D27">
-        <v>0.22696416100501199</v>
+        <v>0.227130336974803</v>
       </c>
       <c r="E27">
-        <v>0.26499146447467897</v>
+        <v>0.26510556188714901</v>
       </c>
       <c r="F27">
-        <v>0.25892896008233302</v>
+        <v>0.30819492751069399</v>
+      </c>
+      <c r="G27">
+        <v>0.38009059331210499</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
+      <c r="A37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11">
       <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
         <v>55</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>56</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>57</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>58</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>59</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>60</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>61</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>62</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>63</v>
-      </c>
-      <c r="K38" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39">
         <v>0.48632557504159901</v>
@@ -20442,7 +20511,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40">
         <v>0.438552544660398</v>
@@ -20477,7 +20546,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B41">
         <v>0.35504728935131802</v>
@@ -20512,7 +20581,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B42">
         <v>0.36334533383774198</v>
@@ -20547,7 +20616,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B43">
         <v>0.335374243906497</v>
@@ -20582,7 +20651,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B44">
         <v>0.30508797507700902</v>
@@ -20617,7 +20686,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B45">
         <v>0.21841999174225599</v>
@@ -20652,7 +20721,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46">
         <v>0.31649023543798899</v>
@@ -20687,7 +20756,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47">
         <v>0.39734651482857503</v>
@@ -20722,7 +20791,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>0.38782704063191897</v>
@@ -20769,30 +20838,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B395E1AC-FE3E-4EA2-ADDC-088EB33C8183}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="63.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.6640625" customWidth="1"/>
     <col min="4" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+    <row r="1" spans="1:7">
+      <c r="A1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -20806,207 +20875,240 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>93</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>0.19532350013434699</v>
+      </c>
+      <c r="C3">
+        <v>0.18308496208480701</v>
+      </c>
+      <c r="D3">
+        <v>0.17697591519700701</v>
+      </c>
+      <c r="E3">
+        <v>0.23746132840106801</v>
+      </c>
+      <c r="F3">
+        <v>0.32741605974812199</v>
+      </c>
+      <c r="G3">
+        <v>0.16406104788103301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B3">
-        <v>0.195220163883527</v>
-      </c>
-      <c r="C3">
-        <v>0.18304307274424</v>
-      </c>
-      <c r="D3">
-        <v>0.176872433690106</v>
-      </c>
-      <c r="E3">
-        <v>0.23739846365204301</v>
-      </c>
-      <c r="F3">
-        <v>0.36487990856656799</v>
+      <c r="B4">
+        <v>0.26061072862368101</v>
+      </c>
+      <c r="C4">
+        <v>0.36260578924605402</v>
+      </c>
+      <c r="D4">
+        <v>0.21294245585341301</v>
+      </c>
+      <c r="E4">
+        <v>0.20105841326148</v>
+      </c>
+      <c r="F4">
+        <v>0.25308598656056602</v>
+      </c>
+      <c r="G4">
+        <v>0.43118463408506202</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="B4">
-        <v>0.260452319773741</v>
-      </c>
-      <c r="C4">
-        <v>0.36255871005409501</v>
-      </c>
-      <c r="D4">
-        <v>0.21287877176230499</v>
-      </c>
-      <c r="E4">
-        <v>0.201074876051832</v>
-      </c>
-      <c r="F4">
-        <v>0.53177066508869197</v>
+      <c r="B5">
+        <v>0.21991795450795401</v>
+      </c>
+      <c r="C5">
+        <v>0.182211125173764</v>
+      </c>
+      <c r="D5">
+        <v>0.26394105320864503</v>
+      </c>
+      <c r="E5">
+        <v>0.25058748988173501</v>
+      </c>
+      <c r="F5">
+        <v>0.15515862574368</v>
+      </c>
+      <c r="G5">
+        <v>0.16765669707009401</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B5">
-        <v>0.219850706995771</v>
-      </c>
-      <c r="C5">
-        <v>0.18218269135274501</v>
-      </c>
-      <c r="D5">
-        <v>0.26391352074795099</v>
-      </c>
-      <c r="E5">
-        <v>0.25054191230347</v>
-      </c>
-      <c r="F5">
-        <v>0.22883200663657399</v>
+      <c r="B6">
+        <v>0.34584576200154499</v>
+      </c>
+      <c r="C6">
+        <v>0.21418572176513201</v>
+      </c>
+      <c r="D6">
+        <v>0.24872170027724899</v>
+      </c>
+      <c r="E6">
+        <v>0.40591626657972002</v>
+      </c>
+      <c r="F6">
+        <v>0.26570826446360102</v>
+      </c>
+      <c r="G6">
+        <v>0.221126673512547</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B6">
-        <v>0.34576890967023199</v>
-      </c>
-      <c r="C6">
-        <v>0.21432177729509799</v>
-      </c>
-      <c r="D6">
-        <v>0.248834240927848</v>
-      </c>
-      <c r="E6">
-        <v>0.40600734280891698</v>
-      </c>
-      <c r="F6">
-        <v>0.31906731579334402</v>
+      <c r="B7">
+        <v>0.17002033691958099</v>
+      </c>
+      <c r="C7">
+        <v>0.32470575918746902</v>
+      </c>
+      <c r="D7">
+        <v>0.120308626547432</v>
+      </c>
+      <c r="E7">
+        <v>0.188381618241203</v>
+      </c>
+      <c r="F7">
+        <v>0.120233602873387</v>
+      </c>
+      <c r="G7">
+        <v>0.269736634445506</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B7">
-        <v>0.16986810483255901</v>
-      </c>
-      <c r="C7">
-        <v>0.32469172714040601</v>
-      </c>
-      <c r="D7">
-        <v>0.120218250445965</v>
-      </c>
-      <c r="E7">
-        <v>0.188388586677809</v>
-      </c>
-      <c r="F7">
-        <v>0.36856482437646898</v>
+      <c r="B8">
+        <v>0.38280468912031501</v>
+      </c>
+      <c r="C8">
+        <v>0.215939635327832</v>
+      </c>
+      <c r="D8">
+        <v>0.26088348708313602</v>
+      </c>
+      <c r="E8">
+        <v>0.205202557462138</v>
+      </c>
+      <c r="F8">
+        <v>0.18640043782454899</v>
+      </c>
+      <c r="G8">
+        <v>0.22465074694811299</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B8">
-        <v>0.38273015743255001</v>
-      </c>
-      <c r="C8">
-        <v>0.21596714667749201</v>
-      </c>
-      <c r="D8">
-        <v>0.26079957222436501</v>
-      </c>
-      <c r="E8">
-        <v>0.20518153182259499</v>
-      </c>
-      <c r="F8">
-        <v>0.28008797253928702</v>
+      <c r="B9">
+        <v>0.21158565274968799</v>
+      </c>
+      <c r="C9">
+        <v>0.19460171937892001</v>
+      </c>
+      <c r="D9">
+        <v>0.26350908177897298</v>
+      </c>
+      <c r="E9">
+        <v>0.44750144539638298</v>
+      </c>
+      <c r="F9">
+        <v>0.12969132050623</v>
+      </c>
+      <c r="G9">
+        <v>0.19933767893228799</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B9">
-        <v>0.21148140721143299</v>
-      </c>
-      <c r="C9">
-        <v>0.19461648866992801</v>
-      </c>
-      <c r="D9">
-        <v>0.26347394564147297</v>
-      </c>
-      <c r="E9">
-        <v>0.44744827226989098</v>
-      </c>
-      <c r="F9">
-        <v>0.24916823727548201</v>
+      <c r="B10">
+        <v>0.294516040096163</v>
+      </c>
+      <c r="C10">
+        <v>0.32074962354774</v>
+      </c>
+      <c r="D10">
+        <v>0.20347158824609701</v>
+      </c>
+      <c r="E10">
+        <v>0.13794594053790499</v>
+      </c>
+      <c r="F10">
+        <v>0.17886154822685901</v>
+      </c>
+      <c r="G10">
+        <v>0.2049623935597</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="B10">
-        <v>0.29433991806582399</v>
-      </c>
-      <c r="C10">
-        <v>0.32066480859424201</v>
-      </c>
-      <c r="D10">
-        <v>0.20343874427288799</v>
-      </c>
-      <c r="E10">
-        <v>0.137873218345792</v>
-      </c>
-      <c r="F10">
-        <v>0.26515398033902698</v>
+      <c r="B11">
+        <v>0.21904314044703799</v>
+      </c>
+      <c r="C11">
+        <v>0.36090549992355903</v>
+      </c>
+      <c r="D11">
+        <v>0.22684469893921999</v>
+      </c>
+      <c r="E11">
+        <v>0.18385164580699301</v>
+      </c>
+      <c r="F11">
+        <v>0.26866574482019401</v>
+      </c>
+      <c r="G11">
+        <v>0.43019826539041001</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B11">
-        <v>0.21886589839037099</v>
-      </c>
-      <c r="C11">
-        <v>0.36089102901814801</v>
-      </c>
-      <c r="D11">
-        <v>0.22676959546702299</v>
-      </c>
-      <c r="E11">
-        <v>0.18386668770408601</v>
-      </c>
-      <c r="F11">
-        <v>0.57776943905362999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
       <c r="B12">
-        <v>0.18417302298867699</v>
+        <v>0.18427207665961101</v>
       </c>
       <c r="C12">
-        <v>0.16311889599170001</v>
+        <v>0.16300145614462799</v>
       </c>
       <c r="D12">
-        <v>0.18126827486014399</v>
+        <v>0.18143138033554301</v>
       </c>
       <c r="E12">
-        <v>0.22311484203800799</v>
+        <v>0.22320007722051999</v>
       </c>
       <c r="F12">
-        <v>0.115989229305744</v>
+        <v>9.9020572084966493E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.17944123806430801</v>
       </c>
     </row>
   </sheetData>
@@ -21014,6 +21116,7 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -21022,7 +21125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49FE91F-C29C-49F4-8576-5D811DA982A1}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
@@ -21036,39 +21139,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>79</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>80</v>
       </c>
-      <c r="F2" t="s">
-        <v>81</v>
-      </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0.141756272224349</v>
@@ -21091,7 +21194,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>9.2869560597543505E-2</v>
@@ -21114,7 +21217,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>9.0803050159410301E-2</v>
@@ -21137,7 +21240,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0.101121382830671</v>
@@ -21160,7 +21263,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>8.2150347881970495E-2</v>
@@ -21183,7 +21286,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>6.0599442642118702E-2</v>
@@ -21206,7 +21309,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0.18473575197641601</v>
@@ -21229,7 +21332,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>1.5235639820545099E-2</v>
@@ -21252,40 +21355,40 @@
     </row>
     <row r="17" spans="1:7" ht="14.5" thickBot="1"/>
     <row r="18" spans="1:7" ht="14.5" thickBot="1">
-      <c r="A18" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.5" thickBot="1">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="4">
         <v>7.7117000000000005E-2</v>
@@ -21308,7 +21411,7 @@
     </row>
     <row r="21" spans="1:7" ht="14.5" thickBot="1">
       <c r="A21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="4">
         <v>4.5236999999999999E-2</v>
@@ -21331,7 +21434,7 @@
     </row>
     <row r="22" spans="1:7" ht="14.5" thickBot="1">
       <c r="A22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="4">
         <v>0.22106999999999999</v>
@@ -21354,7 +21457,7 @@
     </row>
     <row r="23" spans="1:7" ht="14.5" thickBot="1">
       <c r="A23" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="4">
         <v>5.6405999999999998E-2</v>
@@ -21377,7 +21480,7 @@
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1">
       <c r="A24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="4">
         <v>0.112608</v>
@@ -21400,7 +21503,7 @@
     </row>
     <row r="25" spans="1:7" ht="14.5" thickBot="1">
       <c r="A25" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="4">
         <v>0.207819</v>
@@ -21423,39 +21526,39 @@
     </row>
     <row r="35" spans="1:16" ht="14.5" thickBot="1"/>
     <row r="36" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
-      <c r="A36" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="9"/>
+      <c r="A36" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:16">
       <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
         <v>22</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>23</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>24</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>25</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>26</v>
-      </c>
-      <c r="G37" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B38">
         <v>8.19784372826355E-2</v>
@@ -21478,7 +21581,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39">
         <v>0.117328676489949</v>
@@ -21501,7 +21604,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40">
         <v>7.3982943970032605E-2</v>
@@ -21524,7 +21627,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B41">
         <v>8.4762973995164304E-2</v>
@@ -21547,7 +21650,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B42">
         <v>7.5051965838065504E-2</v>
@@ -21570,7 +21673,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B43">
         <v>0.207970151001547</v>
@@ -21610,10 +21713,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7807ADC6-4E54-4CA3-8A92-E6A4521869DA}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -21621,50 +21724,50 @@
     <col min="1" max="1" width="19.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="11.9140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="A1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
       <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>59</v>
-      </c>
-      <c r="G2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>0.82339587602148601</v>
@@ -21687,7 +21790,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>0.82365331208117898</v>
@@ -21710,7 +21813,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>0.80764662167332002</v>
@@ -21733,7 +21836,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6">
         <v>0.79169769193559103</v>
@@ -21756,7 +21859,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7">
         <v>0.80186954704820901</v>
@@ -21779,7 +21882,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8">
         <v>0.80807881600865294</v>
@@ -21800,7 +21903,7 @@
         <v>0.80145477471876803</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="B19" t="s">
         <v>0</v>
       </c>
@@ -21814,12 +21917,15 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>4</v>
+        <v>93</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <v>0.79725645212085305</v>
@@ -21834,304 +21940,329 @@
         <v>0.79936551457640503</v>
       </c>
       <c r="F20">
-        <v>0.76552880893853104</v>
+        <v>0.76966870898278195</v>
+      </c>
+      <c r="G20">
+        <v>0.79036268795095399</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>41</v>
       </c>
       <c r="B21">
-        <v>0.90988295793351304</v>
+        <v>0.80574608567980899</v>
       </c>
       <c r="C21">
-        <v>0.86481568725892899</v>
+        <v>0.83261079334192201</v>
       </c>
       <c r="D21">
-        <v>0.79512946207730995</v>
+        <v>0.77650584839271197</v>
       </c>
       <c r="E21">
-        <v>0.78091466798140696</v>
+        <v>0.77836739787240605</v>
       </c>
       <c r="F21">
-        <v>0.79094140835767501</v>
+        <v>0.76015011710495295</v>
+      </c>
+      <c r="G21">
+        <v>0.78721339077074504</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>42</v>
       </c>
       <c r="B22">
-        <v>0.80574608567980899</v>
+        <v>0.80679219793801105</v>
       </c>
       <c r="C22">
-        <v>0.83261079334192201</v>
+        <v>0.82736050534720396</v>
       </c>
       <c r="D22">
-        <v>0.77650584839271197</v>
+        <v>0.76150034168244096</v>
       </c>
       <c r="E22">
-        <v>0.77836739787240605</v>
+        <v>0.77144943634889296</v>
       </c>
       <c r="F22">
-        <v>0.74956404758308803</v>
+        <v>0.77994457734582501</v>
+      </c>
+      <c r="G22">
+        <v>0.78060955293474199</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>43</v>
       </c>
       <c r="B23">
-        <v>0.80679219793801105</v>
+        <v>0.78192678856048703</v>
       </c>
       <c r="C23">
-        <v>0.82736050534720396</v>
+        <v>0.81246154701348094</v>
       </c>
       <c r="D23">
-        <v>0.76150034168244096</v>
+        <v>0.76004442768070801</v>
       </c>
       <c r="E23">
-        <v>0.77144943634889296</v>
+        <v>0.80162790250112104</v>
       </c>
       <c r="F23">
-        <v>0.77604492281341297</v>
+        <v>0.76627623442627701</v>
+      </c>
+      <c r="G23">
+        <v>0.81911122420501903</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>44</v>
       </c>
       <c r="B24">
-        <v>0.78192678856048703</v>
+        <v>0.79849199365861201</v>
       </c>
       <c r="C24">
-        <v>0.81246154701348094</v>
+        <v>0.80561319121513897</v>
       </c>
       <c r="D24">
-        <v>0.76004442768070801</v>
+        <v>0.78214542174883295</v>
       </c>
       <c r="E24">
-        <v>0.80162790250112104</v>
+        <v>0.80832745340906598</v>
       </c>
       <c r="F24">
-        <v>0.80031699745672402</v>
+        <v>0.80843750532963299</v>
+      </c>
+      <c r="G24">
+        <v>0.78457274454703796</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>45</v>
       </c>
       <c r="B25">
-        <v>0.79849199365861201</v>
+        <v>0.77180457583749296</v>
       </c>
       <c r="C25">
-        <v>0.80561319121513897</v>
+        <v>0.784436894018255</v>
       </c>
       <c r="D25">
-        <v>0.78214542174883295</v>
+        <v>0.82442826823453197</v>
       </c>
       <c r="E25">
-        <v>0.80832745340906598</v>
+        <v>0.78494624629924603</v>
       </c>
       <c r="F25">
-        <v>0.80820323922523296</v>
+        <v>0.74437303087763196</v>
+      </c>
+      <c r="G25">
+        <v>0.78553339918352205</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>46</v>
       </c>
       <c r="B26">
-        <v>0.77180457583749296</v>
+        <v>0.78166536196522196</v>
       </c>
       <c r="C26">
-        <v>0.784436894018255</v>
+        <v>0.78496441451548205</v>
       </c>
       <c r="D26">
-        <v>0.82442826823453197</v>
+        <v>0.764903148428147</v>
       </c>
       <c r="E26">
-        <v>0.78494624629924603</v>
+        <v>0.842959888825627</v>
       </c>
       <c r="F26">
-        <v>0.76678109314323695</v>
+        <v>0.75768531712035403</v>
+      </c>
+      <c r="G26">
+        <v>0.77776923243824203</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
+    <row r="29" spans="1:7">
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
         <v>47</v>
       </c>
-      <c r="B27">
-        <v>0.78166536196522196</v>
-      </c>
-      <c r="C27">
-        <v>0.78496441451548205</v>
-      </c>
-      <c r="D27">
-        <v>0.764903148428147</v>
-      </c>
-      <c r="E27">
-        <v>0.842959888825627</v>
-      </c>
-      <c r="F27">
-        <v>0.77659950815909695</v>
+      <c r="B30">
+        <v>0.81614472297669904</v>
+      </c>
+      <c r="C30">
+        <v>0.82394025991460396</v>
+      </c>
+      <c r="D30">
+        <v>0.78238697122134504</v>
+      </c>
+      <c r="E30">
+        <v>0.78113449944712199</v>
+      </c>
+      <c r="F30">
+        <v>0.80167154583588496</v>
+      </c>
+      <c r="G30">
+        <v>0.78616710770737597</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>48</v>
       </c>
       <c r="B31">
-        <v>0.81614472297669904</v>
+        <v>0.80197989046470097</v>
       </c>
       <c r="C31">
-        <v>0.82394025991460396</v>
+        <v>0.80349193032418698</v>
       </c>
       <c r="D31">
-        <v>0.78238697122134504</v>
+        <v>0.77587510132837301</v>
       </c>
       <c r="E31">
-        <v>0.78113449944712199</v>
+        <v>0.78124315909716302</v>
       </c>
       <c r="F31">
-        <v>0.76500689257605203</v>
+        <v>0.79696335448045297</v>
+      </c>
+      <c r="G31">
+        <v>0.77038620027323701</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>49</v>
       </c>
       <c r="B32">
-        <v>0.80197989046470097</v>
+        <v>0.838523912551703</v>
       </c>
       <c r="C32">
-        <v>0.80349193032418698</v>
+        <v>0.83773879393851503</v>
       </c>
       <c r="D32">
-        <v>0.77587510132837301</v>
+        <v>0.78750544620240903</v>
       </c>
       <c r="E32">
-        <v>0.78124315909716302</v>
+        <v>0.78866864448241703</v>
       </c>
       <c r="F32">
-        <v>0.75646025628907598</v>
+        <v>0.80957974869237503</v>
+      </c>
+      <c r="G32">
+        <v>0.79358733750184696</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>50</v>
       </c>
       <c r="B33">
-        <v>0.838523912551703</v>
+        <v>0.79924284916202903</v>
       </c>
       <c r="C33">
-        <v>0.83773879393851503</v>
+        <v>0.82551989020635896</v>
       </c>
       <c r="D33">
-        <v>0.78750544620240903</v>
+        <v>0.77478806148950696</v>
       </c>
       <c r="E33">
-        <v>0.78866864448241703</v>
+        <v>0.77981813220441498</v>
       </c>
       <c r="F33">
-        <v>0.76900269138154898</v>
+        <v>0.81934428580038499</v>
+      </c>
+      <c r="G33">
+        <v>0.78564774922612501</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>51</v>
       </c>
       <c r="B34">
-        <v>0.79924284916202903</v>
+        <v>0.84048348536483597</v>
       </c>
       <c r="C34">
-        <v>0.82551989020635896</v>
+        <v>0.84998905732710905</v>
       </c>
       <c r="D34">
-        <v>0.77478806148950696</v>
+        <v>0.80482638300374998</v>
       </c>
       <c r="E34">
-        <v>0.77981813220441498</v>
+        <v>0.808547360955439</v>
       </c>
       <c r="F34">
-        <v>0.775177443366591</v>
+        <v>0.81157615962535601</v>
+      </c>
+      <c r="G34">
+        <v>0.81837948751365597</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>0.81869816512024995</v>
+      </c>
+      <c r="C35">
+        <v>0.82907045195984097</v>
+      </c>
+      <c r="D35">
+        <v>0.80124776168881795</v>
+      </c>
+      <c r="E35">
+        <v>0.79165842626495997</v>
+      </c>
+      <c r="F35">
+        <v>0.81222995723337299</v>
+      </c>
+      <c r="G35">
+        <v>0.80285795521052095</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
         <v>52</v>
       </c>
-      <c r="B35">
-        <v>0.84048348536483597</v>
-      </c>
-      <c r="C35">
-        <v>0.84998905732710905</v>
-      </c>
-      <c r="D35">
-        <v>0.80482638300374998</v>
-      </c>
-      <c r="E35">
-        <v>0.808547360955439</v>
-      </c>
-      <c r="F35">
-        <v>0.79583701814617702</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
       <c r="B36">
-        <v>0.81869816512024995</v>
+        <v>0.80470999400413701</v>
       </c>
       <c r="C36">
-        <v>0.82907045195984097</v>
+        <v>0.836137300012328</v>
       </c>
       <c r="D36">
-        <v>0.80124776168881795</v>
+        <v>0.77337922222176003</v>
       </c>
       <c r="E36">
-        <v>0.79165842626495997</v>
+        <v>0.79244861613616702</v>
       </c>
       <c r="F36">
-        <v>0.79282032234885402</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37">
-        <v>0.80470999400413701</v>
-      </c>
-      <c r="C37">
-        <v>0.836137300012328</v>
-      </c>
-      <c r="D37">
-        <v>0.77337922222176003</v>
-      </c>
-      <c r="E37">
-        <v>0.79244861613616702</v>
-      </c>
-      <c r="F37">
-        <v>0.79664321150441297</v>
+        <v>0.80767770204373801</v>
+      </c>
+      <c r="G36">
+        <v>0.80770949146692395</v>
       </c>
     </row>
   </sheetData>
@@ -22139,25 +22270,26 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FC4377-C564-4CEE-B9B5-EACA486A658F}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:F11"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="35.08203125" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -22171,211 +22303,245 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>0.75709135082135204</v>
+      </c>
+      <c r="C2">
+        <v>0.76202167364025497</v>
+      </c>
+      <c r="D2">
+        <v>0.77439969158397504</v>
+      </c>
+      <c r="E2">
+        <v>0.77809515876944402</v>
+      </c>
+      <c r="F2">
+        <v>0.77274098033428396</v>
+      </c>
+      <c r="G2">
+        <v>0.755900092216646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B2">
-        <v>0.75709135100000002</v>
-      </c>
-      <c r="C2">
-        <v>0.76202167399999998</v>
-      </c>
-      <c r="D2">
-        <v>0.77439969200000003</v>
-      </c>
-      <c r="E2">
-        <v>0.77809515900000004</v>
-      </c>
-      <c r="F2">
-        <v>0.79952548300000004</v>
+      <c r="B3">
+        <v>0.77933928085662496</v>
+      </c>
+      <c r="C3">
+        <v>0.82487974688169297</v>
+      </c>
+      <c r="D3">
+        <v>0.785263569542613</v>
+      </c>
+      <c r="E3">
+        <v>0.77308239582075999</v>
+      </c>
+      <c r="F3">
+        <v>0.75036502204389799</v>
+      </c>
+      <c r="G3">
+        <v>0.83851884346150396</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B3">
-        <v>0.77933928100000005</v>
-      </c>
-      <c r="C3">
-        <v>0.824879747</v>
-      </c>
-      <c r="D3">
-        <v>0.78526357000000002</v>
-      </c>
-      <c r="E3">
-        <v>0.77308239599999995</v>
-      </c>
-      <c r="F3">
-        <v>0.84213095100000002</v>
+      <c r="B4">
+        <v>0.74887080761547298</v>
+      </c>
+      <c r="C4">
+        <v>0.76606668952109602</v>
+      </c>
+      <c r="D4">
+        <v>0.77825817890420201</v>
+      </c>
+      <c r="E4">
+        <v>0.76309425665963104</v>
+      </c>
+      <c r="F4">
+        <v>0.71583372616004504</v>
+      </c>
+      <c r="G4">
+        <v>0.73975608023770401</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B4">
-        <v>0.74887080800000005</v>
-      </c>
-      <c r="C4">
-        <v>0.76606669000000005</v>
-      </c>
-      <c r="D4">
-        <v>0.77825817900000005</v>
-      </c>
-      <c r="E4">
-        <v>0.763094257</v>
-      </c>
-      <c r="F4">
-        <v>0.732672447</v>
+      <c r="B5">
+        <v>0.82506778584725704</v>
+      </c>
+      <c r="C5">
+        <v>0.79679195275949699</v>
+      </c>
+      <c r="D5">
+        <v>0.80092515937883202</v>
+      </c>
+      <c r="E5">
+        <v>0.82573065495818398</v>
+      </c>
+      <c r="F5">
+        <v>0.76267410992048901</v>
+      </c>
+      <c r="G5">
+        <v>0.78346916351301998</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
-        <v>0.82506778599999997</v>
-      </c>
-      <c r="C5">
-        <v>0.79679195300000005</v>
-      </c>
-      <c r="D5">
-        <v>0.80092515900000005</v>
-      </c>
-      <c r="E5">
-        <v>0.82573065499999998</v>
-      </c>
-      <c r="F5">
-        <v>0.79118565799999996</v>
+      <c r="B6">
+        <v>0.74986775525701199</v>
+      </c>
+      <c r="C6">
+        <v>0.80415968188614695</v>
+      </c>
+      <c r="D6">
+        <v>0.753478756805113</v>
+      </c>
+      <c r="E6">
+        <v>0.76411085098758902</v>
+      </c>
+      <c r="F6">
+        <v>0.71974690907432304</v>
+      </c>
+      <c r="G6">
+        <v>0.79099389261858599</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B6">
-        <v>0.74986775500000002</v>
-      </c>
-      <c r="C6">
-        <v>0.80415968199999999</v>
-      </c>
-      <c r="D6">
-        <v>0.753478757</v>
-      </c>
-      <c r="E6">
-        <v>0.76411085099999998</v>
-      </c>
-      <c r="F6">
-        <v>0.78779729499999995</v>
+      <c r="B7">
+        <v>0.84447304858004202</v>
+      </c>
+      <c r="C7">
+        <v>0.801686019780943</v>
+      </c>
+      <c r="D7">
+        <v>0.79865865012641002</v>
+      </c>
+      <c r="E7">
+        <v>0.77113477820874898</v>
+      </c>
+      <c r="F7">
+        <v>0.743980454369079</v>
+      </c>
+      <c r="G7">
+        <v>0.78278616873950502</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B7">
-        <v>0.84447304899999998</v>
-      </c>
-      <c r="C7">
-        <v>0.80168602</v>
-      </c>
-      <c r="D7">
-        <v>0.79865865000000003</v>
-      </c>
-      <c r="E7">
-        <v>0.77113477799999997</v>
-      </c>
-      <c r="F7">
-        <v>0.78145783400000002</v>
+      <c r="B8">
+        <v>0.76490680341098904</v>
+      </c>
+      <c r="C8">
+        <v>0.78929056064162095</v>
+      </c>
+      <c r="D8">
+        <v>0.79601288311069196</v>
+      </c>
+      <c r="E8">
+        <v>0.84672604869189505</v>
+      </c>
+      <c r="F8">
+        <v>0.72655936456668302</v>
+      </c>
+      <c r="G8">
+        <v>0.76847671332501699</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B8">
-        <v>0.76490680300000002</v>
-      </c>
-      <c r="C8">
-        <v>0.78929056099999995</v>
-      </c>
-      <c r="D8">
-        <v>0.79601288299999995</v>
-      </c>
-      <c r="E8">
-        <v>0.84672604900000004</v>
-      </c>
-      <c r="F8">
-        <v>0.75979058099999996</v>
+      <c r="B9">
+        <v>0.78077988992127101</v>
+      </c>
+      <c r="C9">
+        <v>0.79256126205775201</v>
+      </c>
+      <c r="D9">
+        <v>0.76031888093607503</v>
+      </c>
+      <c r="E9">
+        <v>0.72701813284685401</v>
+      </c>
+      <c r="F9">
+        <v>0.70413420690028194</v>
+      </c>
+      <c r="G9">
+        <v>0.74388667221723304</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="B9">
-        <v>0.78077989000000003</v>
-      </c>
-      <c r="C9">
-        <v>0.79256126199999999</v>
-      </c>
-      <c r="D9">
-        <v>0.760318881</v>
-      </c>
-      <c r="E9">
-        <v>0.72701813299999996</v>
-      </c>
-      <c r="F9">
-        <v>0.74371380899999995</v>
+      <c r="B10">
+        <v>0.78216667349084001</v>
+      </c>
+      <c r="C10">
+        <v>0.83317795143308304</v>
+      </c>
+      <c r="D10">
+        <v>0.79519129292558999</v>
+      </c>
+      <c r="E10">
+        <v>0.77523363885860797</v>
+      </c>
+      <c r="F10">
+        <v>0.77195128345699104</v>
+      </c>
+      <c r="G10">
+        <v>0.84293056687262002</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
-      <c r="B10">
-        <v>0.78216667299999998</v>
-      </c>
-      <c r="C10">
-        <v>0.83317795100000003</v>
-      </c>
-      <c r="D10">
-        <v>0.79519129300000002</v>
-      </c>
-      <c r="E10">
-        <v>0.77523363899999997</v>
-      </c>
-      <c r="F10">
-        <v>0.86192044400000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
       <c r="B11">
-        <v>0.77471580200000001</v>
+        <v>0.77471580234835602</v>
       </c>
       <c r="C11">
-        <v>0.78037135300000005</v>
+        <v>0.78037135341891495</v>
       </c>
       <c r="D11">
-        <v>0.78832045900000003</v>
+        <v>0.78832045893228397</v>
       </c>
       <c r="E11">
-        <v>0.79093616700000002</v>
+        <v>0.790936166939329</v>
       </c>
       <c r="F11">
-        <v>0.74604624399999997</v>
+        <v>0.75770707626854095</v>
+      </c>
+      <c r="G11">
+        <v>0.76937046316360203</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -22384,7 +22550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD2A136-EED6-456E-AC4A-B8351DEBC004}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
@@ -22395,27 +22561,27 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" t="s">
-        <v>81</v>
-      </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0.76720401110470104</v>
@@ -22438,7 +22604,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0.73239255853525098</v>
@@ -22461,7 +22627,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.73501607815153802</v>
@@ -22484,7 +22650,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0.762302226223874</v>
@@ -22507,7 +22673,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0.721667506021612</v>
@@ -22530,7 +22696,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0.754256851983649</v>
@@ -22553,7 +22719,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0.77118536275217797</v>
@@ -22576,7 +22742,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0.72505317832398597</v>
@@ -22599,27 +22765,27 @@
     </row>
     <row r="20" spans="1:7">
       <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>24</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>25</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21">
         <v>0.72087117290077096</v>
@@ -22642,7 +22808,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22">
         <v>0.74251547139677698</v>
@@ -22665,7 +22831,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23">
         <v>0.74354518463169905</v>
@@ -22688,7 +22854,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24">
         <v>0.724596859181731</v>
@@ -22711,7 +22877,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25">
         <v>0.73229754503157196</v>
@@ -22734,7 +22900,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26">
         <v>0.74926914613655704</v>
@@ -22757,27 +22923,27 @@
     </row>
     <row r="38" spans="1:7">
       <c r="B38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" t="s">
         <v>82</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
         <v>83</v>
       </c>
-      <c r="E38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" t="s">
-        <v>84</v>
-      </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39">
         <v>0.76550651555853899</v>
@@ -22800,7 +22966,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40">
         <v>0.73935548223019598</v>
@@ -22823,7 +22989,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41">
         <v>0.79432413198127405</v>
@@ -22846,7 +23012,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42">
         <v>0.74966444904480201</v>
@@ -22869,7 +23035,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43">
         <v>0.762465641791641</v>
@@ -22892,7 +23058,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B44">
         <v>0.798808091564288</v>

--- a/Documentation/CosineSimilarity/Record.xlsx
+++ b/Documentation/CosineSimilarity/Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\embeders-semantic-analysis\Documentation\CosineSimilarity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6DFE3C-8E30-43F2-8E97-958C5BA8D016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29927FBE-69B8-4566-910E-E09F40AE2ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="689" firstSheet="3" activeTab="5" xr2:uid="{0B6CED53-8839-4228-88B3-1E625FBF7FC8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="689" xr2:uid="{0B6CED53-8839-4228-88B3-1E625FBF7FC8}"/>
   </bookViews>
   <sheets>
     <sheet name="words vs words (3-small)" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>PESTLE vs word list 1 (small-3)</a:t>
+              <a:t>PESTLE vs word list 1 (3-small)</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -2900,7 +2900,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Words vs movies dataset</a:t>
+              <a:t>Words vs Movies dataset (ada-002)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3680,7 +3680,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> vs Lyrics dataset</a:t>
+              <a:t> vs Lyrics dataset (ada-002)</a:t>
             </a:r>
             <a:endParaRPr lang="en-CA"/>
           </a:p>
@@ -4457,7 +4457,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Words vs Books Dataset </a:t>
+              <a:t>Words vs Books Dataset (ada-002) </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5305,7 +5305,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>PESTLE vs word list 2 (small-3)</a:t>
+              <a:t>PESTLE vs word list 2 (3-small)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6081,7 +6081,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>words vs words (AI/ML)</a:t>
+              <a:t>words vs words (AI/ML) (3-small)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7599,7 +7599,7 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Words vs Books Dataset</a:t>
+              <a:t>Words vs Books Dataset (3-small)</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -8472,11 +8472,19 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> movies dataset</a:t>
+              <a:t> Movies dataset (3-small)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31685547250469254"/>
+          <c:y val="2.4691358024691357E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9248,7 +9256,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Words vs Lyrics Dataset</a:t>
+              <a:t>Words vs Lyrics Dataset (3-small)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10028,7 +10036,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> (AI/ML)</a:t>
+              <a:t> (AI/ML) (ada-002)</a:t>
             </a:r>
             <a:endParaRPr lang="en-CA"/>
           </a:p>
@@ -20033,8 +20041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AA2988-5AAB-4458-847B-F75AA408FACB}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" topLeftCell="F37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -20840,7 +20848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B395E1AC-FE3E-4EA2-ADDC-088EB33C8183}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G12"/>
     </sheetView>
   </sheetViews>
@@ -21125,8 +21133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49FE91F-C29C-49F4-8576-5D811DA982A1}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView topLeftCell="F24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -21715,8 +21723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7807ADC6-4E54-4CA3-8A92-E6A4521869DA}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -22279,7 +22287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FC4377-C564-4CEE-B9B5-EACA486A658F}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -22550,8 +22558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD2A136-EED6-456E-AC4A-B8351DEBC004}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView topLeftCell="D43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/Documentation/CosineSimilarity/Record.xlsx
+++ b/Documentation/CosineSimilarity/Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\embeders-semantic-analysis\Documentation\CosineSimilarity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29927FBE-69B8-4566-910E-E09F40AE2ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C246A86-A7CF-41AD-8891-1F848AAA1989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="689" xr2:uid="{0B6CED53-8839-4228-88B3-1E625FBF7FC8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="689" firstSheet="3" activeTab="5" xr2:uid="{0B6CED53-8839-4228-88B3-1E625FBF7FC8}"/>
   </bookViews>
   <sheets>
     <sheet name="words vs words (3-small)" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="94">
   <si>
     <t>political</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>trends</t>
-  </si>
-  <si>
-    <t>policy</t>
   </si>
   <si>
     <t>spending</t>
@@ -602,28 +599,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$3:$A$9</c:f>
+              <c:f>'words vs words (3-small)'!$A$3:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>trends</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>policy</c:v>
+                  <c:v>spending</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>spending</c:v>
+                  <c:v>trade tariffs</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>trade tariffs</c:v>
+                  <c:v>renewable energy</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>renewable energy</c:v>
+                  <c:v>intellectual property</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>intellectual property</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>cultural values</c:v>
                 </c:pt>
               </c:strCache>
@@ -631,29 +625,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$B$3:$B$9</c:f>
+              <c:f>'words vs words (3-small)'!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.35357917603761901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56120943234938203</c:v>
+                  <c:v>0.34720107847301002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34720107847301002</c:v>
+                  <c:v>0.27124844476157201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27124844476157201</c:v>
+                  <c:v>0.22714961371607501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22714961371607501</c:v>
+                  <c:v>0.35658725609020703</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35658725609020703</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.32879258611676099</c:v>
                 </c:pt>
               </c:numCache>
@@ -691,28 +682,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$3:$A$9</c:f>
+              <c:f>'words vs words (3-small)'!$A$3:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>trends</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>policy</c:v>
+                  <c:v>spending</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>spending</c:v>
+                  <c:v>trade tariffs</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>trade tariffs</c:v>
+                  <c:v>renewable energy</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>renewable energy</c:v>
+                  <c:v>intellectual property</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>intellectual property</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>cultural values</c:v>
                 </c:pt>
               </c:strCache>
@@ -720,29 +708,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$C$3:$C$9</c:f>
+              <c:f>'words vs words (3-small)'!$C$3:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.31135806241671199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42382767995773701</c:v>
+                  <c:v>0.34798632531266599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34798632531266599</c:v>
+                  <c:v>0.27608937890030999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27608937890030999</c:v>
+                  <c:v>0.26689422251161499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26689422251161499</c:v>
+                  <c:v>0.29002094739645001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29002094739645001</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.265623384254565</c:v>
                 </c:pt>
               </c:numCache>
@@ -780,28 +765,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$3:$A$9</c:f>
+              <c:f>'words vs words (3-small)'!$A$3:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>trends</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>policy</c:v>
+                  <c:v>spending</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>spending</c:v>
+                  <c:v>trade tariffs</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>trade tariffs</c:v>
+                  <c:v>renewable energy</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>renewable energy</c:v>
+                  <c:v>intellectual property</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>intellectual property</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>cultural values</c:v>
                 </c:pt>
               </c:strCache>
@@ -809,29 +791,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$D$3:$D$9</c:f>
+              <c:f>'words vs words (3-small)'!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.324688233518096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.312508084219914</c:v>
+                  <c:v>0.19674494261196701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19674494261196701</c:v>
+                  <c:v>0.127178157464862</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.127178157464862</c:v>
+                  <c:v>0.129120518233929</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.129120518233929</c:v>
+                  <c:v>0.161335530416201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.161335530416201</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.30731413177980199</c:v>
                 </c:pt>
               </c:numCache>
@@ -869,28 +848,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$3:$A$9</c:f>
+              <c:f>'words vs words (3-small)'!$A$3:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>trends</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>policy</c:v>
+                  <c:v>spending</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>spending</c:v>
+                  <c:v>trade tariffs</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>trade tariffs</c:v>
+                  <c:v>renewable energy</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>renewable energy</c:v>
+                  <c:v>intellectual property</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>intellectual property</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>cultural values</c:v>
                 </c:pt>
               </c:strCache>
@@ -898,29 +874,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$E$3:$E$9</c:f>
+              <c:f>'words vs words (3-small)'!$E$3:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.38502513926780702</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28529207685146601</c:v>
+                  <c:v>0.21542177382073199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21542177382073199</c:v>
+                  <c:v>0.237368171461112</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.237368171461112</c:v>
+                  <c:v>0.28417435670490199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28417435670490199</c:v>
+                  <c:v>0.35120772020741498</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35120772020741498</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.20886437523997101</c:v>
                 </c:pt>
               </c:numCache>
@@ -958,28 +931,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$3:$A$9</c:f>
+              <c:f>'words vs words (3-small)'!$A$3:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>trends</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>policy</c:v>
+                  <c:v>spending</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>spending</c:v>
+                  <c:v>trade tariffs</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>trade tariffs</c:v>
+                  <c:v>renewable energy</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>renewable energy</c:v>
+                  <c:v>intellectual property</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>intellectual property</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>cultural values</c:v>
                 </c:pt>
               </c:strCache>
@@ -987,29 +957,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$F$3:$F$9</c:f>
+              <c:f>'words vs words (3-small)'!$F$3:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.21774503125623901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.533554787564963</c:v>
+                  <c:v>0.24931420147644701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24931420147644701</c:v>
+                  <c:v>0.224187535114899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.224187535114899</c:v>
+                  <c:v>0.1235979706001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1235979706001</c:v>
+                  <c:v>0.34047408104798299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34047408104798299</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.21574597067858001</c:v>
                 </c:pt>
               </c:numCache>
@@ -1047,28 +1014,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$3:$A$9</c:f>
+              <c:f>'words vs words (3-small)'!$A$3:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>trends</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>policy</c:v>
+                  <c:v>spending</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>spending</c:v>
+                  <c:v>trade tariffs</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>trade tariffs</c:v>
+                  <c:v>renewable energy</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>renewable energy</c:v>
+                  <c:v>intellectual property</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>intellectual property</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>cultural values</c:v>
                 </c:pt>
               </c:strCache>
@@ -1076,29 +1040,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$G$3:$G$9</c:f>
+              <c:f>'words vs words (3-small)'!$G$3:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.300567374330591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.347330687403196</c:v>
+                  <c:v>0.306326269415646</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.306326269415646</c:v>
+                  <c:v>0.175654208294037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.175654208294037</c:v>
+                  <c:v>0.33956568911682</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33956568911682</c:v>
+                  <c:v>0.255053837230312</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.255053837230312</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.30092749659807799</c:v>
                 </c:pt>
               </c:numCache>
@@ -5351,7 +5312,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$B$20</c:f>
+              <c:f>'words vs words (3-small)'!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5372,7 +5333,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$21:$A$26</c:f>
+              <c:f>'words vs words (3-small)'!$A$20:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -5398,7 +5359,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$B$21:$B$26</c:f>
+              <c:f>'words vs words (3-small)'!$B$20:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5434,7 +5395,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$C$20</c:f>
+              <c:f>'words vs words (3-small)'!$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5455,7 +5416,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$21:$A$26</c:f>
+              <c:f>'words vs words (3-small)'!$A$20:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -5481,7 +5442,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$C$21:$C$26</c:f>
+              <c:f>'words vs words (3-small)'!$C$20:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5517,7 +5478,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$D$20</c:f>
+              <c:f>'words vs words (3-small)'!$D$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5538,7 +5499,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$21:$A$26</c:f>
+              <c:f>'words vs words (3-small)'!$A$20:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -5564,7 +5525,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$D$21:$D$26</c:f>
+              <c:f>'words vs words (3-small)'!$D$20:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5600,7 +5561,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$E$20</c:f>
+              <c:f>'words vs words (3-small)'!$E$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5621,7 +5582,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$21:$A$26</c:f>
+              <c:f>'words vs words (3-small)'!$A$20:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -5647,7 +5608,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$E$21:$E$26</c:f>
+              <c:f>'words vs words (3-small)'!$E$20:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5683,7 +5644,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$F$20</c:f>
+              <c:f>'words vs words (3-small)'!$F$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5704,7 +5665,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$21:$A$26</c:f>
+              <c:f>'words vs words (3-small)'!$A$20:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -5730,7 +5691,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$F$21:$F$26</c:f>
+              <c:f>'words vs words (3-small)'!$F$20:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5766,7 +5727,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$G$20</c:f>
+              <c:f>'words vs words (3-small)'!$G$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5787,7 +5748,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$21:$A$26</c:f>
+              <c:f>'words vs words (3-small)'!$A$20:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -5813,7 +5774,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$G$21:$G$26</c:f>
+              <c:f>'words vs words (3-small)'!$G$20:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6127,7 +6088,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$B$38</c:f>
+              <c:f>'words vs words (3-small)'!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6148,7 +6109,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$39:$A$44</c:f>
+              <c:f>'words vs words (3-small)'!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -6174,7 +6135,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$B$39:$B$44</c:f>
+              <c:f>'words vs words (3-small)'!$B$38:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6210,7 +6171,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$C$38</c:f>
+              <c:f>'words vs words (3-small)'!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6231,7 +6192,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$39:$A$44</c:f>
+              <c:f>'words vs words (3-small)'!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -6257,7 +6218,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$C$39:$C$44</c:f>
+              <c:f>'words vs words (3-small)'!$C$38:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6293,7 +6254,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$D$38</c:f>
+              <c:f>'words vs words (3-small)'!$D$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6314,7 +6275,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$39:$A$44</c:f>
+              <c:f>'words vs words (3-small)'!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -6340,7 +6301,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$D$39:$D$44</c:f>
+              <c:f>'words vs words (3-small)'!$D$38:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6376,7 +6337,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$E$38</c:f>
+              <c:f>'words vs words (3-small)'!$E$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6397,7 +6358,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$39:$A$44</c:f>
+              <c:f>'words vs words (3-small)'!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -6423,7 +6384,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$E$39:$E$44</c:f>
+              <c:f>'words vs words (3-small)'!$E$38:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6459,7 +6420,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$F$38</c:f>
+              <c:f>'words vs words (3-small)'!$F$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6480,7 +6441,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$39:$A$44</c:f>
+              <c:f>'words vs words (3-small)'!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -6506,7 +6467,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$F$39:$F$44</c:f>
+              <c:f>'words vs words (3-small)'!$F$38:$F$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6542,7 +6503,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$G$38</c:f>
+              <c:f>'words vs words (3-small)'!$G$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6563,7 +6524,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'words vs words (3-small)'!$A$39:$A$44</c:f>
+              <c:f>'words vs words (3-small)'!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -6589,7 +6550,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'words vs words (3-small)'!$G$39:$G$44</c:f>
+              <c:f>'words vs words (3-small)'!$G$38:$G$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -19200,7 +19161,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>227958</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>107587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19230,13 +19191,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>497587</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>15588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>346364</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>95770</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19266,13 +19227,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>124732</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>159203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>61232</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>156481</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20039,10 +20000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AA2988-5AAB-4458-847B-F75AA408FACB}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -20055,7 +20016,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -20077,10 +20038,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" t="s">
         <v>93</v>
-      </c>
-      <c r="G2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -20111,22 +20072,22 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0.56120943234938203</v>
+        <v>0.34720107847301002</v>
       </c>
       <c r="C4">
-        <v>0.42382767995773701</v>
+        <v>0.34798632531266599</v>
       </c>
       <c r="D4">
-        <v>0.312508084219914</v>
+        <v>0.19674494261196701</v>
       </c>
       <c r="E4">
-        <v>0.28529207685146601</v>
+        <v>0.21542177382073199</v>
       </c>
       <c r="F4">
-        <v>0.533554787564963</v>
+        <v>0.24931420147644701</v>
       </c>
       <c r="G4">
-        <v>0.347330687403196</v>
+        <v>0.306326269415646</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -20134,22 +20095,22 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.34720107847301002</v>
+        <v>0.27124844476157201</v>
       </c>
       <c r="C5">
-        <v>0.34798632531266599</v>
+        <v>0.27608937890030999</v>
       </c>
       <c r="D5">
-        <v>0.19674494261196701</v>
+        <v>0.127178157464862</v>
       </c>
       <c r="E5">
-        <v>0.21542177382073199</v>
+        <v>0.237368171461112</v>
       </c>
       <c r="F5">
-        <v>0.24931420147644701</v>
+        <v>0.224187535114899</v>
       </c>
       <c r="G5">
-        <v>0.306326269415646</v>
+        <v>0.175654208294037</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -20157,22 +20118,22 @@
         <v>42</v>
       </c>
       <c r="B6">
-        <v>0.27124844476157201</v>
+        <v>0.22714961371607501</v>
       </c>
       <c r="C6">
-        <v>0.27608937890030999</v>
+        <v>0.26689422251161499</v>
       </c>
       <c r="D6">
-        <v>0.127178157464862</v>
+        <v>0.129120518233929</v>
       </c>
       <c r="E6">
-        <v>0.237368171461112</v>
+        <v>0.28417435670490199</v>
       </c>
       <c r="F6">
-        <v>0.224187535114899</v>
+        <v>0.1235979706001</v>
       </c>
       <c r="G6">
-        <v>0.175654208294037</v>
+        <v>0.33956568911682</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -20180,22 +20141,22 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.22714961371607501</v>
+        <v>0.35658725609020703</v>
       </c>
       <c r="C7">
-        <v>0.26689422251161499</v>
+        <v>0.29002094739645001</v>
       </c>
       <c r="D7">
-        <v>0.129120518233929</v>
+        <v>0.161335530416201</v>
       </c>
       <c r="E7">
-        <v>0.28417435670490199</v>
+        <v>0.35120772020741498</v>
       </c>
       <c r="F7">
-        <v>0.1235979706001</v>
+        <v>0.34047408104798299</v>
       </c>
       <c r="G7">
-        <v>0.33956568911682</v>
+        <v>0.255053837230312</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -20203,75 +20164,75 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.35658725609020703</v>
+        <v>0.32879258611676099</v>
       </c>
       <c r="C8">
-        <v>0.29002094739645001</v>
+        <v>0.265623384254565</v>
       </c>
       <c r="D8">
-        <v>0.161335530416201</v>
+        <v>0.30731413177980199</v>
       </c>
       <c r="E8">
-        <v>0.35120772020741498</v>
+        <v>0.20886437523997101</v>
       </c>
       <c r="F8">
-        <v>0.34047408104798299</v>
+        <v>0.21574597067858001</v>
       </c>
       <c r="G8">
-        <v>0.255053837230312</v>
+        <v>0.30092749659807799</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9">
-        <v>0.32879258611676099</v>
-      </c>
-      <c r="C9">
-        <v>0.265623384254565</v>
-      </c>
-      <c r="D9">
-        <v>0.30731413177980199</v>
-      </c>
-      <c r="E9">
-        <v>0.20886437523997101</v>
-      </c>
-      <c r="F9">
-        <v>0.21574597067858001</v>
-      </c>
-      <c r="G9">
-        <v>0.30092749659807799</v>
-      </c>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" t="s">
-        <v>94</v>
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>0.34468539924810199</v>
+      </c>
+      <c r="C20">
+        <v>0.33816511431690599</v>
+      </c>
+      <c r="D20">
+        <v>0.22872785405784901</v>
+      </c>
+      <c r="E20">
+        <v>0.28743734591749598</v>
+      </c>
+      <c r="F20">
+        <v>0.357351756516888</v>
+      </c>
+      <c r="G20">
+        <v>0.361879444053197</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -20279,22 +20240,22 @@
         <v>47</v>
       </c>
       <c r="B21">
-        <v>0.34468539924810199</v>
+        <v>0.34105290878137801</v>
       </c>
       <c r="C21">
-        <v>0.33816511431690599</v>
+        <v>0.26741089309209598</v>
       </c>
       <c r="D21">
-        <v>0.22872785405784901</v>
+        <v>0.25527028797747398</v>
       </c>
       <c r="E21">
-        <v>0.28743734591749598</v>
+        <v>0.29023641488413998</v>
       </c>
       <c r="F21">
-        <v>0.357351756516888</v>
+        <v>0.222913413988239</v>
       </c>
       <c r="G21">
-        <v>0.361879444053197</v>
+        <v>0.23181266624250399</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -20302,22 +20263,22 @@
         <v>48</v>
       </c>
       <c r="B22">
-        <v>0.34105290878137801</v>
+        <v>0.40723198971739299</v>
       </c>
       <c r="C22">
-        <v>0.26741089309209598</v>
+        <v>0.34638403856303301</v>
       </c>
       <c r="D22">
-        <v>0.25527028797747398</v>
+        <v>0.25292503628881602</v>
       </c>
       <c r="E22">
-        <v>0.29023641488413998</v>
+        <v>0.31962759287943598</v>
       </c>
       <c r="F22">
-        <v>0.222913413988239</v>
+        <v>0.28224617470305802</v>
       </c>
       <c r="G22">
-        <v>0.23181266624250399</v>
+        <v>0.34098216542160398</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -20325,22 +20286,22 @@
         <v>49</v>
       </c>
       <c r="B23">
-        <v>0.40723198971739299</v>
+        <v>0.27148462680298402</v>
       </c>
       <c r="C23">
-        <v>0.34638403856303301</v>
+        <v>0.32391023074272901</v>
       </c>
       <c r="D23">
-        <v>0.25292503628881602</v>
+        <v>0.20224431508610799</v>
       </c>
       <c r="E23">
-        <v>0.31962759287943598</v>
+        <v>0.247391618462761</v>
       </c>
       <c r="F23">
-        <v>0.28224617470305802</v>
+        <v>0.367773103678041</v>
       </c>
       <c r="G23">
-        <v>0.34098216542160398</v>
+        <v>0.27988656761356701</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -20348,138 +20309,150 @@
         <v>50</v>
       </c>
       <c r="B24">
-        <v>0.27148462680298402</v>
+        <v>0.38817657693851498</v>
       </c>
       <c r="C24">
-        <v>0.32391023074272901</v>
+        <v>0.37899641998323202</v>
       </c>
       <c r="D24">
-        <v>0.20224431508610799</v>
+        <v>0.27473369741699399</v>
       </c>
       <c r="E24">
-        <v>0.247391618462761</v>
+        <v>0.29090411747751299</v>
       </c>
       <c r="F24">
-        <v>0.367773103678041</v>
+        <v>0.20842223220093301</v>
       </c>
       <c r="G24">
-        <v>0.27988656761356701</v>
+        <v>0.35719110508929403</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B25">
-        <v>0.38817657693851498</v>
+        <v>0.32001130466665201</v>
       </c>
       <c r="C25">
-        <v>0.37899641998323202</v>
+        <v>0.29153690768142798</v>
       </c>
       <c r="D25">
-        <v>0.27473369741699399</v>
+        <v>0.23470285265818699</v>
       </c>
       <c r="E25">
-        <v>0.29090411747751299</v>
+        <v>0.23015936577718099</v>
       </c>
       <c r="F25">
-        <v>0.20842223220093301</v>
+        <v>0.37102480442409902</v>
       </c>
       <c r="G25">
-        <v>0.35719110508929403</v>
+        <v>0.314021178038078</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B26">
-        <v>0.32001130466665201</v>
+        <v>0.35038281471919702</v>
       </c>
       <c r="C26">
-        <v>0.29153690768142798</v>
+        <v>0.42126269092983598</v>
       </c>
       <c r="D26">
-        <v>0.23470285265818699</v>
+        <v>0.227130336974803</v>
       </c>
       <c r="E26">
-        <v>0.23015936577718099</v>
+        <v>0.26510556188714901</v>
       </c>
       <c r="F26">
-        <v>0.37102480442409902</v>
+        <v>0.30819492751069399</v>
       </c>
       <c r="G26">
-        <v>0.314021178038078</v>
+        <v>0.38009059331210499</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27">
-        <v>0.35038281471919702</v>
-      </c>
-      <c r="C27">
-        <v>0.42126269092983598</v>
-      </c>
-      <c r="D27">
-        <v>0.227130336974803</v>
-      </c>
-      <c r="E27">
-        <v>0.26510556188714901</v>
-      </c>
-      <c r="F27">
-        <v>0.30819492751069399</v>
-      </c>
-      <c r="G27">
-        <v>0.38009059331210499</v>
-      </c>
+    <row r="36" spans="1:11">
+      <c r="A36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+      <c r="K37" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="B38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G38" t="s">
-        <v>59</v>
-      </c>
-      <c r="H38" t="s">
-        <v>60</v>
-      </c>
-      <c r="I38" t="s">
-        <v>61</v>
-      </c>
-      <c r="J38" t="s">
-        <v>62</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="A38" t="s">
         <v>63</v>
+      </c>
+      <c r="B38">
+        <v>0.48632557504159901</v>
+      </c>
+      <c r="C38">
+        <v>0.27631132329278302</v>
+      </c>
+      <c r="D38">
+        <v>0.42509986857093701</v>
+      </c>
+      <c r="E38">
+        <v>0.39922455230404102</v>
+      </c>
+      <c r="F38">
+        <v>0.377263103928066</v>
+      </c>
+      <c r="G38">
+        <v>0.39917581785192602</v>
+      </c>
+      <c r="H38">
+        <v>0.34253541042449798</v>
+      </c>
+      <c r="I38">
+        <v>0.32086231632333301</v>
+      </c>
+      <c r="J38">
+        <v>0.33863343437123899</v>
+      </c>
+      <c r="K38">
+        <v>0.25324236494709601</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -20487,34 +20460,34 @@
         <v>64</v>
       </c>
       <c r="B39">
-        <v>0.48632557504159901</v>
+        <v>0.438552544660398</v>
       </c>
       <c r="C39">
-        <v>0.27631132329278302</v>
+        <v>0.236551164752768</v>
       </c>
       <c r="D39">
-        <v>0.42509986857093701</v>
+        <v>0.24291987588106501</v>
       </c>
       <c r="E39">
-        <v>0.39922455230404102</v>
+        <v>0.34435198885198898</v>
       </c>
       <c r="F39">
-        <v>0.377263103928066</v>
+        <v>0.29416494198927701</v>
       </c>
       <c r="G39">
-        <v>0.39917581785192602</v>
+        <v>0.37750604413087402</v>
       </c>
       <c r="H39">
-        <v>0.34253541042449798</v>
+        <v>0.28654090866833598</v>
       </c>
       <c r="I39">
-        <v>0.32086231632333301</v>
+        <v>0.27380134286838198</v>
       </c>
       <c r="J39">
-        <v>0.33863343437123899</v>
+        <v>0.32510983269760202</v>
       </c>
       <c r="K39">
-        <v>0.25324236494709601</v>
+        <v>0.197859778796909</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -20522,34 +20495,34 @@
         <v>65</v>
       </c>
       <c r="B40">
-        <v>0.438552544660398</v>
+        <v>0.35504728935131802</v>
       </c>
       <c r="C40">
-        <v>0.236551164752768</v>
+        <v>0.155578175462389</v>
       </c>
       <c r="D40">
-        <v>0.24291987588106501</v>
+        <v>0.23214185482186001</v>
       </c>
       <c r="E40">
-        <v>0.34435198885198898</v>
+        <v>0.39192462673057898</v>
       </c>
       <c r="F40">
-        <v>0.29416494198927701</v>
+        <v>0.26909333610526398</v>
       </c>
       <c r="G40">
-        <v>0.37750604413087402</v>
+        <v>0.54268860348931602</v>
       </c>
       <c r="H40">
-        <v>0.28654090866833598</v>
+        <v>0.23214934941156601</v>
       </c>
       <c r="I40">
-        <v>0.27380134286838198</v>
+        <v>0.295234833488208</v>
       </c>
       <c r="J40">
-        <v>0.32510983269760202</v>
+        <v>0.23586044210210499</v>
       </c>
       <c r="K40">
-        <v>0.197859778796909</v>
+        <v>0.106737252225512</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -20557,34 +20530,34 @@
         <v>66</v>
       </c>
       <c r="B41">
-        <v>0.35504728935131802</v>
+        <v>0.36334533383774198</v>
       </c>
       <c r="C41">
-        <v>0.155578175462389</v>
+        <v>0.26495178981018802</v>
       </c>
       <c r="D41">
-        <v>0.23214185482186001</v>
+        <v>0.23044503479970599</v>
       </c>
       <c r="E41">
-        <v>0.39192462673057898</v>
+        <v>0.29610109152156899</v>
       </c>
       <c r="F41">
-        <v>0.26909333610526398</v>
+        <v>0.36531009257546598</v>
       </c>
       <c r="G41">
-        <v>0.54268860348931602</v>
+        <v>0.36588981392226599</v>
       </c>
       <c r="H41">
-        <v>0.23214934941156601</v>
+        <v>0.333840389502575</v>
       </c>
       <c r="I41">
-        <v>0.295234833488208</v>
+        <v>0.28603318956664697</v>
       </c>
       <c r="J41">
-        <v>0.23586044210210499</v>
+        <v>0.38267857165553498</v>
       </c>
       <c r="K41">
-        <v>0.106737252225512</v>
+        <v>0.27736529616222</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -20592,34 +20565,34 @@
         <v>67</v>
       </c>
       <c r="B42">
-        <v>0.36334533383774198</v>
+        <v>0.335374243906497</v>
       </c>
       <c r="C42">
-        <v>0.26495178981018802</v>
+        <v>0.16100893917293399</v>
       </c>
       <c r="D42">
-        <v>0.23044503479970599</v>
+        <v>0.276884821651741</v>
       </c>
       <c r="E42">
-        <v>0.29610109152156899</v>
+        <v>0.25682785681043202</v>
       </c>
       <c r="F42">
-        <v>0.36531009257546598</v>
+        <v>0.209010369320835</v>
       </c>
       <c r="G42">
-        <v>0.36588981392226599</v>
+        <v>0.27716573001690198</v>
       </c>
       <c r="H42">
-        <v>0.333840389502575</v>
+        <v>0.32508122370352499</v>
       </c>
       <c r="I42">
-        <v>0.28603318956664697</v>
+        <v>0.26875371093177203</v>
       </c>
       <c r="J42">
-        <v>0.38267857165553498</v>
+        <v>0.25981706250782099</v>
       </c>
       <c r="K42">
-        <v>0.27736529616222</v>
+        <v>0.25852442771144901</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -20627,34 +20600,34 @@
         <v>68</v>
       </c>
       <c r="B43">
-        <v>0.335374243906497</v>
+        <v>0.30508797507700902</v>
       </c>
       <c r="C43">
-        <v>0.16100893917293399</v>
+        <v>0.35836226367267499</v>
       </c>
       <c r="D43">
-        <v>0.276884821651741</v>
+        <v>0.24211839910906499</v>
       </c>
       <c r="E43">
-        <v>0.25682785681043202</v>
+        <v>0.26513333305040399</v>
       </c>
       <c r="F43">
-        <v>0.209010369320835</v>
+        <v>0.19711632178157701</v>
       </c>
       <c r="G43">
-        <v>0.27716573001690198</v>
+        <v>0.30373228529516599</v>
       </c>
       <c r="H43">
-        <v>0.32508122370352499</v>
+        <v>0.226326115081014</v>
       </c>
       <c r="I43">
-        <v>0.26875371093177203</v>
+        <v>0.29754310051010802</v>
       </c>
       <c r="J43">
-        <v>0.25981706250782099</v>
+        <v>0.16994410828919901</v>
       </c>
       <c r="K43">
-        <v>0.25852442771144901</v>
+        <v>0.124500283528362</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -20662,34 +20635,34 @@
         <v>69</v>
       </c>
       <c r="B44">
-        <v>0.30508797507700902</v>
+        <v>0.21841999174225599</v>
       </c>
       <c r="C44">
-        <v>0.35836226367267499</v>
+        <v>0.184780896255759</v>
       </c>
       <c r="D44">
-        <v>0.24211839910906499</v>
+        <v>0.193936674331706</v>
       </c>
       <c r="E44">
-        <v>0.26513333305040399</v>
+        <v>0.40464901999785402</v>
       </c>
       <c r="F44">
-        <v>0.19711632178157701</v>
+        <v>0.21151754005102499</v>
       </c>
       <c r="G44">
-        <v>0.30373228529516599</v>
+        <v>0.31325204128476902</v>
       </c>
       <c r="H44">
-        <v>0.226326115081014</v>
+        <v>0.228985741644814</v>
       </c>
       <c r="I44">
-        <v>0.29754310051010802</v>
+        <v>0.27763870171417099</v>
       </c>
       <c r="J44">
-        <v>0.16994410828919901</v>
+        <v>0.21114249012192601</v>
       </c>
       <c r="K44">
-        <v>0.124500283528362</v>
+        <v>0.108270127924046</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -20697,34 +20670,34 @@
         <v>70</v>
       </c>
       <c r="B45">
-        <v>0.21841999174225599</v>
+        <v>0.31649023543798899</v>
       </c>
       <c r="C45">
-        <v>0.184780896255759</v>
+        <v>0.18759023330986299</v>
       </c>
       <c r="D45">
-        <v>0.193936674331706</v>
+        <v>0.27432029592789597</v>
       </c>
       <c r="E45">
-        <v>0.40464901999785402</v>
+        <v>0.53619104708998799</v>
       </c>
       <c r="F45">
-        <v>0.21151754005102499</v>
+        <v>0.30427229601650901</v>
       </c>
       <c r="G45">
-        <v>0.31325204128476902</v>
+        <v>0.37080940338400098</v>
       </c>
       <c r="H45">
-        <v>0.228985741644814</v>
+        <v>0.284358950653193</v>
       </c>
       <c r="I45">
-        <v>0.27763870171417099</v>
+        <v>0.21784998417476001</v>
       </c>
       <c r="J45">
-        <v>0.21114249012192601</v>
+        <v>0.23092121948605701</v>
       </c>
       <c r="K45">
-        <v>0.108270127924046</v>
+        <v>0.13329840618659899</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -20732,111 +20705,76 @@
         <v>71</v>
       </c>
       <c r="B46">
-        <v>0.31649023543798899</v>
+        <v>0.39734651482857503</v>
       </c>
       <c r="C46">
-        <v>0.18759023330986299</v>
+        <v>0.240812138244476</v>
       </c>
       <c r="D46">
-        <v>0.27432029592789597</v>
+        <v>0.39286494253889498</v>
       </c>
       <c r="E46">
-        <v>0.53619104708998799</v>
+        <v>0.38549508860301501</v>
       </c>
       <c r="F46">
-        <v>0.30427229601650901</v>
+        <v>0.42154858519347499</v>
       </c>
       <c r="G46">
-        <v>0.37080940338400098</v>
+        <v>0.45007892743394601</v>
       </c>
       <c r="H46">
-        <v>0.284358950653193</v>
+        <v>0.34332154749350402</v>
       </c>
       <c r="I46">
-        <v>0.21784998417476001</v>
+        <v>0.31875963904548499</v>
       </c>
       <c r="J46">
-        <v>0.23092121948605701</v>
+        <v>0.36147785604445998</v>
       </c>
       <c r="K46">
-        <v>0.13329840618659899</v>
+        <v>0.324184293510554</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.39734651482857503</v>
+        <v>0.38782704063191897</v>
       </c>
       <c r="C47">
-        <v>0.240812138244476</v>
+        <v>0.27447680832826699</v>
       </c>
       <c r="D47">
-        <v>0.39286494253889498</v>
+        <v>0.33582152342961302</v>
       </c>
       <c r="E47">
-        <v>0.38549508860301501</v>
+        <v>0.44866764455735297</v>
       </c>
       <c r="F47">
-        <v>0.42154858519347499</v>
+        <v>0.26918662155865603</v>
       </c>
       <c r="G47">
-        <v>0.45007892743394601</v>
+        <v>0.50002206974385299</v>
       </c>
       <c r="H47">
-        <v>0.34332154749350402</v>
+        <v>0.24694188442662901</v>
       </c>
       <c r="I47">
-        <v>0.31875963904548499</v>
+        <v>0.32557814056442302</v>
       </c>
       <c r="J47">
-        <v>0.36147785604445998</v>
+        <v>0.22764144275297499</v>
       </c>
       <c r="K47">
-        <v>0.324184293510554</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48">
-        <v>0.38782704063191897</v>
-      </c>
-      <c r="C48">
-        <v>0.27447680832826699</v>
-      </c>
-      <c r="D48">
-        <v>0.33582152342961302</v>
-      </c>
-      <c r="E48">
-        <v>0.44866764455735297</v>
-      </c>
-      <c r="F48">
-        <v>0.26918662155865603</v>
-      </c>
-      <c r="G48">
-        <v>0.50002206974385299</v>
-      </c>
-      <c r="H48">
-        <v>0.24694188442662901</v>
-      </c>
-      <c r="I48">
-        <v>0.32557814056442302</v>
-      </c>
-      <c r="J48">
-        <v>0.22764144275297499</v>
-      </c>
-      <c r="K48">
         <v>0.20813836661221899</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="A36:K36"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -20848,7 +20786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B395E1AC-FE3E-4EA2-ADDC-088EB33C8183}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G12"/>
     </sheetView>
   </sheetViews>
@@ -20883,10 +20821,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" t="s">
         <v>93</v>
-      </c>
-      <c r="G2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -21133,7 +21071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49FE91F-C29C-49F4-8576-5D811DA982A1}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="F24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
@@ -21148,7 +21086,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -21159,19 +21097,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
         <v>76</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>78</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>79</v>
-      </c>
-      <c r="F2" t="s">
-        <v>80</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -21364,7 +21302,7 @@
     <row r="17" spans="1:7" ht="14.5" thickBot="1"/>
     <row r="18" spans="1:7" ht="14.5" thickBot="1">
       <c r="A18" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -21376,19 +21314,19 @@
     <row r="19" spans="1:7" ht="14.5" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>12</v>
@@ -21535,7 +21473,7 @@
     <row r="35" spans="1:16" ht="14.5" thickBot="1"/>
     <row r="36" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="A36" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -21566,7 +21504,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38">
         <v>8.19784372826355E-2</v>
@@ -21589,7 +21527,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39">
         <v>0.117328676489949</v>
@@ -21612,7 +21550,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40">
         <v>7.3982943970032605E-2</v>
@@ -21635,7 +21573,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B41">
         <v>8.4762973995164304E-2</v>
@@ -21658,7 +21596,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B42">
         <v>7.5051965838065504E-2</v>
@@ -21681,7 +21619,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B43">
         <v>0.207970151001547</v>
@@ -21723,7 +21661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7807ADC6-4E54-4CA3-8A92-E6A4521869DA}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -21740,7 +21678,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -21755,27 +21693,27 @@
     </row>
     <row r="2" spans="1:11">
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>58</v>
-      </c>
-      <c r="G2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>0.82339587602148601</v>
@@ -21798,7 +21736,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>0.82365331208117898</v>
@@ -21821,7 +21759,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5">
         <v>0.80764662167332002</v>
@@ -21844,7 +21782,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>0.79169769193559103</v>
@@ -21867,7 +21805,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7">
         <v>0.80186954704820901</v>
@@ -21890,7 +21828,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>0.80807881600865294</v>
@@ -21925,10 +21863,10 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" t="s">
         <v>93</v>
-      </c>
-      <c r="G19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -21956,7 +21894,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21">
         <v>0.80574608567980899</v>
@@ -21979,7 +21917,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22">
         <v>0.80679219793801105</v>
@@ -22002,7 +21940,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23">
         <v>0.78192678856048703</v>
@@ -22025,7 +21963,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24">
         <v>0.79849199365861201</v>
@@ -22048,7 +21986,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25">
         <v>0.77180457583749296</v>
@@ -22071,7 +22009,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26">
         <v>0.78166536196522196</v>
@@ -22106,15 +22044,15 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" t="s">
         <v>93</v>
-      </c>
-      <c r="G29" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30">
         <v>0.81614472297669904</v>
@@ -22137,7 +22075,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31">
         <v>0.80197989046470097</v>
@@ -22160,7 +22098,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32">
         <v>0.838523912551703</v>
@@ -22183,7 +22121,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33">
         <v>0.79924284916202903</v>
@@ -22206,7 +22144,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34">
         <v>0.84048348536483597</v>
@@ -22252,7 +22190,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36">
         <v>0.80470999400413701</v>
@@ -22287,7 +22225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FC4377-C564-4CEE-B9B5-EACA486A658F}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -22311,10 +22249,10 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s">
         <v>93</v>
-      </c>
-      <c r="G1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -22558,8 +22496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD2A136-EED6-456E-AC4A-B8351DEBC004}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="D43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q51" sqref="Q51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -22569,19 +22507,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>79</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>
@@ -22793,7 +22731,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21">
         <v>0.72087117290077096</v>
@@ -22816,7 +22754,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22">
         <v>0.74251547139677698</v>
@@ -22839,7 +22777,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>0.74354518463169905</v>
@@ -22862,7 +22800,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24">
         <v>0.724596859181731</v>
@@ -22885,7 +22823,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25">
         <v>0.73229754503157196</v>
@@ -22908,7 +22846,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26">
         <v>0.74926914613655704</v>
@@ -22931,19 +22869,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="B38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
         <v>81</v>
-      </c>
-      <c r="D38" t="s">
-        <v>82</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>

--- a/Documentation/CosineSimilarity/Record.xlsx
+++ b/Documentation/CosineSimilarity/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\embeders-semantic-analysis\Documentation\CosineSimilarity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160DCBDA-1299-47CF-8126-E9CE37906E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A71884A-50D0-4567-AAA2-1B69878E4C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="689" firstSheet="4" activeTab="6" xr2:uid="{0B6CED53-8839-4228-88B3-1E625FBF7FC8}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="words vs words (ada-002)" sheetId="4" r:id="rId4"/>
     <sheet name="words vs pdfs (ada-002)" sheetId="5" r:id="rId5"/>
     <sheet name="words vs datasets (ada-002)" sheetId="7" r:id="rId6"/>
-    <sheet name="Retry" sheetId="9" r:id="rId7"/>
+    <sheet name="Final results" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5377,7 +5377,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$J$1</c:f>
+              <c:f>'Final results'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5398,7 +5398,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$I$2:$I$7</c:f>
+              <c:f>'Final results'!$I$2:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -5424,7 +5424,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$J$2:$J$7</c:f>
+              <c:f>'Final results'!$J$2:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5460,7 +5460,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$K$1</c:f>
+              <c:f>'Final results'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5481,7 +5481,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$I$2:$I$7</c:f>
+              <c:f>'Final results'!$I$2:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -5507,7 +5507,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$K$2:$K$7</c:f>
+              <c:f>'Final results'!$K$2:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5543,7 +5543,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$L$1</c:f>
+              <c:f>'Final results'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5564,7 +5564,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$I$2:$I$7</c:f>
+              <c:f>'Final results'!$I$2:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -5590,7 +5590,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$L$2:$L$7</c:f>
+              <c:f>'Final results'!$L$2:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5626,7 +5626,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$M$1</c:f>
+              <c:f>'Final results'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5647,7 +5647,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$I$2:$I$7</c:f>
+              <c:f>'Final results'!$I$2:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -5673,7 +5673,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$M$2:$M$7</c:f>
+              <c:f>'Final results'!$M$2:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5709,7 +5709,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$N$1</c:f>
+              <c:f>'Final results'!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5730,7 +5730,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$I$2:$I$7</c:f>
+              <c:f>'Final results'!$I$2:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -5756,7 +5756,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$N$2:$N$7</c:f>
+              <c:f>'Final results'!$N$2:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5792,7 +5792,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$O$1</c:f>
+              <c:f>'Final results'!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5813,7 +5813,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$I$2:$I$7</c:f>
+              <c:f>'Final results'!$I$2:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -5839,7 +5839,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$O$2:$O$7</c:f>
+              <c:f>'Final results'!$O$2:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6160,7 +6160,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$B$1</c:f>
+              <c:f>'Final results'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6181,7 +6181,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$A$2:$A$7</c:f>
+              <c:f>'Final results'!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -6207,7 +6207,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$B$2:$B$7</c:f>
+              <c:f>'Final results'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6243,7 +6243,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$C$1</c:f>
+              <c:f>'Final results'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6264,7 +6264,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$A$2:$A$7</c:f>
+              <c:f>'Final results'!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -6290,7 +6290,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$C$2:$C$7</c:f>
+              <c:f>'Final results'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6326,7 +6326,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$D$1</c:f>
+              <c:f>'Final results'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6347,7 +6347,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$A$2:$A$7</c:f>
+              <c:f>'Final results'!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -6373,7 +6373,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$D$2:$D$7</c:f>
+              <c:f>'Final results'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6409,7 +6409,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$E$1</c:f>
+              <c:f>'Final results'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6430,7 +6430,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$A$2:$A$7</c:f>
+              <c:f>'Final results'!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -6456,7 +6456,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$E$2:$E$7</c:f>
+              <c:f>'Final results'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6492,7 +6492,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$F$1</c:f>
+              <c:f>'Final results'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6513,7 +6513,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$A$2:$A$7</c:f>
+              <c:f>'Final results'!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -6539,7 +6539,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$F$2:$F$7</c:f>
+              <c:f>'Final results'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6575,7 +6575,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$G$1</c:f>
+              <c:f>'Final results'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6596,7 +6596,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$A$2:$A$7</c:f>
+              <c:f>'Final results'!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -6622,7 +6622,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$G$2:$G$7</c:f>
+              <c:f>'Final results'!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6943,7 +6943,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$B$26</c:f>
+              <c:f>'Final results'!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6964,7 +6964,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$A$27:$A$32</c:f>
+              <c:f>'Final results'!$A$27:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -6990,7 +6990,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$B$27:$B$32</c:f>
+              <c:f>'Final results'!$B$27:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7026,7 +7026,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$C$26</c:f>
+              <c:f>'Final results'!$C$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7047,7 +7047,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$A$27:$A$32</c:f>
+              <c:f>'Final results'!$A$27:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -7073,7 +7073,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$C$27:$C$32</c:f>
+              <c:f>'Final results'!$C$27:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7109,7 +7109,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$D$26</c:f>
+              <c:f>'Final results'!$D$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7130,7 +7130,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$A$27:$A$32</c:f>
+              <c:f>'Final results'!$A$27:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -7156,7 +7156,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$D$27:$D$32</c:f>
+              <c:f>'Final results'!$D$27:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7192,7 +7192,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$E$26</c:f>
+              <c:f>'Final results'!$E$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7213,7 +7213,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$A$27:$A$32</c:f>
+              <c:f>'Final results'!$A$27:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -7239,7 +7239,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$E$27:$E$32</c:f>
+              <c:f>'Final results'!$E$27:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7275,7 +7275,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$F$26</c:f>
+              <c:f>'Final results'!$F$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7296,7 +7296,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$A$27:$A$32</c:f>
+              <c:f>'Final results'!$A$27:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -7322,7 +7322,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$F$27:$F$32</c:f>
+              <c:f>'Final results'!$F$27:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7597,7 +7597,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Words vs Songs dataset (ada-002) </a:t>
+              <a:t>Words vs Songs dataset (3-small) </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7643,7 +7643,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$I$26</c:f>
+              <c:f>'Final results'!$I$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7664,7 +7664,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$H$27:$H$32</c:f>
+              <c:f>'Final results'!$H$27:$H$32</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -7690,7 +7690,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$I$27:$I$32</c:f>
+              <c:f>'Final results'!$I$27:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7726,7 +7726,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$J$26</c:f>
+              <c:f>'Final results'!$J$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7747,7 +7747,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$H$27:$H$32</c:f>
+              <c:f>'Final results'!$H$27:$H$32</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -7773,7 +7773,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$J$27:$J$32</c:f>
+              <c:f>'Final results'!$J$27:$J$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7809,7 +7809,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$K$26</c:f>
+              <c:f>'Final results'!$K$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7830,7 +7830,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$H$27:$H$32</c:f>
+              <c:f>'Final results'!$H$27:$H$32</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -7856,7 +7856,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$K$27:$K$32</c:f>
+              <c:f>'Final results'!$K$27:$K$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7892,7 +7892,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$L$26</c:f>
+              <c:f>'Final results'!$L$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7913,7 +7913,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$H$27:$H$32</c:f>
+              <c:f>'Final results'!$H$27:$H$32</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -7939,7 +7939,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$L$27:$L$32</c:f>
+              <c:f>'Final results'!$L$27:$L$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7975,7 +7975,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$M$26</c:f>
+              <c:f>'Final results'!$M$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7996,7 +7996,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$H$27:$H$32</c:f>
+              <c:f>'Final results'!$H$27:$H$32</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -8022,7 +8022,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$M$27:$M$32</c:f>
+              <c:f>'Final results'!$M$27:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -8343,7 +8343,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$B$50</c:f>
+              <c:f>'Final results'!$B$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8364,7 +8364,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$A$51:$A$56</c:f>
+              <c:f>'Final results'!$A$51:$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -8390,7 +8390,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$B$51:$B$56</c:f>
+              <c:f>'Final results'!$B$51:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -8426,7 +8426,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$C$50</c:f>
+              <c:f>'Final results'!$C$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8447,7 +8447,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$A$51:$A$56</c:f>
+              <c:f>'Final results'!$A$51:$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -8473,7 +8473,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$C$51:$C$56</c:f>
+              <c:f>'Final results'!$C$51:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -8509,7 +8509,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$D$50</c:f>
+              <c:f>'Final results'!$D$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8530,7 +8530,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$A$51:$A$56</c:f>
+              <c:f>'Final results'!$A$51:$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -8556,7 +8556,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$D$51:$D$56</c:f>
+              <c:f>'Final results'!$D$51:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -8592,7 +8592,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$E$50</c:f>
+              <c:f>'Final results'!$E$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8613,7 +8613,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$A$51:$A$56</c:f>
+              <c:f>'Final results'!$A$51:$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -8639,7 +8639,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$E$51:$E$56</c:f>
+              <c:f>'Final results'!$E$51:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -8675,7 +8675,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$F$50</c:f>
+              <c:f>'Final results'!$F$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8696,7 +8696,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$A$51:$A$56</c:f>
+              <c:f>'Final results'!$A$51:$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -8722,7 +8722,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$F$51:$F$56</c:f>
+              <c:f>'Final results'!$F$51:$F$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -8758,7 +8758,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$G$50</c:f>
+              <c:f>'Final results'!$G$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8779,7 +8779,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$A$51:$A$56</c:f>
+              <c:f>'Final results'!$A$51:$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -8805,7 +8805,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$G$51:$G$56</c:f>
+              <c:f>'Final results'!$G$51:$G$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -9902,7 +9902,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$J$50</c:f>
+              <c:f>'Final results'!$J$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9923,7 +9923,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$I$51:$I$56</c:f>
+              <c:f>'Final results'!$I$51:$I$56</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -9949,7 +9949,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$J$51:$J$56</c:f>
+              <c:f>'Final results'!$J$51:$J$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -9985,7 +9985,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$K$50</c:f>
+              <c:f>'Final results'!$K$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10006,7 +10006,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$I$51:$I$56</c:f>
+              <c:f>'Final results'!$I$51:$I$56</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -10032,7 +10032,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$K$51:$K$56</c:f>
+              <c:f>'Final results'!$K$51:$K$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -10068,7 +10068,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$L$50</c:f>
+              <c:f>'Final results'!$L$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10089,7 +10089,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$I$51:$I$56</c:f>
+              <c:f>'Final results'!$I$51:$I$56</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -10115,7 +10115,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$L$51:$L$56</c:f>
+              <c:f>'Final results'!$L$51:$L$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -10151,7 +10151,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$M$50</c:f>
+              <c:f>'Final results'!$M$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10172,7 +10172,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$I$51:$I$56</c:f>
+              <c:f>'Final results'!$I$51:$I$56</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -10198,7 +10198,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$M$51:$M$56</c:f>
+              <c:f>'Final results'!$M$51:$M$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -10234,7 +10234,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$N$50</c:f>
+              <c:f>'Final results'!$N$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10255,7 +10255,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$I$51:$I$56</c:f>
+              <c:f>'Final results'!$I$51:$I$56</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -10281,7 +10281,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$N$51:$N$56</c:f>
+              <c:f>'Final results'!$N$51:$N$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -10317,7 +10317,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$O$50</c:f>
+              <c:f>'Final results'!$O$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10338,7 +10338,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$I$51:$I$56</c:f>
+              <c:f>'Final results'!$I$51:$I$56</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -10364,7 +10364,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$O$51:$O$56</c:f>
+              <c:f>'Final results'!$O$51:$O$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -10685,7 +10685,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$B$75</c:f>
+              <c:f>'Final results'!$B$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10706,7 +10706,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$A$76:$A$81</c:f>
+              <c:f>'Final results'!$A$76:$A$81</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -10732,7 +10732,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$B$76:$B$81</c:f>
+              <c:f>'Final results'!$B$76:$B$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -10768,7 +10768,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$C$75</c:f>
+              <c:f>'Final results'!$C$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10789,7 +10789,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$A$76:$A$81</c:f>
+              <c:f>'Final results'!$A$76:$A$81</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -10815,7 +10815,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$C$76:$C$81</c:f>
+              <c:f>'Final results'!$C$76:$C$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -10851,7 +10851,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$D$75</c:f>
+              <c:f>'Final results'!$D$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10872,7 +10872,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$A$76:$A$81</c:f>
+              <c:f>'Final results'!$A$76:$A$81</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -10898,7 +10898,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$D$76:$D$81</c:f>
+              <c:f>'Final results'!$D$76:$D$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -10934,7 +10934,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$E$75</c:f>
+              <c:f>'Final results'!$E$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10955,7 +10955,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$A$76:$A$81</c:f>
+              <c:f>'Final results'!$A$76:$A$81</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -10981,7 +10981,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$E$76:$E$81</c:f>
+              <c:f>'Final results'!$E$76:$E$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11017,7 +11017,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$F$75</c:f>
+              <c:f>'Final results'!$F$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11038,7 +11038,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$A$76:$A$81</c:f>
+              <c:f>'Final results'!$A$76:$A$81</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -11064,7 +11064,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$F$76:$F$81</c:f>
+              <c:f>'Final results'!$F$76:$F$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11100,7 +11100,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$G$75</c:f>
+              <c:f>'Final results'!$G$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11121,7 +11121,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$A$76:$A$81</c:f>
+              <c:f>'Final results'!$A$76:$A$81</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -11147,7 +11147,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$G$76:$G$81</c:f>
+              <c:f>'Final results'!$G$76:$G$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11468,7 +11468,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$J$75</c:f>
+              <c:f>'Final results'!$J$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11489,7 +11489,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$I$76:$I$81</c:f>
+              <c:f>'Final results'!$I$76:$I$81</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -11515,7 +11515,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$J$76:$J$81</c:f>
+              <c:f>'Final results'!$J$76:$J$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11551,7 +11551,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$K$75</c:f>
+              <c:f>'Final results'!$K$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11572,7 +11572,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$I$76:$I$81</c:f>
+              <c:f>'Final results'!$I$76:$I$81</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -11598,7 +11598,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$K$76:$K$81</c:f>
+              <c:f>'Final results'!$K$76:$K$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11634,7 +11634,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$L$75</c:f>
+              <c:f>'Final results'!$L$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11655,7 +11655,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$I$76:$I$81</c:f>
+              <c:f>'Final results'!$I$76:$I$81</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -11681,7 +11681,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$L$76:$L$81</c:f>
+              <c:f>'Final results'!$L$76:$L$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11717,7 +11717,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$M$75</c:f>
+              <c:f>'Final results'!$M$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11738,7 +11738,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$I$76:$I$81</c:f>
+              <c:f>'Final results'!$I$76:$I$81</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -11764,7 +11764,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$M$76:$M$81</c:f>
+              <c:f>'Final results'!$M$76:$M$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11800,7 +11800,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$N$75</c:f>
+              <c:f>'Final results'!$N$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11821,7 +11821,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$I$76:$I$81</c:f>
+              <c:f>'Final results'!$I$76:$I$81</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -11847,7 +11847,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$N$76:$N$81</c:f>
+              <c:f>'Final results'!$N$76:$N$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11883,7 +11883,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retry!$O$75</c:f>
+              <c:f>'Final results'!$O$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11904,7 +11904,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Retry!$I$76:$I$81</c:f>
+              <c:f>'Final results'!$I$76:$I$81</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -11930,7 +11930,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retry!$O$76:$O$81</c:f>
+              <c:f>'Final results'!$O$76:$O$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -30210,9 +30210,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
+      <xdr:colOff>463176</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30347,16 +30347,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>455820</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>110297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>1131129</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:rowOff>8697</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30420,15 +30420,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
+      <xdr:colOff>411645</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>23052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>894245</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>127827</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33844,8 +33844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7973F6-D3D5-4592-94A3-FCA0F73C3305}">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P86" sqref="P86"/>
+    <sheetView tabSelected="1" topLeftCell="B79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -33854,7 +33854,7 @@
     <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.4140625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.08203125" customWidth="1"/>
     <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Documentation/CosineSimilarity/Record.xlsx
+++ b/Documentation/CosineSimilarity/Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\embeders-semantic-analysis\Documentation\CosineSimilarity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A71884A-50D0-4567-AAA2-1B69878E4C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899E149D-5FF2-4EF0-9B5E-231A9BB4A8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="689" firstSheet="4" activeTab="6" xr2:uid="{0B6CED53-8839-4228-88B3-1E625FBF7FC8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="689" firstSheet="4" activeTab="7" xr2:uid="{0B6CED53-8839-4228-88B3-1E625FBF7FC8}"/>
   </bookViews>
   <sheets>
     <sheet name="words vs words (3-small)" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="words vs pdfs (ada-002)" sheetId="5" r:id="rId5"/>
     <sheet name="words vs datasets (ada-002)" sheetId="7" r:id="rId6"/>
     <sheet name="Final results" sheetId="9" r:id="rId7"/>
+    <sheet name="word2Vec" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="113">
   <si>
     <t>political</t>
   </si>
@@ -503,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -531,6 +532,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12077,6 +12079,782 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1446468688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Words vs Words (Word2Vec)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>word2Vec!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>government</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>word2Vec!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>political</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>economic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sociological</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>technological</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>legal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>environmental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>word2Vec!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.49532101099999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44626144899999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.4927711999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.166628149</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41135462699999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35091778099999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E0F-4914-94A9-4F9A2EC86FAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>word2Vec!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>automation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>word2Vec!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>political</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>economic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sociological</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>technological</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>legal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>environmental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>word2Vec!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-8.8648902000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2045266000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.107210744</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32021822599999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.0816144999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.117910599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E0F-4914-94A9-4F9A2EC86FAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>word2Vec!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>export duty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>word2Vec!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>political</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>economic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sociological</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>technological</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>legal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>environmental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>word2Vec!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.147921365</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37718162500000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.0892077E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20668536000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28581256399999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24809383800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7E0F-4914-94A9-4F9A2EC86FAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>word2Vec!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>demographics</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>word2Vec!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>political</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>economic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sociological</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>technological</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>legal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>environmental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>word2Vec!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.17401957800000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18832628000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25616615700000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18121828200000001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>-5.4400000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6485467000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7E0F-4914-94A9-4F9A2EC86FAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>word2Vec!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>copyright laws</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>word2Vec!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>political</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>economic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sociological</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>technological</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>legal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>environmental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>word2Vec!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.20479903399999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21141043200000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8515530000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20783763699999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56394345400000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36990352700000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7E0F-4914-94A9-4F9A2EC86FAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>word2Vec!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>renewable energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>word2Vec!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>political</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>economic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sociological</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>technological</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>legal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>environmental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>word2Vec!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.16149650500000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33107563400000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2369801E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31764612199999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14807244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.449528873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7E0F-4914-94A9-4F9A2EC86FAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1433178016"/>
+        <c:axId val="1433176576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1433178016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1433176576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1433176576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1433178016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18275,6 +19053,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -25626,6 +26444,511 @@
 </file>
 
 <file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -30492,6 +31815,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A53440-11EB-7670-435A-3231CE295962}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -33844,7 +35208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7973F6-D3D5-4592-94A3-FCA0F73C3305}">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
@@ -35029,4 +36393,182 @@
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A70A27-215E-482F-9221-203A41A8040A}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2">
+        <v>0.49532101099999998</v>
+      </c>
+      <c r="C2">
+        <v>0.44626144899999998</v>
+      </c>
+      <c r="D2">
+        <v>-5.4927711999999997E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.166628149</v>
+      </c>
+      <c r="F2">
+        <v>0.41135462699999997</v>
+      </c>
+      <c r="G2">
+        <v>0.35091778099999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3">
+        <v>-8.8648902000000002E-2</v>
+      </c>
+      <c r="C3">
+        <v>3.2045266000000003E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.107210744</v>
+      </c>
+      <c r="E3">
+        <v>0.32021822599999999</v>
+      </c>
+      <c r="F3">
+        <v>-4.0816144999999998E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.117910599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4">
+        <v>0.147921365</v>
+      </c>
+      <c r="C4">
+        <v>0.37718162500000002</v>
+      </c>
+      <c r="D4">
+        <v>-1.0892077E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.20668536000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.28581256399999999</v>
+      </c>
+      <c r="G4">
+        <v>0.24809383800000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5">
+        <v>0.17401957800000001</v>
+      </c>
+      <c r="C5">
+        <v>0.18832628000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.25616615700000001</v>
+      </c>
+      <c r="E5">
+        <v>0.18121828200000001</v>
+      </c>
+      <c r="F5" s="11">
+        <v>-5.4400000000000001E-5</v>
+      </c>
+      <c r="G5">
+        <v>9.6485467000000005E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6">
+        <v>0.20479903399999999</v>
+      </c>
+      <c r="C6">
+        <v>0.21141043200000001</v>
+      </c>
+      <c r="D6">
+        <v>4.8515530000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.20783763699999999</v>
+      </c>
+      <c r="F6">
+        <v>0.56394345400000001</v>
+      </c>
+      <c r="G6">
+        <v>0.36990352700000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>0.16149650500000001</v>
+      </c>
+      <c r="C7">
+        <v>0.33107563400000001</v>
+      </c>
+      <c r="D7">
+        <v>1.2369801E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.31764612199999998</v>
+      </c>
+      <c r="F7">
+        <v>0.14807244</v>
+      </c>
+      <c r="G7">
+        <v>0.449528873</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentation/CosineSimilarity/Record.xlsx
+++ b/Documentation/CosineSimilarity/Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\embeders-semantic-analysis\Documentation\CosineSimilarity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899E149D-5FF2-4EF0-9B5E-231A9BB4A8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DAF6B7-1943-4757-98BD-AD070CB98252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="689" firstSheet="4" activeTab="7" xr2:uid="{0B6CED53-8839-4228-88B3-1E625FBF7FC8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="689" firstSheet="4" activeTab="6" xr2:uid="{0B6CED53-8839-4228-88B3-1E625FBF7FC8}"/>
   </bookViews>
   <sheets>
     <sheet name="words vs words (3-small)" sheetId="1" r:id="rId1"/>
@@ -517,6 +517,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -532,7 +533,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12246,11 +12246,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>word2Vec!$A$2</c:f>
+              <c:f>word2Vec!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>government</c:v>
+                  <c:v>political</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12267,33 +12267,33 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>word2Vec!$B$1:$G$1</c:f>
+              <c:f>word2Vec!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>political</c:v>
+                  <c:v>government</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>economic</c:v>
+                  <c:v>automation</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>sociological</c:v>
+                  <c:v>export duty</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>technological</c:v>
+                  <c:v>demographics</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>legal</c:v>
+                  <c:v>copyright laws</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>environmental</c:v>
+                  <c:v>renewable energy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>word2Vec!$B$2:$G$2</c:f>
+              <c:f>word2Vec!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -12301,19 +12301,19 @@
                   <c:v>0.49532101099999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44626144899999998</c:v>
+                  <c:v>-8.8648902000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.4927711999999997E-2</c:v>
+                  <c:v>0.147921365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.166628149</c:v>
+                  <c:v>0.17401957800000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41135462699999997</c:v>
+                  <c:v>0.20479903399999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35091778099999998</c:v>
+                  <c:v>0.16149650500000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12329,11 +12329,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>word2Vec!$A$3</c:f>
+              <c:f>word2Vec!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>automation</c:v>
+                  <c:v>economic</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12350,53 +12350,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>word2Vec!$B$1:$G$1</c:f>
+              <c:f>word2Vec!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>political</c:v>
+                  <c:v>government</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>economic</c:v>
+                  <c:v>automation</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>sociological</c:v>
+                  <c:v>export duty</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>technological</c:v>
+                  <c:v>demographics</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>legal</c:v>
+                  <c:v>copyright laws</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>environmental</c:v>
+                  <c:v>renewable energy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>word2Vec!$B$3:$G$3</c:f>
+              <c:f>word2Vec!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-8.8648902000000002E-2</c:v>
+                  <c:v>0.44626144899999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.2045266000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.107210744</c:v>
+                  <c:v>0.37718162500000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32021822599999999</c:v>
+                  <c:v>0.18832628000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.0816144999999998E-2</c:v>
+                  <c:v>0.21141043200000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.117910599</c:v>
+                  <c:v>0.33107563400000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12412,11 +12412,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>word2Vec!$A$4</c:f>
+              <c:f>word2Vec!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>export duty</c:v>
+                  <c:v>sociological</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12433,53 +12433,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>word2Vec!$B$1:$G$1</c:f>
+              <c:f>word2Vec!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>political</c:v>
+                  <c:v>government</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>economic</c:v>
+                  <c:v>automation</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>sociological</c:v>
+                  <c:v>export duty</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>technological</c:v>
+                  <c:v>demographics</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>legal</c:v>
+                  <c:v>copyright laws</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>environmental</c:v>
+                  <c:v>renewable energy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>word2Vec!$B$4:$G$4</c:f>
+              <c:f>word2Vec!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.147921365</c:v>
+                  <c:v>-5.4927711999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37718162500000002</c:v>
+                  <c:v>0.107210744</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-1.0892077E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20668536000000001</c:v>
+                  <c:v>0.25616615700000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28581256399999999</c:v>
+                  <c:v>4.8515530000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24809383800000001</c:v>
+                  <c:v>1.2369801E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12495,11 +12495,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>word2Vec!$A$5</c:f>
+              <c:f>word2Vec!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>demographics</c:v>
+                  <c:v>technological</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12516,53 +12516,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>word2Vec!$B$1:$G$1</c:f>
+              <c:f>word2Vec!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>political</c:v>
+                  <c:v>government</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>economic</c:v>
+                  <c:v>automation</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>sociological</c:v>
+                  <c:v>export duty</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>technological</c:v>
+                  <c:v>demographics</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>legal</c:v>
+                  <c:v>copyright laws</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>environmental</c:v>
+                  <c:v>renewable energy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>word2Vec!$B$5:$G$5</c:f>
+              <c:f>word2Vec!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.17401957800000001</c:v>
+                  <c:v>0.166628149</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18832628000000001</c:v>
+                  <c:v>0.32021822599999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25616615700000001</c:v>
+                  <c:v>0.20668536000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.18121828200000001</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>-5.4400000000000001E-5</c:v>
+                <c:pt idx="4">
+                  <c:v>0.20783763699999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6485467000000005E-2</c:v>
+                  <c:v>0.31764612199999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12578,11 +12578,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>word2Vec!$A$6</c:f>
+              <c:f>word2Vec!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>copyright laws</c:v>
+                  <c:v>legal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12599,53 +12599,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>word2Vec!$B$1:$G$1</c:f>
+              <c:f>word2Vec!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>political</c:v>
+                  <c:v>government</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>economic</c:v>
+                  <c:v>automation</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>sociological</c:v>
+                  <c:v>export duty</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>technological</c:v>
+                  <c:v>demographics</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>legal</c:v>
+                  <c:v>copyright laws</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>environmental</c:v>
+                  <c:v>renewable energy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>word2Vec!$B$6:$G$6</c:f>
+              <c:f>word2Vec!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.20479903399999999</c:v>
+                  <c:v>0.41135462699999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21141043200000001</c:v>
+                  <c:v>-4.0816144999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8515530000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.20783763699999999</c:v>
+                  <c:v>0.28581256399999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>-5.4400000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.56394345400000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36990352700000001</c:v>
+                  <c:v>0.14807244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12661,11 +12661,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>word2Vec!$A$7</c:f>
+              <c:f>word2Vec!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>renewable energy</c:v>
+                  <c:v>environmental</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12682,50 +12682,50 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>word2Vec!$B$1:$G$1</c:f>
+              <c:f>word2Vec!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>political</c:v>
+                  <c:v>government</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>economic</c:v>
+                  <c:v>automation</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>sociological</c:v>
+                  <c:v>export duty</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>technological</c:v>
+                  <c:v>demographics</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>legal</c:v>
+                  <c:v>copyright laws</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>environmental</c:v>
+                  <c:v>renewable energy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>word2Vec!$B$7:$G$7</c:f>
+              <c:f>word2Vec!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.16149650500000001</c:v>
+                  <c:v>0.35091778099999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33107563400000001</c:v>
+                  <c:v>0.117910599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2369801E-2</c:v>
+                  <c:v>0.24809383800000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31764612199999998</c:v>
+                  <c:v>9.6485467000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14807244</c:v>
+                  <c:v>0.36990352700000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.449528873</c:v>
@@ -12806,6 +12806,7 @@
         <c:axId val="1433176576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -31826,7 +31827,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
+      <xdr:colOff>577850</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
@@ -32188,14 +32189,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
@@ -32356,14 +32357,14 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" t="s">
@@ -32547,19 +32548,19 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
     </row>
     <row r="37" spans="1:11">
       <c r="B37" t="s">
@@ -32971,14 +32972,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
@@ -33258,15 +33259,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
@@ -33474,15 +33475,15 @@
     </row>
     <row r="17" spans="1:7" ht="14.5" thickBot="1"/>
     <row r="18" spans="1:7" ht="14.5" thickBot="1">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" thickBot="1">
       <c r="A19" s="2"/>
@@ -33645,15 +33646,15 @@
     </row>
     <row r="35" spans="1:16" ht="14.5" thickBot="1"/>
     <row r="36" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:16">
       <c r="B37" t="s">
@@ -33850,15 +33851,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -35208,7 +35209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7973F6-D3D5-4592-94A3-FCA0F73C3305}">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView topLeftCell="B88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
@@ -36399,13 +36400,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A70A27-215E-482F-9221-203A41A8040A}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -36514,7 +36516,7 @@
       <c r="E5">
         <v>0.18121828200000001</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="6">
         <v>-5.4400000000000001E-5</v>
       </c>
       <c r="G5">
